--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>TIPO TRATAMIENTO</t>
   </si>
@@ -41,16 +41,16 @@
     <t>PapelCartón</t>
   </si>
   <si>
-    <t>Cartón: cajas</t>
-  </si>
-  <si>
-    <t>Aluminio: latas, rejas IBC</t>
-  </si>
-  <si>
-    <t>Rígido: bidones, tambores, botellas, IBC, tinetas</t>
-  </si>
-  <si>
-    <t>Pallet</t>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>Caja de Madera</t>
   </si>
   <si>
     <t>2 - Quinta Región - Los Aromos 2432</t>
@@ -59,16 +59,16 @@
     <t>Valorización Energética</t>
   </si>
   <si>
-    <t>Cartón: esquineros, conos</t>
-  </si>
-  <si>
-    <t>Fierro: hojalata, tambores, zunchos, tinetas, tanques</t>
-  </si>
-  <si>
-    <t>Rígido: pallets, bins</t>
-  </si>
-  <si>
-    <t>Cajas, esquineros, carretes</t>
+    <t>Papel Compuesto (cemento)</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>Pallet de Madera</t>
   </si>
   <si>
     <t>5 - Región de Los Lagos - Establecimiento</t>
@@ -77,39 +77,42 @@
     <t>Disposición Final en RS</t>
   </si>
   <si>
-    <t>Papel: bolsas, papel kraft, manuales</t>
-  </si>
-  <si>
-    <t>Flexibles rafia: sacos, maxisacos</t>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
   </si>
   <si>
     <t>73 - Región de O’Higgins - Ejemplo</t>
   </si>
   <si>
-    <t>Papel compuesto: bolsas de cemento, linear</t>
-  </si>
-  <si>
-    <t>Flexibles láminas: films de embalaje, bolsas, burbujas, contraible, flexitank</t>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
   </si>
   <si>
     <t>104 - Región de Coquimbo - Nombre</t>
   </si>
   <si>
-    <t>Flexibles: zunchos</t>
+    <t>Plástico Zuncho</t>
   </si>
   <si>
     <t>125 - Región de Atacama - Juan</t>
   </si>
   <si>
-    <t>Poliestireno: cajas, protecciones, bandejas</t>
+    <t>Plástico Otro</t>
   </si>
   <si>
     <t>156 - Región de Antofagasta - juan</t>
   </si>
   <si>
-    <t>Plásticos compuestos: multicapas</t>
-  </si>
-  <si>
     <t>157 - Región de Arica y Parinacota - Juan</t>
   </si>
   <si>
@@ -146,7 +149,7 @@
     <t>NOMBRE GESTOR</t>
   </si>
   <si>
-    <t>RUT ESTABLECIMIENTO RECEPTOR</t>
+    <t>RUT GESTOR</t>
   </si>
   <si>
     <t>CÓDIGO ESTABLECIMIENTO RECEPTOR</t>
@@ -191,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E3" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="E1:E3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E5" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="E1:E5">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -247,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F8" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="F1:F8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="F1:F7">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -680,71 +684,74 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -773,92 +780,192 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="58">
     <dataValidation type="list" showErrorMessage="1" error="aaaa" sqref="A10:A51">
@@ -867,11 +974,13 @@
     <dataValidation type="list" showErrorMessage="1" error="aaaa" sqref="A2:A51">
       <formula1>Info!$A$2:$A$13</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B10:B51">
-      <formula1>45042.8485097338</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B2:B51">
-      <formula1>45042.8485097338</formula1>
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="B10:B51">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="B2:B51">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="D10:D51">
       <formula1>Info!$B$2:$B$4</formula1>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -968,10 +968,10 @@
     </row>
   </sheetData>
   <dataValidations count="58">
-    <dataValidation type="list" showErrorMessage="1" error="aaaa" sqref="A10:A51">
+    <dataValidation type="list" showErrorMessage="1" error="Por favor ingresar un Código de Establecimiento válido" sqref="A10:A51">
       <formula1>Info!$A$2:$A$13</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" error="aaaa" sqref="A2:A51">
+    <dataValidation type="list" showErrorMessage="1" error="Por favor ingresar un Código de Establecimiento válido" sqref="A2:A51">
       <formula1>Info!$A$2:$A$13</formula1>
     </dataValidation>
     <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="B10:B51">

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -816,155 +816,205 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="58">

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Info" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Info" state="veryHidden" r:id="rId4"/>
     <sheet sheetId="2" name="Carga Masiva" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="578">
   <si>
     <t>CODIGO</t>
   </si>
@@ -71,7 +71,7 @@
     <t>EyE sin separación</t>
   </si>
   <si>
-    <t>11992209-7</t>
+    <t>11992209-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Empresa Demo</t>
@@ -98,7 +98,7 @@
     <t>Pallet de Madera</t>
   </si>
   <si>
-    <t>76606401-9</t>
+    <t>76606401-9 - Región de Coquimbo</t>
   </si>
   <si>
     <t>Arnau</t>
@@ -122,6 +122,9 @@
     <t>Plástico Saco o Maxisacos</t>
   </si>
   <si>
+    <t>11992209-7 - Región de Antofagasta</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPRESA ZOR-6 </t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>Plástico EPS (Poliestireno Expandido)</t>
   </si>
   <si>
+    <t>11992209-7 - Región de Atacama</t>
+  </si>
+  <si>
     <t>Región de Atacama</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
     <t>Plástico Zuncho</t>
   </si>
   <si>
+    <t>11992209-7 - Región de Coquimbo</t>
+  </si>
+  <si>
     <t>id_test - Región de Atacama - Alto del Carmen - Juan</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
     <t>Plástico Otros</t>
   </si>
   <si>
+    <t>11992209-7 - Región de Valparaíso</t>
+  </si>
+  <si>
     <t>Región de Valparaíso</t>
   </si>
   <si>
@@ -185,24 +197,36 @@
     <t xml:space="preserve">id_test - Región del Maule - Colbún - juan                     </t>
   </si>
   <si>
+    <t>11992209-7 - Región de O’Higgins</t>
+  </si>
+  <si>
     <t>Región de O’Higgins</t>
   </si>
   <si>
     <t>id_test - Región del Maule - Longaví - juan</t>
   </si>
   <si>
+    <t>11992209-7 - Región del Maule</t>
+  </si>
+  <si>
     <t>Región del Maule</t>
   </si>
   <si>
     <t>id_test - Región Metropolitana - Huechuraba - Estación Central</t>
   </si>
   <si>
+    <t>11992209-7 - Región de Los Lagos</t>
+  </si>
+  <si>
     <t>Región de Los Lagos</t>
   </si>
   <si>
     <t>id_test - Región de Aysén - Aysén - establecimiento carga masiva</t>
   </si>
   <si>
+    <t>11992209-7 - Región de Aysén</t>
+  </si>
+  <si>
     <t>Región de Aysén</t>
   </si>
   <si>
@@ -212,19 +236,40 @@
     <t>adasd - Región de Coquimbo - La Higuera - zoroboy</t>
   </si>
   <si>
-    <t>19283992-0</t>
+    <t>19283992-0 - Región de Atacama</t>
   </si>
   <si>
     <t>Juan1</t>
   </si>
   <si>
-    <t>123123</t>
+    <t>123123 - Región de Valparaíso</t>
   </si>
   <si>
     <t>Empresa DEMO 2</t>
   </si>
   <si>
-    <t>16114742-7</t>
+    <t>123123 - Región de Aysén</t>
+  </si>
+  <si>
+    <t>123123 - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>123123 - Región Metropolitana</t>
+  </si>
+  <si>
+    <t>123123 - Región de Atacama</t>
+  </si>
+  <si>
+    <t>123123 - Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>76606401-9 - Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>123123 - Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>16114742-7 - Región de Atacama</t>
   </si>
   <si>
     <t>dsad</t>
@@ -236,37 +281,49 @@
     <t>EMPRESA ZOR-18</t>
   </si>
   <si>
-    <t>44444446-0</t>
+    <t>44444446-0 - Región de Aysén</t>
   </si>
   <si>
     <t>QueTeImporta Importaciones S.A</t>
   </si>
   <si>
+    <t>44444446-0 - Región Metropolitana</t>
+  </si>
+  <si>
     <t>EMPRESA ZOR-19</t>
   </si>
   <si>
-    <t>15023101-9</t>
+    <t>15023101-9 - Región de Valparaíso</t>
   </si>
   <si>
     <t>Empresa ZOR-20</t>
   </si>
   <si>
+    <t>16114742-7 - Región de Valparaíso</t>
+  </si>
+  <si>
     <t>EMPRESA ZOR-21</t>
   </si>
   <si>
     <t>EMPRESA NESKO TEST 1</t>
   </si>
   <si>
+    <t>16114742-7 - Región Metropolitana</t>
+  </si>
+  <si>
     <t>EMPRESA NESKO TEST 2</t>
   </si>
   <si>
     <t>EMPRESA ZOR-GES</t>
   </si>
   <si>
+    <t>19283992-0 - Región de Antofagasta</t>
+  </si>
+  <si>
     <t>Telefonica</t>
   </si>
   <si>
-    <t>12844863-2</t>
+    <t>12844863-2 - Región de Valparaíso</t>
   </si>
   <si>
     <t>EMPRESA ZOR CI 2</t>
@@ -278,85 +335,100 @@
     <t>EMPRESA ZOR GESTORES</t>
   </si>
   <si>
-    <t>93926000-5</t>
+    <t>16114742-7 - Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>16114742-7 - Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>16114742-7 - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>19283992-0 - Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>93926000-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Aceros Chile S.A.</t>
   </si>
   <si>
-    <t>77429370-1</t>
+    <t>77429370-1 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Agroorgánicos Mostazal Limitada</t>
   </si>
   <si>
-    <t>76247523-5</t>
+    <t>76247523-5 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Asesorias y Servicios Kyklos SPA
 </t>
   </si>
   <si>
-    <t>92176000-0</t>
+    <t>92176000-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>AZA S.A.</t>
   </si>
   <si>
-    <t>76117980-2</t>
+    <t>76117980-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>BCC Recycling Systems</t>
   </si>
   <si>
-    <t>77112684-7</t>
+    <t>77112684-7 - Región de O’Higgins</t>
   </si>
   <si>
     <t xml:space="preserve">BDC SPA
 </t>
   </si>
   <si>
-    <t>76140586-1</t>
+    <t>76140586-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Bioils Spa</t>
   </si>
   <si>
-    <t>83853800-2</t>
+    <t>83853800-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Botadero Semot</t>
   </si>
   <si>
-    <t>76329535-4</t>
+    <t>76329535-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Botadero Trabun</t>
   </si>
   <si>
-    <t>91438000-6</t>
+    <t>91438000-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Cambiaso Hnos. Sac</t>
+  </si>
+  <si>
+    <t>91438000-6 - Región de Valparaíso</t>
   </si>
   <si>
     <t xml:space="preserve">Cambiaso Hnos. Sac Planta Polietileno
 </t>
   </si>
   <si>
-    <t>96791900-4</t>
+    <t>96791900-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Cembrass S.A.</t>
   </si>
   <si>
-    <t>93658000-9</t>
+    <t>93658000-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Chilena de Moldeados S.A.</t>
   </si>
   <si>
-    <t>96529310-8</t>
+    <t>96529310-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>CMPC TISSUE Puente Alto</t>
@@ -365,502 +437,508 @@
     <t>CMPC TISSUE Talagante</t>
   </si>
   <si>
-    <t>91337000-7</t>
+    <t>91337000-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Coactiva - Cementos Polpaico SA</t>
   </si>
   <si>
-    <t>96593080-9</t>
+    <t>96593080-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Coagro S.A.</t>
   </si>
   <si>
-    <t>76872560-8</t>
+    <t>76872560-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Cobra Chile Servicios S. A.</t>
   </si>
   <si>
-    <t>83653100-0</t>
+    <t>83653100-0 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Comberplast - COMPAGNON BERNABE S.A.
 </t>
   </si>
   <si>
-    <t>77045065-9</t>
+    <t>77045065-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Bendito Residuo SPA</t>
   </si>
   <si>
-    <t>78329040-5</t>
+    <t>78329040-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Cammar</t>
   </si>
   <si>
-    <t>76335980-8</t>
+    <t>76335980-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Comepal S. A.</t>
   </si>
   <si>
-    <t>76207833-3</t>
+    <t>76207833-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Crimaxca Spa</t>
   </si>
   <si>
-    <t>77974440-K</t>
+    <t>77974440-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial de la Fuente Hermanos Ltda.</t>
   </si>
   <si>
-    <t>78714530-2</t>
+    <t>78714530-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial E Industrial Albromet Ltda.</t>
   </si>
   <si>
-    <t>76267786-5</t>
+    <t>76267786-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Ecoast Ltda.</t>
   </si>
   <si>
-    <t>85051600-6</t>
+    <t>85051600-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Hual</t>
   </si>
   <si>
-    <t>76081792-9</t>
+    <t>76081792-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Industrial Recipack Ldta</t>
   </si>
   <si>
-    <t>76084454-3</t>
+    <t>76084454-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial LML</t>
   </si>
   <si>
-    <t>52000616-8</t>
+    <t>52000616-8 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Comercial Praxedes del Rosario Pizarro Landero Spa -
 DIFEZA</t>
   </si>
   <si>
-    <t>76245144-1</t>
+    <t>76245144-1 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Comercial Rio Aconcagua SPA
 </t>
   </si>
   <si>
-    <t>96904060-3</t>
+    <t>96904060-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercial Romerelli S.A.</t>
   </si>
   <si>
-    <t>76343729-9</t>
+    <t>76343729-9 - Región de Valparaíso</t>
   </si>
   <si>
     <t>COMERCIALIZADORA BELLBAST LIMITADA</t>
   </si>
   <si>
-    <t>76048145-9</t>
+    <t>76048145-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>COMERCIALIZADORA DE ENVASES INDUSTRIALES LIMITADA</t>
   </si>
   <si>
-    <t>76124913-4</t>
+    <t>76124913-4 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Comercializadora de Excedentes Industriales
 Nahuel Trade S.A.</t>
   </si>
   <si>
-    <t>76022783-8</t>
+    <t>76022783-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>COMERCIALIZADORA DE FIERROS CARRASCAL SA</t>
   </si>
   <si>
-    <t>95594000-8</t>
+    <t>95594000-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercializadora de Insumos Industriales (Incometal S. A.)</t>
   </si>
   <si>
-    <t>76002742-1</t>
+    <t>76002742-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercializadora de Metales Oxxo</t>
   </si>
   <si>
-    <t>76122914-1</t>
+    <t>76122914-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercializadora de Metales Santa Cruz Limitada</t>
   </si>
   <si>
-    <t>77028164-4</t>
+    <t>77028164-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>COMERCIALIZADORA EXCEDENTES PLASTICOS F Y J  LIMITADA</t>
   </si>
   <si>
-    <t>77006706-5</t>
+    <t>77006706-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>COMERCIALIZADORA POLPLAST SpA</t>
   </si>
   <si>
-    <t>76096487-5</t>
+    <t>76096487-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>COMERCIALIZADORA RECIPOL SA</t>
   </si>
   <si>
-    <t>76261862-1</t>
+    <t>76261862-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercializadora Sisa Ltda.</t>
   </si>
   <si>
-    <t>76320484-7</t>
+    <t>76320484-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comercializadora Troncoso Ltda.</t>
   </si>
   <si>
-    <t>76983212-2</t>
+    <t>76983212-2 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">COMERCIALIZADORA VACOR LIMITADA
 </t>
   </si>
   <si>
-    <t>77031077-6</t>
+    <t>77031077-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>COMERCIALIZADORA VICTOR PIUTRIN E.I.R.L.</t>
   </si>
   <si>
-    <t>76281754-3</t>
+    <t>76281754-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Comerzam Spa</t>
   </si>
   <si>
-    <t>90320000-6</t>
+    <t>90320000-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Compañia Electrometalúrgica SA (Elecmetal)</t>
   </si>
   <si>
-    <t>76116144-K</t>
+    <t>76116144-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Compañía General de Remates Spa</t>
   </si>
   <si>
-    <t>96554890-4</t>
+    <t>96554890-4 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Compañia Papelera del Pacifico S A</t>
   </si>
   <si>
-    <t>76235454-3</t>
+    <t>76235454-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Concemet Spa</t>
   </si>
   <si>
-    <t>77610380-2</t>
+    <t>76235454-3 - Región del Maule</t>
+  </si>
+  <si>
+    <t>77610380-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Construya Ltda.</t>
   </si>
   <si>
-    <t>96827370-1</t>
+    <t>96827370-1 - Región de Atacama</t>
   </si>
   <si>
     <t>Cosemar</t>
   </si>
   <si>
-    <t>89689900-7</t>
+    <t>89689900-7 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">De Vicente Plasticos S A
 </t>
   </si>
   <si>
-    <t>96727090-3</t>
+    <t>96727090-3 - Región del Maule</t>
   </si>
   <si>
     <t>Distribuidora Industrial Disa SA</t>
   </si>
   <si>
-    <t>92264000-9</t>
+    <t>92264000-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Dynal Industrial S A</t>
   </si>
   <si>
-    <t>76415706-0</t>
+    <t>76415706-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Eccofeed Spa</t>
   </si>
   <si>
-    <t>76494611-1</t>
+    <t>76494611-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Eco-Activos E.I.R.L.</t>
   </si>
   <si>
-    <t>96756460-5</t>
+    <t>96756460-5 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">ECOCLEAN S A
 </t>
   </si>
   <si>
-    <t>76714469-5</t>
+    <t>76714469-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Ecoengranaje Spa</t>
   </si>
   <si>
-    <t>99545960-4</t>
+    <t>99545960-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Ecofibras</t>
   </si>
   <si>
-    <t>76494100-4</t>
+    <t>76494100-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>ECOGLOBAL CHILE</t>
   </si>
   <si>
-    <t>96944470-4</t>
+    <t>96944470-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Ecológica S.A.</t>
   </si>
   <si>
-    <t>99539220-8</t>
+    <t>99539220-8 - Región del Maule</t>
   </si>
   <si>
     <t>Ecomaule S A</t>
   </si>
   <si>
-    <t>76004531-4</t>
+    <t>76004531-4 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Energía Pacifico S.A.</t>
   </si>
   <si>
-    <t>76244186-1</t>
+    <t>76244186-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Enfaena S.A.</t>
   </si>
   <si>
-    <t>78910580-4</t>
+    <t>78910580-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Engar Ltda</t>
   </si>
   <si>
-    <t>86881400-4</t>
+    <t>86881400-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Envases CMF S. A</t>
   </si>
   <si>
-    <t>76902190-6</t>
+    <t>76902190-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Esco Elecmetal Fundición Ltda.</t>
   </si>
   <si>
-    <t>76468793-0</t>
+    <t>76468793-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Essaar Manejo de Residuos Industriales Spa.</t>
   </si>
   <si>
-    <t>94282000-3</t>
+    <t>94282000-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>ESSITY CHILE SA</t>
   </si>
   <si>
-    <t>78552510-8</t>
+    <t>78552510-8 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Estin S.A.
 </t>
   </si>
   <si>
-    <t>76891890-2</t>
+    <t>76891890-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Exeline Plastics EIRL</t>
   </si>
   <si>
-    <t>76380911-0</t>
+    <t>76380911-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Exportaciones Emanuel Spa</t>
   </si>
   <si>
-    <t>76301707-9</t>
+    <t>76301707-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Exportadora e Importadora Minerales y Chatarra Ltda.</t>
   </si>
   <si>
-    <t>96918500-8</t>
+    <t>96918500-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fittings y Llaverías S. A.</t>
   </si>
   <si>
-    <t>99583700-5</t>
+    <t>99583700-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fromm Chile S.A.</t>
   </si>
   <si>
-    <t>78985680-K</t>
+    <t>78985680-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Fuentes Hermanos Limitada</t>
   </si>
   <si>
-    <t>88325800-2</t>
+    <t>88325800-2 - Región de Antofagasta</t>
   </si>
   <si>
     <t>Fundición Altonorte SA</t>
   </si>
   <si>
-    <t>89078000-8</t>
+    <t>89078000-8 - Región del Maule</t>
   </si>
   <si>
     <t>Fundición Curicó Ltda.</t>
   </si>
   <si>
-    <t>79827160-1</t>
+    <t>79827160-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fundición de Metales Metalbras Ltda.</t>
   </si>
   <si>
-    <t>78272510-6</t>
+    <t>78272510-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fundición Jofre y Cía. Ltda.</t>
   </si>
   <si>
-    <t>95065000-1</t>
+    <t>95065000-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fundición Las Rosas S.A.</t>
   </si>
   <si>
-    <t>99532410-5</t>
+    <t>99532410-5 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Fundición Talleres Ltda.</t>
   </si>
   <si>
-    <t>81318200-9</t>
+    <t>81318200-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fundición Vulco Ltda.</t>
   </si>
   <si>
-    <t>77079000-K</t>
+    <t>77079000-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Fundición y Maestranza Omamet Ltda.</t>
   </si>
   <si>
-    <t>96641980-6</t>
+    <t>96641980-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Fundinox Chile S. A.</t>
   </si>
   <si>
-    <t>76161135-6</t>
+    <t>76161135-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Galed Limitada</t>
   </si>
   <si>
-    <t>92704000-K</t>
+    <t>92704000-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Garibaldi SA</t>
   </si>
   <si>
-    <t>96722440-6</t>
+    <t>96722440-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Gestión Ecológica de Residuos SA. (Gersa)</t>
   </si>
   <si>
-    <t>76562260-3</t>
+    <t>76562260-3 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Gestion Integral de residuos Geobarra Exins S.A.</t>
   </si>
   <si>
-    <t>76264249-2</t>
+    <t>76562260-3 - Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>76264249-2 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Global Recycling Company
 S.P.A.</t>
   </si>
   <si>
-    <t>76469170-9</t>
+    <t>76469170-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Greendot Chile S. A.</t>
   </si>
   <si>
-    <t>76267533-1</t>
+    <t>76267533-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Greenplast S.A.</t>
   </si>
   <si>
-    <t>76353326-3</t>
+    <t>76353326-3 - Región de Antofagasta</t>
   </si>
   <si>
     <t>Greind Ltda</t>
   </si>
   <si>
-    <t>87676500-4</t>
+    <t>87676500-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Harsco Metals Chile S.A.</t>
   </si>
   <si>
-    <t>76195442-3</t>
+    <t>76195442-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Heresmann y Solari Ltda.</t>
@@ -869,467 +947,479 @@
     <t>Importadora y Exportadora Romerelli Ltda.</t>
   </si>
   <si>
-    <t>92261000-2</t>
+    <t>92261000-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Industria Metalúrgica Sorena</t>
   </si>
   <si>
-    <t>76073260-5</t>
+    <t>76073260-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Industria Procesadora de Plásticos Ltda. (Inproplas)</t>
   </si>
   <si>
-    <t>76317743-2</t>
+    <t>76317743-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Industrial de procesos de la Metalurgia Spa</t>
   </si>
   <si>
-    <t>96786410-2</t>
+    <t>96786410-2 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Industrial y Comercial de Fierro y Materiales de la
 Construcción S. A.</t>
   </si>
   <si>
-    <t>87550600-5</t>
+    <t>87550600-5 - Región del Maule</t>
   </si>
   <si>
     <t>Industrias Vínicas S A</t>
   </si>
   <si>
-    <t>96690870-K</t>
+    <t>96690870-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Integrity SA</t>
   </si>
   <si>
-    <t>99563840-1</t>
+    <t>99563840-1 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Inversiones Las Garzas Sa</t>
   </si>
   <si>
-    <t>76349947-2</t>
+    <t>76349947-2 - Región de Coquimbo</t>
   </si>
   <si>
     <t>INVERSIONES PANUL LIMITADA</t>
   </si>
   <si>
-    <t>76273262-9</t>
+    <t>76273262-9 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Just Ldta</t>
   </si>
   <si>
-    <t>76009053-0</t>
+    <t>76009053-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Madeco Mills S. A.</t>
   </si>
   <si>
-    <t>99583940-7</t>
+    <t>99583940-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Mamut S. A.</t>
   </si>
   <si>
-    <t>76836652-7</t>
+    <t>76836652-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>MANEJO INTEGRAL DE RESIDUOS CYM LIMITADA</t>
   </si>
   <si>
-    <t>76046889-4</t>
+    <t>76046889-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Martínez y Valdivieso S.A.</t>
   </si>
   <si>
-    <t>92214000-6</t>
+    <t>92214000-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Mellafe y Salas S. A.</t>
   </si>
   <si>
-    <t>78769280-K</t>
+    <t>78769280-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Metal López S.A.</t>
   </si>
   <si>
-    <t>76047913-6</t>
+    <t>76047913-6 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Metales y Aluminios S.A. -
 METALUM</t>
   </si>
   <si>
-    <t>96790240-3</t>
+    <t>96790240-3 - Región de Coquimbo</t>
   </si>
   <si>
     <t>Minera Los Pelambres</t>
   </si>
   <si>
-    <t>96508670-6</t>
+    <t>96508670-6 - Región de Antofagasta</t>
   </si>
   <si>
     <t>Minera Meridian Limitada</t>
   </si>
   <si>
-    <t>99536660-6</t>
+    <t>99536660-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Mol Ambiente Sociedad Anonima</t>
   </si>
   <si>
-    <t>93628000-5</t>
+    <t>99536660-6 - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>93628000-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Molibdenos y Metales S. A.</t>
   </si>
   <si>
-    <t>96840350-8</t>
+    <t>96840350-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Paimasa S.A.</t>
   </si>
   <si>
-    <t>77268155-0</t>
+    <t>77268155-0 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Paz Recycling</t>
   </si>
   <si>
-    <t>76255054-7</t>
+    <t>76255054-7 - Región de Antofagasta</t>
   </si>
   <si>
     <t>PLANTA RECUPERADORA DE METALES</t>
   </si>
   <si>
-    <t>76143164-1</t>
+    <t>76143164-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Plastek S.A.</t>
   </si>
   <si>
-    <t>76432751-9</t>
+    <t>76432751-9 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Plasticos del Sur SPA</t>
   </si>
   <si>
-    <t>77653070-0</t>
+    <t>77653070-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Plásticos Dixie Ldta</t>
   </si>
   <si>
-    <t>77019350-8</t>
+    <t>77653070-0 - Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>77019350-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Plásticos Filmamerica Ltda.</t>
   </si>
   <si>
-    <t>76622890-9</t>
+    <t>76622890-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Plásticos Procesa Ltda.</t>
   </si>
   <si>
-    <t>76634139-K</t>
+    <t>76634139-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Polyrec Spa</t>
   </si>
   <si>
-    <t>78803130-0</t>
+    <t>78803130-0 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Proacer (Magotteaux Andino)                                  </t>
   </si>
   <si>
-    <t>96815410-9</t>
+    <t>96815410-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Procesadora de Metales S.A.</t>
   </si>
   <si>
-    <t>76099416-2</t>
+    <t>76099416-2 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Procesadora de plasticos puelche S.A.</t>
   </si>
   <si>
-    <t>93447000-1</t>
+    <t>93447000-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Química del Campo Limitada</t>
   </si>
   <si>
-    <t>93447000-2</t>
-  </si>
-  <si>
-    <t>77583350-5</t>
+    <t>93447000-2 - Región Metropolitana</t>
+  </si>
+  <si>
+    <t>77583350-5 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Recicamp - PAPELES Y CARTONES CONSTANZA LTDA
 </t>
   </si>
   <si>
-    <t>77167876-9</t>
+    <t>77167876-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>RECICLADORA 2020 SPA</t>
   </si>
   <si>
-    <t>76458847-9</t>
+    <t>76458847-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recicladora de Excedentes Protermo Ltda.</t>
   </si>
   <si>
-    <t>76201081-K</t>
+    <t>76201081-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Recicladora Reciclean Spa</t>
   </si>
   <si>
-    <t>76509135-7</t>
+    <t>76509135-7 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Reciclados del Sur Spa</t>
   </si>
   <si>
-    <t>76190988-6</t>
+    <t>76190988-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Reciclados Industriales S.A</t>
   </si>
   <si>
-    <t>76180122-8</t>
+    <t>76190988-6 - Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>76180122-8 - Región del Maule</t>
   </si>
   <si>
     <t>Reciclaje Ciclo Verde LTDA</t>
   </si>
   <si>
-    <t>78959680-8</t>
+    <t>78959680-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Reciclaje Ecotrans Ltda.</t>
   </si>
   <si>
-    <t>76412003-5</t>
+    <t>76412003-5 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Reciclaje Genesis SPA</t>
   </si>
   <si>
-    <t>76268247-8</t>
+    <t>76268247-8 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Reciclaje Mundo Sur SPA.</t>
   </si>
   <si>
-    <t>76713661-7</t>
+    <t>76713661-7 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Reciclaje Patricia Mansilla S. EIRL</t>
   </si>
   <si>
-    <t>76612552-2</t>
+    <t>76612552-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>RECICLAJES BASTIAS SPA</t>
   </si>
   <si>
-    <t>76168923-1</t>
+    <t>76168923-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Reciclajes Cono Sur</t>
   </si>
   <si>
-    <t>76200213-2</t>
+    <t>76200213-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Reciclajes Farex</t>
   </si>
   <si>
-    <t>96834290-8</t>
+    <t>96834290-8 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Reciclajes Industriales SA
 </t>
   </si>
   <si>
-    <t>76229707-8</t>
+    <t>76229707-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Reciclajes LHP S.A.</t>
   </si>
   <si>
-    <t>76374359-4</t>
+    <t>76374359-4 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Reciclajes Parraguez SPA</t>
   </si>
   <si>
-    <t>76833156-1</t>
+    <t>76833156-1 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Reciclajes Rem SPA</t>
   </si>
   <si>
-    <t>76367289-1</t>
+    <t>76367289-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Reciclajes y Servicios Vía Ecológica Spa</t>
   </si>
   <si>
-    <t>76071377-5</t>
+    <t>76071377-5 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Recimar SA</t>
   </si>
   <si>
-    <t>76081906-9</t>
+    <t>76081906-9 - Región del Maule</t>
   </si>
   <si>
     <t>Recipar SA</t>
   </si>
   <si>
-    <t>96931540-8</t>
+    <t>96931540-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recipet S.A.</t>
   </si>
   <si>
-    <t>76470389-8</t>
+    <t>76470389-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recollect SPA</t>
   </si>
   <si>
-    <t>96588400-9</t>
+    <t>96588400-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recupac S.A.</t>
   </si>
   <si>
-    <t>77137141-9</t>
+    <t>77137141-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recuperadora de Plásticos Granplas</t>
   </si>
   <si>
-    <t>99523500-5</t>
+    <t>77137141-9 - Región del Maule</t>
+  </si>
+  <si>
+    <t>99523500-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recycla Chile</t>
   </si>
   <si>
-    <t>77820440-1</t>
+    <t>77820440-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Recyplanet Spa ( Ex Comercial de la Fuente y otros)</t>
   </si>
   <si>
-    <t>76666622-1</t>
+    <t>76666622-1 - Región del Maule</t>
   </si>
   <si>
     <t>Recyplas Chile SPA</t>
   </si>
   <si>
-    <t>96754450-7</t>
+    <t>96754450-7 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Relleno Loma Los
 Colorados (Kdm)</t>
   </si>
   <si>
-    <t>96828810-5</t>
+    <t>96828810-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Relleno Sanitario Santa Marta</t>
   </si>
   <si>
-    <t>99537670-9</t>
+    <t>99537670-9 - Región del Maule</t>
   </si>
   <si>
     <t>RELLENOS SANITARIOS DEL MAULE S A</t>
   </si>
   <si>
-    <t>76261705-6</t>
+    <t>76261705-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Rembre SPA</t>
   </si>
   <si>
-    <t>76186954-K</t>
+    <t>76186954-K - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Resimex SA
 </t>
   </si>
   <si>
-    <t>76329072-7</t>
+    <t>76329072-7 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Resiter Industrial S.A.</t>
   </si>
   <si>
-    <t>78773970-9</t>
+    <t>78773970-9 - Región de Los Lagos</t>
   </si>
   <si>
     <t>REXIN SPA</t>
   </si>
   <si>
-    <t>76055204-6</t>
+    <t>76055204-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>SERVICIOS AMBIENTALES LTDA</t>
   </si>
   <si>
-    <t>89006700-K</t>
+    <t>89006700-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Servicios del Agro Plasticultivos Ltda.</t>
   </si>
   <si>
-    <t>78591180-6</t>
+    <t>78591180-6 - Región de Valparaíso</t>
   </si>
   <si>
     <t>Servicios Gea Ltda</t>
   </si>
   <si>
-    <t>76193466-K</t>
+    <t>76193466-K - Región de Aysén</t>
   </si>
   <si>
     <t>SERVICIOS INDUSTRIALES BAHAMONDE LIMITADA</t>
   </si>
   <si>
-    <t>77462400-7</t>
+    <t>77462400-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Servicios Tecnicos Urbanos Ltda.</t>
   </si>
   <si>
-    <t>85660800-K</t>
+    <t>85660800-K - Región de Antofagasta</t>
   </si>
   <si>
     <t xml:space="preserve">Sociedad Comercial Alvarez y Alvarez LTDA
 - SOCOAL Ltda</t>
   </si>
   <si>
-    <t>76005972-2</t>
+    <t>76005972-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercial Chile Metales Ltda.</t>
   </si>
   <si>
-    <t>76383280-5</t>
+    <t>76383280-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercial de Transporte y Compra Venta Pech Ltda.</t>
@@ -1338,289 +1428,295 @@
     <t>Sociedad Comercial de Transporte y Compraventa Pech Ltda.</t>
   </si>
   <si>
-    <t>77179750-4</t>
+    <t>77179750-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercial Degraf Ltda.</t>
   </si>
   <si>
-    <t>76128839-3</t>
+    <t>76128839-3 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercial E Industrial Timberecco y Cía.</t>
   </si>
   <si>
-    <t>76341143-5</t>
+    <t>76341143-5 - Región de O’Higgins</t>
   </si>
   <si>
     <t>SOCIEDAD COMERCIAL GREEN WORLD LIMITADA</t>
   </si>
   <si>
-    <t>76256667-2</t>
+    <t>76256667-2 - Región de Los Lagos</t>
   </si>
   <si>
     <t>SOCIEDAD COMERCIAL INDUSTRIAL CHILEPLAST S.A.</t>
   </si>
   <si>
-    <t>77488470-K</t>
+    <t>77488470-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercial Leo Limitada</t>
   </si>
   <si>
-    <t>76859670-0</t>
+    <t>76859670-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercial Verun Ltda.</t>
   </si>
   <si>
-    <t>76178451-K</t>
+    <t>76178451-K - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercializadora de desechos Metálicos y Papeles  Reciclom Limitada</t>
   </si>
   <si>
-    <t>76131794-6</t>
+    <t>76131794-6 - Región de Antofagasta</t>
   </si>
   <si>
     <t>Sociedad Comercializadora de Excedentes Ferro Velho Ltda.</t>
   </si>
   <si>
-    <t>76297090-2</t>
+    <t>76297090-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercializadora de Excedentes Industriales SPA</t>
   </si>
   <si>
-    <t>76428101-2</t>
+    <t>76428101-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercializadora de Metales Chavarría y Chavarría Ltda.</t>
   </si>
   <si>
-    <t>77320250-8</t>
+    <t>77320250-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Comercializadora Importadora Y Exportadora De Excedentes Industriales Poliplas Ltda.</t>
   </si>
   <si>
-    <t>76502521-4</t>
+    <t>76502521-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad de Ingeniería y Soluciones Industriales Ltda. / Ecocleaner</t>
   </si>
   <si>
-    <t>76293062-5</t>
+    <t>76293062-5 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad de Plasticos Pincheira LTDA</t>
   </si>
   <si>
-    <t>76010722-0</t>
+    <t>76010722-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad de Procesamientos Industriales Ltda</t>
   </si>
   <si>
-    <t>76788986-0</t>
+    <t>76788986-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Eco Gespro Ltda.</t>
   </si>
   <si>
-    <t>77953200-3</t>
+    <t>77953200-3 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Sociedad Importadora y Exportadora de Aceros y Metales Ltda
 </t>
   </si>
   <si>
-    <t>77349350-2</t>
+    <t>77349350-2 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Sociedad Industrial de Plástico Ltda.</t>
   </si>
   <si>
-    <t>76276689-2</t>
+    <t>76276689-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Industrial de Plásticos Spa</t>
   </si>
   <si>
-    <t>80411800-4</t>
+    <t>80411800-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Nacional Metalúrgica Ltda.</t>
   </si>
   <si>
-    <t>76459771-0</t>
+    <t>76459771-0 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Plásticos Carvajal Hermanos Ltda.</t>
   </si>
   <si>
-    <t>77099530-2</t>
+    <t>77099530-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Plásticos Técnicos Spa</t>
   </si>
   <si>
-    <t>77934420-7</t>
+    <t>77934420-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sociedad Recuperadora de Papeles y Cartones Manuel Medina E Hijo Ltda.</t>
   </si>
   <si>
-    <t>96956530-7</t>
+    <t>96956530-7 - Región de Atacama</t>
   </si>
   <si>
     <t>Soluciones Ecologicas del Norte - SOLENOR</t>
   </si>
   <si>
-    <t>86359300-K</t>
+    <t>86359300-K - Región de Antofagasta</t>
   </si>
   <si>
     <t>Sorepa Antofagasta</t>
   </si>
   <si>
+    <t>86359300-K - Región Metropolitana</t>
+  </si>
+  <si>
     <t>Sorepa S.A.</t>
   </si>
   <si>
-    <t>76437876-8</t>
+    <t>76437876-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sud Trade Spa</t>
   </si>
   <si>
-    <t>96753590-7</t>
+    <t>96753590-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Sulo Chile S.A</t>
   </si>
   <si>
-    <t>96906080-9</t>
+    <t>96906080-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Tambores TMS Ltda</t>
   </si>
   <si>
-    <t>96641530-4</t>
+    <t>96641530-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Tecnotambores S.A.</t>
   </si>
   <si>
-    <t>96830690-1</t>
+    <t>96830690-1 - Región de O’Higgins</t>
   </si>
   <si>
     <t>Tirsa S A</t>
   </si>
   <si>
-    <t>77651140-4</t>
+    <t>77651140-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Tradepro Chile Spa</t>
   </si>
   <si>
-    <t>76379284-6</t>
+    <t>76379284-6 - Región Metropolitana</t>
   </si>
   <si>
     <t>Tresur SPA</t>
   </si>
   <si>
-    <t>76080966-7</t>
+    <t>76080966-7 - Región Metropolitana</t>
   </si>
   <si>
     <t>Tricicla - Moreno Jarpa y Compañia Ltda</t>
   </si>
   <si>
-    <t>77084498-3</t>
+    <t>77084498-3 - Región de Los Lagos</t>
   </si>
   <si>
     <t>Triciclo Sur Ingeniería e innovación Spa</t>
   </si>
   <si>
-    <t>76059313-3</t>
+    <t>76059313-3 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Triciclos S.A.
 </t>
   </si>
   <si>
-    <t>96733780-3</t>
+    <t>96733780-3 - Región Metropolitana</t>
   </si>
   <si>
     <t xml:space="preserve">Ultrapac Sudamerica SA
 </t>
   </si>
   <si>
-    <t>76107092-4</t>
+    <t>76107092-4 - Región Metropolitana</t>
   </si>
   <si>
     <t>Urban Metal Spa</t>
   </si>
   <si>
-    <t>76416769-4</t>
+    <t>76416769-4 - Región de Valparaíso</t>
   </si>
   <si>
     <t>Veolia Residuos Urbanos SPA</t>
   </si>
   <si>
-    <t>76395745-4</t>
+    <t>76395745-4 - Región de Valparaíso</t>
   </si>
   <si>
     <t>Veolia Respel Chile SpA</t>
   </si>
   <si>
-    <t>88842000-2</t>
+    <t>88842000-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Veolia SI Chile SA</t>
   </si>
   <si>
-    <t>87803800-2</t>
+    <t>87803800-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Veolia SU Chile SA</t>
   </si>
   <si>
-    <t>76292214-2</t>
+    <t>76292214-2 - Región de Los Lagos</t>
   </si>
   <si>
     <t>VERDE CORP SPA</t>
   </si>
   <si>
-    <t>76081887-9</t>
+    <t>76081887-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Verplast Ltda.</t>
   </si>
   <si>
-    <t>79985050-8</t>
+    <t>79985050-8 - Región Metropolitana</t>
   </si>
   <si>
     <t>Vicmar SA</t>
   </si>
   <si>
-    <t>76483019-9</t>
+    <t>76483019-9 - Región Metropolitana</t>
   </si>
   <si>
     <t>Volta SPA.</t>
   </si>
   <si>
-    <t>96900530-1</t>
+    <t>76483019-9 - Región del Maule</t>
+  </si>
+  <si>
+    <t>96900530-1 - Región Metropolitana</t>
   </si>
   <si>
     <t>Warehousing Valle Grande S.A.</t>
   </si>
   <si>
-    <t>96920980-2</t>
+    <t>96920980-2 - Región Metropolitana</t>
   </si>
   <si>
     <t>Winpack SA</t>
   </si>
   <si>
-    <t>76155907-9</t>
+    <t>76155907-9 - Región de Antofagasta</t>
   </si>
   <si>
     <t>World Metal Limitada</t>
@@ -1636,6 +1732,9 @@
   </si>
   <si>
     <t>RUT</t>
+  </si>
+  <si>
+    <t>11992209-7</t>
   </si>
   <si>
     <t>RAZÓN SOCIAL</t>
@@ -2285,13 +2384,13 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -2299,31 +2398,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -2331,28 +2430,28 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
@@ -2363,25 +2462,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -2389,16 +2488,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -2409,16 +2508,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
         <v>5</v>
@@ -2426,16 +2525,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>6</v>
@@ -2443,16 +2542,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>5</v>
@@ -2460,16 +2559,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
@@ -2477,7 +2576,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -2494,16 +2593,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -2511,13 +2610,13 @@
     </row>
     <row r="15" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
         <v>4</v>
@@ -2525,13 +2624,13 @@
     </row>
     <row r="16" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
@@ -2539,13 +2638,13 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
         <v>6</v>
@@ -2553,13 +2652,13 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2567,13 +2666,13 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
         <v>4</v>
@@ -2581,13 +2680,13 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L20" t="s">
         <v>6</v>
@@ -2598,7 +2697,7 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -2609,13 +2708,13 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
         <v>5</v>
@@ -2623,13 +2722,13 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L23" t="s">
         <v>6</v>
@@ -2637,13 +2736,13 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
@@ -2651,13 +2750,13 @@
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s">
         <v>5</v>
@@ -2665,10 +2764,10 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -2679,13 +2778,13 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s">
         <v>4</v>
@@ -2693,13 +2792,13 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L28" t="s">
         <v>3</v>
@@ -2707,13 +2806,13 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
@@ -2721,13 +2820,13 @@
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L30" t="s">
         <v>3</v>
@@ -2735,13 +2834,13 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
         <v>6</v>
@@ -2749,10 +2848,10 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -2763,10 +2862,10 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -2777,13 +2876,13 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
@@ -2791,10 +2890,10 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
         <v>30</v>
@@ -2805,10 +2904,10 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -2819,13 +2918,13 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L37" t="s">
         <v>4</v>
@@ -2833,13 +2932,13 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L38" t="s">
         <v>3</v>
@@ -2847,13 +2946,13 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L39" t="s">
         <v>4</v>
@@ -2861,10 +2960,10 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s">
         <v>30</v>
@@ -2875,13 +2974,13 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L41" t="s">
         <v>6</v>
@@ -2889,13 +2988,13 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s">
         <v>5</v>
@@ -2903,13 +3002,13 @@
     </row>
     <row r="43" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L43" t="s">
         <v>6</v>
@@ -2917,13 +3016,13 @@
     </row>
     <row r="44" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
         <v>5</v>
@@ -2931,13 +3030,13 @@
     </row>
     <row r="45" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
@@ -2948,7 +3047,7 @@
         <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -2959,13 +3058,13 @@
     </row>
     <row r="47" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L47" t="s">
         <v>6</v>
@@ -2973,13 +3072,13 @@
     </row>
     <row r="48" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L48" t="s">
         <v>5</v>
@@ -2987,13 +3086,13 @@
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s">
         <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L49" t="s">
         <v>6</v>
@@ -3001,10 +3100,10 @@
     </row>
     <row r="50" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -3015,10 +3114,10 @@
     </row>
     <row r="51" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -3029,13 +3128,13 @@
     </row>
     <row r="52" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L52" t="s">
         <v>6</v>
@@ -3043,13 +3142,13 @@
     </row>
     <row r="53" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L53" t="s">
         <v>6</v>
@@ -3057,13 +3156,13 @@
     </row>
     <row r="54" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L54" t="s">
         <v>6</v>
@@ -3071,13 +3170,13 @@
     </row>
     <row r="55" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L55" t="s">
         <v>6</v>
@@ -3085,13 +3184,13 @@
     </row>
     <row r="56" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L56" t="s">
         <v>6</v>
@@ -3099,13 +3198,13 @@
     </row>
     <row r="57" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L57" t="s">
         <v>6</v>
@@ -3113,13 +3212,13 @@
     </row>
     <row r="58" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J58" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L58" t="s">
         <v>6</v>
@@ -3127,10 +3226,10 @@
     </row>
     <row r="59" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -3141,13 +3240,13 @@
     </row>
     <row r="60" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L60" t="s">
         <v>6</v>
@@ -3155,10 +3254,10 @@
     </row>
     <row r="61" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
@@ -3169,10 +3268,10 @@
     </row>
     <row r="62" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="J62" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s">
         <v>21</v>
@@ -3183,13 +3282,13 @@
     </row>
     <row r="63" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
         <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L63" t="s">
         <v>4</v>
@@ -3197,13 +3296,13 @@
     </row>
     <row r="64" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L64" t="s">
         <v>4</v>
@@ -3225,13 +3324,13 @@
     </row>
     <row r="66" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="J66" t="s">
         <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L66" t="s">
         <v>3</v>
@@ -3239,13 +3338,13 @@
     </row>
     <row r="67" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L67" t="s">
         <v>4</v>
@@ -3253,13 +3352,13 @@
     </row>
     <row r="68" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L68" t="s">
         <v>4</v>
@@ -3267,13 +3366,13 @@
     </row>
     <row r="69" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="J69" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s">
         <v>5</v>
@@ -3281,13 +3380,13 @@
     </row>
     <row r="70" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J70" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K70" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L70" t="s">
         <v>5</v>
@@ -3298,7 +3397,7 @@
         <v>19</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
@@ -3309,7 +3408,7 @@
     </row>
     <row r="72" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s">
         <v>20</v>
@@ -3323,7 +3422,7 @@
     </row>
     <row r="73" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s">
         <v>20</v>
@@ -3337,7 +3436,7 @@
     </row>
     <row r="74" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J74" t="s">
         <v>20</v>
@@ -3351,7 +3450,7 @@
     </row>
     <row r="75" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J75" t="s">
         <v>20</v>
@@ -3365,7 +3464,7 @@
     </row>
     <row r="76" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J76" t="s">
         <v>20</v>
@@ -3379,13 +3478,13 @@
     </row>
     <row r="77" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J77" t="s">
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L77" t="s">
         <v>7</v>
@@ -3393,13 +3492,13 @@
     </row>
     <row r="78" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s">
         <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L78" t="s">
         <v>7</v>
@@ -3407,13 +3506,13 @@
     </row>
     <row r="79" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J79" t="s">
         <v>20</v>
       </c>
       <c r="K79" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L79" t="s">
         <v>7</v>
@@ -3421,13 +3520,13 @@
     </row>
     <row r="80" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J80" t="s">
         <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L80" t="s">
         <v>7</v>
@@ -3435,13 +3534,13 @@
     </row>
     <row r="81" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J81" t="s">
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L81" t="s">
         <v>7</v>
@@ -3449,13 +3548,13 @@
     </row>
     <row r="82" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J82" t="s">
         <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L82" t="s">
         <v>7</v>
@@ -3463,13 +3562,13 @@
     </row>
     <row r="83" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J83" t="s">
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L83" t="s">
         <v>7</v>
@@ -3491,13 +3590,13 @@
     </row>
     <row r="85" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J85" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K85" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L85" t="s">
         <v>3</v>
@@ -3505,13 +3604,13 @@
     </row>
     <row r="86" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L86" t="s">
         <v>4</v>
@@ -3519,13 +3618,13 @@
     </row>
     <row r="87" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L87" t="s">
         <v>6</v>
@@ -3533,10 +3632,10 @@
     </row>
     <row r="88" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J88" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K88" t="s">
         <v>30</v>
@@ -3547,13 +3646,13 @@
     </row>
     <row r="89" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J89" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K89" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L89" t="s">
         <v>6</v>
@@ -3561,13 +3660,13 @@
     </row>
     <row r="90" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="J90" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L90" t="s">
         <v>5</v>
@@ -3575,13 +3674,13 @@
     </row>
     <row r="91" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J91" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L91" t="s">
         <v>5</v>
@@ -3589,13 +3688,13 @@
     </row>
     <row r="92" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L92" t="s">
         <v>6</v>
@@ -3603,13 +3702,13 @@
     </row>
     <row r="93" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="J93" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L93" t="s">
         <v>4</v>
@@ -3617,13 +3716,13 @@
     </row>
     <row r="94" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J94" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K94" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L94" t="s">
         <v>7</v>
@@ -3631,13 +3730,13 @@
     </row>
     <row r="95" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="J95" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K95" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L95" t="s">
         <v>4</v>
@@ -3645,13 +3744,13 @@
     </row>
     <row r="96" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s">
         <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L96" t="s">
         <v>6</v>
@@ -3659,13 +3758,13 @@
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J97" t="s">
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L97" t="s">
         <v>6</v>
@@ -3673,10 +3772,10 @@
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="J98" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="K98" t="s">
         <v>21</v>
@@ -3687,13 +3786,13 @@
     </row>
     <row r="99" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="J99" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="K99" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L99" t="s">
         <v>3</v>
@@ -3701,13 +3800,13 @@
     </row>
     <row r="100" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="J100" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="K100" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L100" t="s">
         <v>6</v>
@@ -3715,10 +3814,10 @@
     </row>
     <row r="101" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="J101" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K101" t="s">
         <v>21</v>
@@ -3729,10 +3828,10 @@
     </row>
     <row r="102" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="J102" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="K102" t="s">
         <v>21</v>
@@ -3743,10 +3842,10 @@
     </row>
     <row r="103" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="J103" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K103" t="s">
         <v>21</v>
@@ -3757,10 +3856,10 @@
     </row>
     <row r="104" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="J104" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="K104" t="s">
         <v>21</v>
@@ -3771,13 +3870,13 @@
     </row>
     <row r="105" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="J105" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="K105" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L105" t="s">
         <v>5</v>
@@ -3785,13 +3884,13 @@
     </row>
     <row r="106" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="J106" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="K106" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L106" t="s">
         <v>4</v>
@@ -3799,10 +3898,10 @@
     </row>
     <row r="107" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I107" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K107" t="s">
         <v>21</v>
@@ -3813,10 +3912,10 @@
     </row>
     <row r="108" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J108" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K108" t="s">
         <v>21</v>
@@ -3827,10 +3926,10 @@
     </row>
     <row r="109" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J109" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K109" t="s">
         <v>21</v>
@@ -3841,10 +3940,10 @@
     </row>
     <row r="110" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="J110" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="K110" t="s">
         <v>21</v>
@@ -3855,10 +3954,10 @@
     </row>
     <row r="111" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="J111" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="K111" t="s">
         <v>21</v>
@@ -3869,10 +3968,10 @@
     </row>
     <row r="112" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="J112" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K112" t="s">
         <v>21</v>
@@ -3883,10 +3982,10 @@
     </row>
     <row r="113" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="J113" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K113" t="s">
         <v>21</v>
@@ -3897,10 +3996,10 @@
     </row>
     <row r="114" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="J114" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K114" t="s">
         <v>21</v>
@@ -3911,10 +4010,10 @@
     </row>
     <row r="115" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="J115" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K115" t="s">
         <v>21</v>
@@ -3925,10 +4024,10 @@
     </row>
     <row r="116" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="J116" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="K116" t="s">
         <v>21</v>
@@ -3939,13 +4038,13 @@
     </row>
     <row r="117" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="J117" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="K117" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L117" t="s">
         <v>5</v>
@@ -3953,10 +4052,10 @@
     </row>
     <row r="118" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="J118" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="K118" t="s">
         <v>21</v>
@@ -3967,10 +4066,10 @@
     </row>
     <row r="119" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="J119" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K119" t="s">
         <v>21</v>
@@ -3981,10 +4080,10 @@
     </row>
     <row r="120" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="J120" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="K120" t="s">
         <v>21</v>
@@ -3995,10 +4094,10 @@
     </row>
     <row r="121" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="J121" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="K121" t="s">
         <v>21</v>
@@ -4009,10 +4108,10 @@
     </row>
     <row r="122" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J122" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K122" t="s">
         <v>21</v>
@@ -4023,10 +4122,10 @@
     </row>
     <row r="123" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J123" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K123" t="s">
         <v>21</v>
@@ -4037,10 +4136,10 @@
     </row>
     <row r="124" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="J124" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="K124" t="s">
         <v>21</v>
@@ -4051,10 +4150,10 @@
     </row>
     <row r="125" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="J125" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="K125" t="s">
         <v>21</v>
@@ -4065,10 +4164,10 @@
     </row>
     <row r="126" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="J126" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="K126" t="s">
         <v>21</v>
@@ -4079,10 +4178,10 @@
     </row>
     <row r="127" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="J127" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="K127" t="s">
         <v>21</v>
@@ -4093,10 +4192,10 @@
     </row>
     <row r="128" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="J128" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K128" t="s">
         <v>21</v>
@@ -4107,10 +4206,10 @@
     </row>
     <row r="129" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="J129" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="K129" t="s">
         <v>21</v>
@@ -4121,10 +4220,10 @@
     </row>
     <row r="130" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="J130" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="K130" t="s">
         <v>21</v>
@@ -4135,10 +4234,10 @@
     </row>
     <row r="131" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="J131" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="K131" t="s">
         <v>21</v>
@@ -4149,10 +4248,10 @@
     </row>
     <row r="132" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="J132" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="K132" t="s">
         <v>21</v>
@@ -4163,10 +4262,10 @@
     </row>
     <row r="133" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="J133" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K133" t="s">
         <v>21</v>
@@ -4177,10 +4276,10 @@
     </row>
     <row r="134" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="J134" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="K134" t="s">
         <v>21</v>
@@ -4191,10 +4290,10 @@
     </row>
     <row r="135" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="J135" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="K135" t="s">
         <v>21</v>
@@ -4205,10 +4304,10 @@
     </row>
     <row r="136" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I136" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="J136" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="K136" t="s">
         <v>21</v>
@@ -4219,10 +4318,10 @@
     </row>
     <row r="137" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J137" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="K137" t="s">
         <v>21</v>
@@ -4233,10 +4332,10 @@
     </row>
     <row r="138" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="J138" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="K138" t="s">
         <v>21</v>
@@ -4247,10 +4346,10 @@
     </row>
     <row r="139" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="J139" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="K139" t="s">
         <v>21</v>
@@ -4261,10 +4360,10 @@
     </row>
     <row r="140" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="J140" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="K140" t="s">
         <v>21</v>
@@ -4275,10 +4374,10 @@
     </row>
     <row r="141" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="J141" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="K141" t="s">
         <v>21</v>
@@ -4289,10 +4388,10 @@
     </row>
     <row r="142" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="J142" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="K142" t="s">
         <v>21</v>
@@ -4303,10 +4402,10 @@
     </row>
     <row r="143" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="J143" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="K143" t="s">
         <v>21</v>
@@ -4317,10 +4416,10 @@
     </row>
     <row r="144" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="J144" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="K144" t="s">
         <v>21</v>
@@ -4331,10 +4430,10 @@
     </row>
     <row r="145" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J145" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="K145" t="s">
         <v>21</v>
@@ -4345,10 +4444,10 @@
     </row>
     <row r="146" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J146" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="K146" t="s">
         <v>21</v>
@@ -4359,10 +4458,10 @@
     </row>
     <row r="147" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="J147" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="K147" t="s">
         <v>21</v>
@@ -4373,13 +4472,13 @@
     </row>
     <row r="148" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="J148" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K148" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L148" t="s">
         <v>3</v>
@@ -4387,13 +4486,13 @@
     </row>
     <row r="149" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="J149" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K149" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L149" t="s">
         <v>5</v>
@@ -4401,13 +4500,13 @@
     </row>
     <row r="150" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="J150" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K150" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L150" t="s">
         <v>4</v>
@@ -4415,10 +4514,10 @@
     </row>
     <row r="151" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J151" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="K151" t="s">
         <v>21</v>
@@ -4429,10 +4528,10 @@
     </row>
     <row r="152" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J152" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="K152" t="s">
         <v>21</v>
@@ -4443,10 +4542,10 @@
     </row>
     <row r="153" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I153" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="J153" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="K153" t="s">
         <v>21</v>
@@ -4457,10 +4556,10 @@
     </row>
     <row r="154" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I154" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="J154" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="K154" t="s">
         <v>21</v>
@@ -4471,10 +4570,10 @@
     </row>
     <row r="155" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="J155" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="K155" t="s">
         <v>21</v>
@@ -4485,10 +4584,10 @@
     </row>
     <row r="156" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="J156" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="K156" t="s">
         <v>21</v>
@@ -4499,10 +4598,10 @@
     </row>
     <row r="157" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I157" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="J157" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="K157" t="s">
         <v>21</v>
@@ -4513,10 +4612,10 @@
     </row>
     <row r="158" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="J158" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K158" t="s">
         <v>21</v>
@@ -4527,10 +4626,10 @@
     </row>
     <row r="159" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I159" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="J159" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="K159" t="s">
         <v>21</v>
@@ -4541,10 +4640,10 @@
     </row>
     <row r="160" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="J160" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="K160" t="s">
         <v>21</v>
@@ -4555,10 +4654,10 @@
     </row>
     <row r="161" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I161" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="J161" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="K161" t="s">
         <v>21</v>
@@ -4569,10 +4668,10 @@
     </row>
     <row r="162" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I162" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="J162" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="K162" t="s">
         <v>21</v>
@@ -4583,10 +4682,10 @@
     </row>
     <row r="163" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I163" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="J163" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="K163" t="s">
         <v>21</v>
@@ -4597,10 +4696,10 @@
     </row>
     <row r="164" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I164" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="J164" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="K164" t="s">
         <v>21</v>
@@ -4611,10 +4710,10 @@
     </row>
     <row r="165" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I165" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J165" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K165" t="s">
         <v>21</v>
@@ -4625,10 +4724,10 @@
     </row>
     <row r="166" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I166" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J166" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K166" t="s">
         <v>21</v>
@@ -4639,10 +4738,10 @@
     </row>
     <row r="167" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I167" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="J167" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="K167" t="s">
         <v>21</v>
@@ -4653,10 +4752,10 @@
     </row>
     <row r="168" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I168" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="J168" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K168" t="s">
         <v>21</v>
@@ -4667,10 +4766,10 @@
     </row>
     <row r="169" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I169" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J169" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K169" t="s">
         <v>21</v>
@@ -4681,13 +4780,13 @@
     </row>
     <row r="170" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I170" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J170" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K170" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L170" t="s">
         <v>3</v>
@@ -4695,10 +4794,10 @@
     </row>
     <row r="171" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I171" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J171" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K171" t="s">
         <v>21</v>
@@ -4709,13 +4808,13 @@
     </row>
     <row r="172" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I172" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="J172" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K172" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L172" t="s">
         <v>4</v>
@@ -4723,10 +4822,10 @@
     </row>
     <row r="173" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I173" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J173" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K173" t="s">
         <v>21</v>
@@ -4737,10 +4836,10 @@
     </row>
     <row r="174" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I174" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J174" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K174" t="s">
         <v>21</v>
@@ -4751,13 +4850,13 @@
     </row>
     <row r="175" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I175" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J175" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K175" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L175" t="s">
         <v>3</v>
@@ -4765,13 +4864,13 @@
     </row>
     <row r="176" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I176" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J176" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K176" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L176" t="s">
         <v>5</v>
@@ -4779,13 +4878,13 @@
     </row>
     <row r="177" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I177" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J177" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L177" t="s">
         <v>4</v>
@@ -4793,13 +4892,13 @@
     </row>
     <row r="178" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I178" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J178" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L178" t="s">
         <v>6</v>
@@ -4807,10 +4906,10 @@
     </row>
     <row r="179" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I179" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J179" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K179" t="s">
         <v>21</v>
@@ -4821,13 +4920,13 @@
     </row>
     <row r="180" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I180" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J180" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="K180" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L180" t="s">
         <v>4</v>
@@ -4835,10 +4934,10 @@
     </row>
     <row r="181" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I181" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="J181" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K181" t="s">
         <v>21</v>
@@ -4849,10 +4948,10 @@
     </row>
     <row r="182" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I182" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J182" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K182" t="s">
         <v>21</v>
@@ -4863,10 +4962,10 @@
     </row>
     <row r="183" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I183" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J183" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K183" t="s">
         <v>21</v>
@@ -4877,10 +4976,10 @@
     </row>
     <row r="184" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I184" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J184" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K184" t="s">
         <v>21</v>
@@ -4891,10 +4990,10 @@
     </row>
     <row r="185" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I185" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J185" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K185" t="s">
         <v>21</v>
@@ -4905,10 +5004,10 @@
     </row>
     <row r="186" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I186" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J186" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K186" t="s">
         <v>21</v>
@@ -4919,10 +5018,10 @@
     </row>
     <row r="187" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I187" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J187" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K187" t="s">
         <v>21</v>
@@ -4933,10 +5032,10 @@
     </row>
     <row r="188" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I188" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J188" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K188" t="s">
         <v>21</v>
@@ -4947,10 +5046,10 @@
     </row>
     <row r="189" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I189" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J189" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K189" t="s">
         <v>21</v>
@@ -4961,10 +5060,10 @@
     </row>
     <row r="190" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I190" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J190" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K190" t="s">
         <v>21</v>
@@ -4975,10 +5074,10 @@
     </row>
     <row r="191" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I191" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J191" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K191" t="s">
         <v>21</v>
@@ -4989,10 +5088,10 @@
     </row>
     <row r="192" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I192" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J192" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K192" t="s">
         <v>21</v>
@@ -5003,10 +5102,10 @@
     </row>
     <row r="193" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I193" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J193" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K193" t="s">
         <v>21</v>
@@ -5017,10 +5116,10 @@
     </row>
     <row r="194" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I194" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J194" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="K194" t="s">
         <v>21</v>
@@ -5031,10 +5130,10 @@
     </row>
     <row r="195" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I195" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J195" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="K195" t="s">
         <v>21</v>
@@ -5045,10 +5144,10 @@
     </row>
     <row r="196" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I196" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J196" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="K196" t="s">
         <v>21</v>
@@ -5059,10 +5158,10 @@
     </row>
     <row r="197" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I197" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J197" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="K197" t="s">
         <v>21</v>
@@ -5073,13 +5172,13 @@
     </row>
     <row r="198" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I198" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J198" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K198" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L198" t="s">
         <v>3</v>
@@ -5087,13 +5186,13 @@
     </row>
     <row r="199" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I199" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J199" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K199" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L199" t="s">
         <v>5</v>
@@ -5101,13 +5200,13 @@
     </row>
     <row r="200" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I200" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J200" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K200" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L200" t="s">
         <v>4</v>
@@ -5115,13 +5214,13 @@
     </row>
     <row r="201" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I201" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J201" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K201" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L201" t="s">
         <v>6</v>
@@ -5129,13 +5228,13 @@
     </row>
     <row r="202" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I202" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J202" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K202" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L202" t="s">
         <v>3</v>
@@ -5143,13 +5242,13 @@
     </row>
     <row r="203" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I203" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J203" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K203" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L203" t="s">
         <v>6</v>
@@ -5157,10 +5256,10 @@
     </row>
     <row r="204" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I204" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J204" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K204" t="s">
         <v>21</v>
@@ -5171,10 +5270,10 @@
     </row>
     <row r="205" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I205" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J205" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K205" t="s">
         <v>21</v>
@@ -5185,10 +5284,10 @@
     </row>
     <row r="206" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I206" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J206" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K206" t="s">
         <v>21</v>
@@ -5199,10 +5298,10 @@
     </row>
     <row r="207" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I207" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J207" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K207" t="s">
         <v>21</v>
@@ -5213,10 +5312,10 @@
     </row>
     <row r="208" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I208" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J208" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K208" t="s">
         <v>21</v>
@@ -5227,10 +5326,10 @@
     </row>
     <row r="209" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I209" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J209" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K209" t="s">
         <v>21</v>
@@ -5241,10 +5340,10 @@
     </row>
     <row r="210" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I210" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J210" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K210" t="s">
         <v>21</v>
@@ -5255,10 +5354,10 @@
     </row>
     <row r="211" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I211" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J211" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K211" t="s">
         <v>21</v>
@@ -5269,10 +5368,10 @@
     </row>
     <row r="212" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I212" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J212" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K212" t="s">
         <v>21</v>
@@ -5283,10 +5382,10 @@
     </row>
     <row r="213" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I213" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J213" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K213" t="s">
         <v>21</v>
@@ -5297,10 +5396,10 @@
     </row>
     <row r="214" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I214" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="J214" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="K214" t="s">
         <v>21</v>
@@ -5311,10 +5410,10 @@
     </row>
     <row r="215" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I215" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J215" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K215" t="s">
         <v>21</v>
@@ -5325,10 +5424,10 @@
     </row>
     <row r="216" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I216" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J216" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K216" t="s">
         <v>21</v>
@@ -5339,10 +5438,10 @@
     </row>
     <row r="217" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I217" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J217" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="K217" t="s">
         <v>21</v>
@@ -5353,10 +5452,10 @@
     </row>
     <row r="218" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I218" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J218" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K218" t="s">
         <v>21</v>
@@ -5367,10 +5466,10 @@
     </row>
     <row r="219" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I219" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J219" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K219" t="s">
         <v>21</v>
@@ -5381,10 +5480,10 @@
     </row>
     <row r="220" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I220" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J220" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K220" t="s">
         <v>21</v>
@@ -5395,13 +5494,13 @@
     </row>
     <row r="221" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I221" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J221" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L221" t="s">
         <v>4</v>
@@ -5409,13 +5508,13 @@
     </row>
     <row r="222" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I222" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J222" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K222" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L222" t="s">
         <v>4</v>
@@ -5423,10 +5522,10 @@
     </row>
     <row r="223" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I223" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J223" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K223" t="s">
         <v>21</v>
@@ -5437,10 +5536,10 @@
     </row>
     <row r="224" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I224" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J224" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K224" t="s">
         <v>21</v>
@@ -5451,10 +5550,10 @@
     </row>
     <row r="225" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I225" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J225" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K225" t="s">
         <v>21</v>
@@ -5465,13 +5564,13 @@
     </row>
     <row r="226" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I226" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J226" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K226" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L226" t="s">
         <v>4</v>
@@ -5479,10 +5578,10 @@
     </row>
     <row r="227" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I227" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J227" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K227" t="s">
         <v>21</v>
@@ -5493,10 +5592,10 @@
     </row>
     <row r="228" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I228" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="J228" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K228" t="s">
         <v>21</v>
@@ -5507,10 +5606,10 @@
     </row>
     <row r="229" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I229" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="J229" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="K229" t="s">
         <v>21</v>
@@ -5521,10 +5620,10 @@
     </row>
     <row r="230" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I230" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="J230" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="K230" t="s">
         <v>21</v>
@@ -5535,10 +5634,10 @@
     </row>
     <row r="231" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I231" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="J231" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="K231" t="s">
         <v>21</v>
@@ -5549,10 +5648,10 @@
     </row>
     <row r="232" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I232" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="J232" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="K232" t="s">
         <v>21</v>
@@ -5563,10 +5662,10 @@
     </row>
     <row r="233" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I233" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="J233" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K233" t="s">
         <v>21</v>
@@ -5577,10 +5676,10 @@
     </row>
     <row r="234" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I234" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="J234" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K234" t="s">
         <v>21</v>
@@ -5591,10 +5690,10 @@
     </row>
     <row r="235" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I235" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="J235" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K235" t="s">
         <v>21</v>
@@ -5605,10 +5704,10 @@
     </row>
     <row r="236" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I236" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="J236" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K236" t="s">
         <v>21</v>
@@ -5619,13 +5718,13 @@
     </row>
     <row r="237" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I237" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J237" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K237" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L237" t="s">
         <v>3</v>
@@ -5633,13 +5732,13 @@
     </row>
     <row r="238" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I238" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J238" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K238" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L238" t="s">
         <v>5</v>
@@ -5647,13 +5746,13 @@
     </row>
     <row r="239" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I239" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J239" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K239" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L239" t="s">
         <v>4</v>
@@ -5661,13 +5760,13 @@
     </row>
     <row r="240" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I240" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J240" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K240" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L240" t="s">
         <v>6</v>
@@ -5675,13 +5774,13 @@
     </row>
     <row r="241" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I241" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J241" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L241" t="s">
         <v>3</v>
@@ -5689,13 +5788,13 @@
     </row>
     <row r="242" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I242" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J242" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L242" t="s">
         <v>5</v>
@@ -5703,13 +5802,13 @@
     </row>
     <row r="243" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I243" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J243" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K243" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L243" t="s">
         <v>4</v>
@@ -5717,13 +5816,13 @@
     </row>
     <row r="244" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I244" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J244" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K244" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L244" t="s">
         <v>6</v>
@@ -5731,10 +5830,10 @@
     </row>
     <row r="245" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I245" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="J245" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="K245" t="s">
         <v>21</v>
@@ -5745,10 +5844,10 @@
     </row>
     <row r="246" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I246" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="J246" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K246" t="s">
         <v>21</v>
@@ -5759,10 +5858,10 @@
     </row>
     <row r="247" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I247" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="J247" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K247" t="s">
         <v>21</v>
@@ -5773,10 +5872,10 @@
     </row>
     <row r="248" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I248" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="J248" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K248" t="s">
         <v>21</v>
@@ -5787,10 +5886,10 @@
     </row>
     <row r="249" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I249" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="J249" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="K249" t="s">
         <v>21</v>
@@ -5801,13 +5900,13 @@
     </row>
     <row r="250" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I250" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="J250" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="K250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L250" t="s">
         <v>5</v>
@@ -5815,13 +5914,13 @@
     </row>
     <row r="251" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I251" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="J251" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="K251" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L251" t="s">
         <v>4</v>
@@ -5829,10 +5928,10 @@
     </row>
     <row r="252" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I252" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="J252" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="K252" t="s">
         <v>21</v>
@@ -5843,10 +5942,10 @@
     </row>
     <row r="253" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I253" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="J253" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="K253" t="s">
         <v>21</v>
@@ -5857,10 +5956,10 @@
     </row>
     <row r="254" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I254" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="J254" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K254" t="s">
         <v>21</v>
@@ -5871,10 +5970,10 @@
     </row>
     <row r="255" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I255" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="J255" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="K255" t="s">
         <v>21</v>
@@ -5885,10 +5984,10 @@
     </row>
     <row r="256" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I256" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="J256" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="K256" t="s">
         <v>21</v>
@@ -5899,10 +5998,10 @@
     </row>
     <row r="257" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I257" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="J257" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="K257" t="s">
         <v>21</v>
@@ -5913,10 +6012,10 @@
     </row>
     <row r="258" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I258" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="J258" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="K258" t="s">
         <v>21</v>
@@ -5927,13 +6026,13 @@
     </row>
     <row r="259" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I259" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="J259" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="K259" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L259" t="s">
         <v>4</v>
@@ -5941,10 +6040,10 @@
     </row>
     <row r="260" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I260" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="J260" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="K260" t="s">
         <v>21</v>
@@ -5955,13 +6054,13 @@
     </row>
     <row r="261" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I261" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="J261" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="K261" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L261" t="s">
         <v>4</v>
@@ -5969,10 +6068,10 @@
     </row>
     <row r="262" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I262" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="J262" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K262" t="s">
         <v>30</v>
@@ -5983,10 +6082,10 @@
     </row>
     <row r="263" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I263" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="J263" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K263" t="s">
         <v>30</v>
@@ -5997,10 +6096,10 @@
     </row>
     <row r="264" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I264" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="J264" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K264" t="s">
         <v>30</v>
@@ -6011,10 +6110,10 @@
     </row>
     <row r="265" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I265" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="J265" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K265" t="s">
         <v>30</v>
@@ -6025,13 +6124,13 @@
     </row>
     <row r="266" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I266" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="J266" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="K266" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L266" t="s">
         <v>4</v>
@@ -6039,10 +6138,10 @@
     </row>
     <row r="267" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I267" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="J267" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="K267" t="s">
         <v>21</v>
@@ -6053,10 +6152,10 @@
     </row>
     <row r="268" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I268" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="J268" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="K268" t="s">
         <v>21</v>
@@ -6067,10 +6166,10 @@
     </row>
     <row r="269" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I269" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="J269" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="K269" t="s">
         <v>21</v>
@@ -6081,10 +6180,10 @@
     </row>
     <row r="270" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I270" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="J270" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="K270" t="s">
         <v>21</v>
@@ -6095,10 +6194,10 @@
     </row>
     <row r="271" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I271" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="J271" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="K271" t="s">
         <v>21</v>
@@ -6109,10 +6208,10 @@
     </row>
     <row r="272" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I272" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="J272" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="K272" t="s">
         <v>21</v>
@@ -6123,10 +6222,10 @@
     </row>
     <row r="273" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I273" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="J273" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="K273" t="s">
         <v>21</v>
@@ -6137,10 +6236,10 @@
     </row>
     <row r="274" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I274" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="J274" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="K274" t="s">
         <v>21</v>
@@ -6151,10 +6250,10 @@
     </row>
     <row r="275" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I275" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="J275" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="K275" t="s">
         <v>21</v>
@@ -6165,10 +6264,10 @@
     </row>
     <row r="276" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I276" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="J276" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="K276" t="s">
         <v>30</v>
@@ -6179,13 +6278,13 @@
     </row>
     <row r="277" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I277" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="J277" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="K277" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L277" t="s">
         <v>4</v>
@@ -6193,10 +6292,10 @@
     </row>
     <row r="278" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I278" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="J278" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K278" t="s">
         <v>21</v>
@@ -6207,10 +6306,10 @@
     </row>
     <row r="279" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I279" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="J279" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K279" t="s">
         <v>21</v>
@@ -6221,10 +6320,10 @@
     </row>
     <row r="280" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I280" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="J280" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K280" t="s">
         <v>21</v>
@@ -6235,10 +6334,10 @@
     </row>
     <row r="281" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I281" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="J281" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K281" t="s">
         <v>21</v>
@@ -6249,13 +6348,13 @@
     </row>
     <row r="282" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I282" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="J282" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K282" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L282" t="s">
         <v>3</v>
@@ -6263,13 +6362,13 @@
     </row>
     <row r="283" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I283" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="J283" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K283" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L283" t="s">
         <v>5</v>
@@ -6277,10 +6376,10 @@
     </row>
     <row r="284" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I284" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="J284" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="K284" t="s">
         <v>21</v>
@@ -6291,10 +6390,10 @@
     </row>
     <row r="285" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I285" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="J285" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="K285" t="s">
         <v>21</v>
@@ -6305,13 +6404,13 @@
     </row>
     <row r="286" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I286" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J286" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K286" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L286" t="s">
         <v>3</v>
@@ -6319,13 +6418,13 @@
     </row>
     <row r="287" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I287" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J287" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K287" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L287" t="s">
         <v>5</v>
@@ -6333,13 +6432,13 @@
     </row>
     <row r="288" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I288" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J288" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K288" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L288" t="s">
         <v>4</v>
@@ -6347,13 +6446,13 @@
     </row>
     <row r="289" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I289" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J289" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K289" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L289" t="s">
         <v>6</v>
@@ -6361,13 +6460,13 @@
     </row>
     <row r="290" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I290" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="J290" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="K290" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L290" t="s">
         <v>4</v>
@@ -6375,10 +6474,10 @@
     </row>
     <row r="291" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I291" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="J291" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="K291" t="s">
         <v>21</v>
@@ -6389,13 +6488,13 @@
     </row>
     <row r="292" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I292" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="J292" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="K292" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L292" t="s">
         <v>5</v>
@@ -6403,10 +6502,10 @@
     </row>
     <row r="293" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I293" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="J293" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="K293" t="s">
         <v>21</v>
@@ -6417,13 +6516,13 @@
     </row>
     <row r="294" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I294" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="J294" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="K294" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L294" t="s">
         <v>5</v>
@@ -6431,10 +6530,10 @@
     </row>
     <row r="295" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I295" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="J295" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="K295" t="s">
         <v>21</v>
@@ -6445,10 +6544,10 @@
     </row>
     <row r="296" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I296" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="J296" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="K296" t="s">
         <v>21</v>
@@ -6459,10 +6558,10 @@
     </row>
     <row r="297" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I297" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="J297" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="K297" t="s">
         <v>21</v>
@@ -6473,10 +6572,10 @@
     </row>
     <row r="298" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I298" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="J298" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="K298" t="s">
         <v>21</v>
@@ -6487,10 +6586,10 @@
     </row>
     <row r="299" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I299" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="J299" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K299" t="s">
         <v>21</v>
@@ -6501,13 +6600,13 @@
     </row>
     <row r="300" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I300" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="J300" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="K300" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L300" t="s">
         <v>5</v>
@@ -6515,10 +6614,10 @@
     </row>
     <row r="301" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I301" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="J301" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="K301" t="s">
         <v>21</v>
@@ -6529,10 +6628,10 @@
     </row>
     <row r="302" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I302" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="J302" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="K302" t="s">
         <v>21</v>
@@ -6543,10 +6642,10 @@
     </row>
     <row r="303" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I303" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J303" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K303" t="s">
         <v>21</v>
@@ -6557,10 +6656,10 @@
     </row>
     <row r="304" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I304" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J304" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K304" t="s">
         <v>21</v>
@@ -6571,10 +6670,10 @@
     </row>
     <row r="305" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I305" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J305" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K305" t="s">
         <v>21</v>
@@ -6585,10 +6684,10 @@
     </row>
     <row r="306" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I306" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J306" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K306" t="s">
         <v>21</v>
@@ -6599,10 +6698,10 @@
     </row>
     <row r="307" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I307" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="J307" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="K307" t="s">
         <v>21</v>
@@ -6613,10 +6712,10 @@
     </row>
     <row r="308" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I308" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="J308" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="K308" t="s">
         <v>21</v>
@@ -6627,10 +6726,10 @@
     </row>
     <row r="309" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I309" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="J309" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="K309" t="s">
         <v>21</v>
@@ -6641,10 +6740,10 @@
     </row>
     <row r="310" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I310" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="J310" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="K310" t="s">
         <v>21</v>
@@ -6655,13 +6754,13 @@
     </row>
     <row r="311" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I311" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="J311" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="K311" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L311" t="s">
         <v>5</v>
@@ -6669,10 +6768,10 @@
     </row>
     <row r="312" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I312" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="J312" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K312" t="s">
         <v>21</v>
@@ -6683,10 +6782,10 @@
     </row>
     <row r="313" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I313" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="J313" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K313" t="s">
         <v>21</v>
@@ -6697,10 +6796,10 @@
     </row>
     <row r="314" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I314" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="J314" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K314" t="s">
         <v>21</v>
@@ -6711,13 +6810,13 @@
     </row>
     <row r="315" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I315" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="J315" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K315" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L315" t="s">
         <v>3</v>
@@ -6725,13 +6824,13 @@
     </row>
     <row r="316" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I316" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="J316" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K316" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L316" t="s">
         <v>5</v>
@@ -6739,13 +6838,13 @@
     </row>
     <row r="317" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I317" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="J317" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="K317" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L317" t="s">
         <v>6</v>
@@ -6753,13 +6852,13 @@
     </row>
     <row r="318" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I318" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="J318" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="K318" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L318" t="s">
         <v>3</v>
@@ -6767,13 +6866,13 @@
     </row>
     <row r="319" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I319" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="J319" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="K319" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L319" t="s">
         <v>5</v>
@@ -6781,13 +6880,13 @@
     </row>
     <row r="320" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I320" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="J320" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="K320" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L320" t="s">
         <v>4</v>
@@ -6795,10 +6894,10 @@
     </row>
     <row r="321" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I321" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="J321" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K321" t="s">
         <v>21</v>
@@ -6809,10 +6908,10 @@
     </row>
     <row r="322" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I322" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="J322" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K322" t="s">
         <v>21</v>
@@ -6823,10 +6922,10 @@
     </row>
     <row r="323" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I323" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="J323" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K323" t="s">
         <v>21</v>
@@ -6837,10 +6936,10 @@
     </row>
     <row r="324" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I324" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="J324" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K324" t="s">
         <v>21</v>
@@ -6851,13 +6950,13 @@
     </row>
     <row r="325" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I325" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="J325" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="K325" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L325" t="s">
         <v>3</v>
@@ -6865,13 +6964,13 @@
     </row>
     <row r="326" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I326" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="J326" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="K326" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L326" t="s">
         <v>5</v>
@@ -6879,13 +6978,13 @@
     </row>
     <row r="327" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I327" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="J327" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="K327" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L327" t="s">
         <v>5</v>
@@ -6893,10 +6992,10 @@
     </row>
     <row r="328" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I328" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="J328" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="K328" t="s">
         <v>21</v>
@@ -6907,10 +7006,10 @@
     </row>
     <row r="329" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I329" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="J329" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="K329" t="s">
         <v>21</v>
@@ -6921,10 +7020,10 @@
     </row>
     <row r="330" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I330" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="J330" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="K330" t="s">
         <v>21</v>
@@ -6935,10 +7034,10 @@
     </row>
     <row r="331" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I331" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="J331" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="K331" t="s">
         <v>21</v>
@@ -6949,10 +7048,10 @@
     </row>
     <row r="332" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I332" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="J332" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="K332" t="s">
         <v>21</v>
@@ -6963,10 +7062,10 @@
     </row>
     <row r="333" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I333" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="J333" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="K333" t="s">
         <v>21</v>
@@ -6977,10 +7076,10 @@
     </row>
     <row r="334" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I334" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="J334" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="K334" t="s">
         <v>21</v>
@@ -6991,13 +7090,13 @@
     </row>
     <row r="335" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I335" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="J335" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="K335" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L335" t="s">
         <v>3</v>
@@ -7005,13 +7104,13 @@
     </row>
     <row r="336" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I336" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="J336" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="K336" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L336" t="s">
         <v>5</v>
@@ -7019,13 +7118,13 @@
     </row>
     <row r="337" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I337" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="J337" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="K337" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L337" t="s">
         <v>4</v>
@@ -7033,13 +7132,13 @@
     </row>
     <row r="338" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I338" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="J338" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="K338" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L338" t="s">
         <v>5</v>
@@ -7047,10 +7146,10 @@
     </row>
     <row r="339" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I339" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J339" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="K339" t="s">
         <v>21</v>
@@ -7061,10 +7160,10 @@
     </row>
     <row r="340" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I340" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J340" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="K340" t="s">
         <v>21</v>
@@ -7075,13 +7174,13 @@
     </row>
     <row r="341" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I341" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="J341" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="K341" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L341" t="s">
         <v>5</v>
@@ -7089,13 +7188,13 @@
     </row>
     <row r="342" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I342" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="J342" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="K342" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L342" t="s">
         <v>4</v>
@@ -7103,10 +7202,10 @@
     </row>
     <row r="343" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I343" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="J343" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="K343" t="s">
         <v>21</v>
@@ -7117,10 +7216,10 @@
     </row>
     <row r="344" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I344" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="J344" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="K344" t="s">
         <v>21</v>
@@ -7131,10 +7230,10 @@
     </row>
     <row r="345" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I345" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="J345" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="K345" t="s">
         <v>21</v>
@@ -7145,10 +7244,10 @@
     </row>
     <row r="346" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I346" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="J346" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="K346" t="s">
         <v>21</v>
@@ -7159,10 +7258,10 @@
     </row>
     <row r="347" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I347" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="J347" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K347" t="s">
         <v>21</v>
@@ -7173,10 +7272,10 @@
     </row>
     <row r="348" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I348" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="J348" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K348" t="s">
         <v>21</v>
@@ -7187,10 +7286,10 @@
     </row>
     <row r="349" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I349" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="J349" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K349" t="s">
         <v>21</v>
@@ -7201,13 +7300,13 @@
     </row>
     <row r="350" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I350" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="J350" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K350" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L350" t="s">
         <v>5</v>
@@ -7215,13 +7314,13 @@
     </row>
     <row r="351" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I351" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="J351" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K351" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L351" t="s">
         <v>4</v>
@@ -7229,10 +7328,10 @@
     </row>
     <row r="352" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I352" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="J352" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="K352" t="s">
         <v>21</v>
@@ -7243,10 +7342,10 @@
     </row>
     <row r="353" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I353" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="J353" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="K353" t="s">
         <v>21</v>
@@ -7257,10 +7356,10 @@
     </row>
     <row r="354" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I354" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="J354" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="K354" t="s">
         <v>21</v>
@@ -7271,13 +7370,13 @@
     </row>
     <row r="355" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I355" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="J355" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="K355" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L355" t="s">
         <v>3</v>
@@ -7285,13 +7384,13 @@
     </row>
     <row r="356" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I356" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="J356" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="K356" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L356" t="s">
         <v>5</v>
@@ -7299,13 +7398,13 @@
     </row>
     <row r="357" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I357" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="J357" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="K357" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L357" t="s">
         <v>6</v>
@@ -7313,10 +7412,10 @@
     </row>
     <row r="358" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I358" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="J358" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="K358" t="s">
         <v>21</v>
@@ -7327,10 +7426,10 @@
     </row>
     <row r="359" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I359" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="J359" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="K359" t="s">
         <v>21</v>
@@ -7341,10 +7440,10 @@
     </row>
     <row r="360" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I360" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="J360" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="K360" t="s">
         <v>21</v>
@@ -7355,10 +7454,10 @@
     </row>
     <row r="361" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I361" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="J361" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="K361" t="s">
         <v>21</v>
@@ -7369,10 +7468,10 @@
     </row>
     <row r="362" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I362" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="J362" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="K362" t="s">
         <v>21</v>
@@ -7383,10 +7482,10 @@
     </row>
     <row r="363" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I363" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="J363" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="K363" t="s">
         <v>21</v>
@@ -7397,10 +7496,10 @@
     </row>
     <row r="364" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I364" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="J364" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="K364" t="s">
         <v>21</v>
@@ -7411,10 +7510,10 @@
     </row>
     <row r="365" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I365" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="J365" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="K365" t="s">
         <v>21</v>
@@ -7425,13 +7524,13 @@
     </row>
     <row r="366" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I366" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="J366" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="K366" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L366" t="s">
         <v>3</v>
@@ -7439,13 +7538,13 @@
     </row>
     <row r="367" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I367" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="J367" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="K367" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L367" t="s">
         <v>5</v>
@@ -7453,13 +7552,13 @@
     </row>
     <row r="368" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I368" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="J368" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="K368" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L368" t="s">
         <v>4</v>
@@ -7467,13 +7566,13 @@
     </row>
     <row r="369" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I369" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="J369" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="K369" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L369" t="s">
         <v>6</v>
@@ -7481,10 +7580,10 @@
     </row>
     <row r="370" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I370" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="J370" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="K370" t="s">
         <v>21</v>
@@ -7495,10 +7594,10 @@
     </row>
     <row r="371" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I371" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="J371" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="K371" t="s">
         <v>21</v>
@@ -7509,10 +7608,10 @@
     </row>
     <row r="372" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I372" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="J372" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="K372" t="s">
         <v>21</v>
@@ -7523,10 +7622,10 @@
     </row>
     <row r="373" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I373" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="J373" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="K373" t="s">
         <v>21</v>
@@ -7537,13 +7636,13 @@
     </row>
     <row r="374" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I374" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="J374" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="K374" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L374" t="s">
         <v>4</v>
@@ -7551,13 +7650,13 @@
     </row>
     <row r="375" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I375" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="J375" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="K375" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L375" t="s">
         <v>3</v>
@@ -7565,13 +7664,13 @@
     </row>
     <row r="376" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I376" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="J376" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="K376" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L376" t="s">
         <v>5</v>
@@ -7579,13 +7678,13 @@
     </row>
     <row r="377" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I377" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="J377" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="K377" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L377" t="s">
         <v>4</v>
@@ -7593,10 +7692,10 @@
     </row>
     <row r="378" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I378" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="J378" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="K378" t="s">
         <v>21</v>
@@ -7607,10 +7706,10 @@
     </row>
     <row r="379" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I379" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="J379" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="K379" t="s">
         <v>21</v>
@@ -7621,10 +7720,10 @@
     </row>
     <row r="380" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I380" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="J380" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="K380" t="s">
         <v>21</v>
@@ -7635,10 +7734,10 @@
     </row>
     <row r="381" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I381" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="J381" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="K381" t="s">
         <v>21</v>
@@ -7649,13 +7748,13 @@
     </row>
     <row r="382" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I382" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="J382" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="K382" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L382" t="s">
         <v>3</v>
@@ -7663,13 +7762,13 @@
     </row>
     <row r="383" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I383" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="J383" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="K383" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L383" t="s">
         <v>5</v>
@@ -7677,13 +7776,13 @@
     </row>
     <row r="384" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I384" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="J384" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="K384" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L384" t="s">
         <v>4</v>
@@ -7691,13 +7790,13 @@
     </row>
     <row r="385" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I385" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="J385" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="K385" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L385" t="s">
         <v>5</v>
@@ -7705,10 +7804,10 @@
     </row>
     <row r="386" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I386" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="J386" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="K386" t="s">
         <v>21</v>
@@ -7719,10 +7818,10 @@
     </row>
     <row r="387" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I387" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="J387" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="K387" t="s">
         <v>21</v>
@@ -7733,10 +7832,10 @@
     </row>
     <row r="388" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I388" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="J388" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="K388" t="s">
         <v>21</v>
@@ -7747,10 +7846,10 @@
     </row>
     <row r="389" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I389" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="J389" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="K389" t="s">
         <v>21</v>
@@ -7761,13 +7860,13 @@
     </row>
     <row r="390" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I390" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="J390" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="K390" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L390" t="s">
         <v>4</v>
@@ -7775,10 +7874,10 @@
     </row>
     <row r="391" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I391" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="J391" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="K391" t="s">
         <v>21</v>
@@ -7789,10 +7888,10 @@
     </row>
     <row r="392" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I392" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="J392" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="K392" t="s">
         <v>21</v>
@@ -7803,10 +7902,10 @@
     </row>
     <row r="393" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I393" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="J393" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="K393" t="s">
         <v>21</v>
@@ -7817,10 +7916,10 @@
     </row>
     <row r="394" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I394" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="J394" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="K394" t="s">
         <v>21</v>
@@ -7831,10 +7930,10 @@
     </row>
     <row r="395" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I395" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="J395" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="K395" t="s">
         <v>21</v>
@@ -7845,10 +7944,10 @@
     </row>
     <row r="396" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I396" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="J396" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="K396" t="s">
         <v>21</v>
@@ -7859,10 +7958,10 @@
     </row>
     <row r="397" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I397" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="J397" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="K397" t="s">
         <v>21</v>
@@ -7873,13 +7972,13 @@
     </row>
     <row r="398" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I398" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="J398" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="K398" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L398" t="s">
         <v>3</v>
@@ -7887,13 +7986,13 @@
     </row>
     <row r="399" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I399" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="J399" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="K399" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L399" t="s">
         <v>5</v>
@@ -7901,13 +8000,13 @@
     </row>
     <row r="400" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I400" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="J400" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="K400" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L400" t="s">
         <v>4</v>
@@ -7915,13 +8014,13 @@
     </row>
     <row r="401" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I401" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="J401" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="K401" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L401" t="s">
         <v>6</v>
@@ -7929,13 +8028,13 @@
     </row>
     <row r="402" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I402" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="J402" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="K402" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L402" t="s">
         <v>5</v>
@@ -7943,10 +8042,10 @@
     </row>
     <row r="403" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I403" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="J403" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="K403" t="s">
         <v>21</v>
@@ -7957,10 +8056,10 @@
     </row>
     <row r="404" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I404" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="J404" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="K404" t="s">
         <v>21</v>
@@ -7971,10 +8070,10 @@
     </row>
     <row r="405" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I405" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="J405" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="K405" t="s">
         <v>21</v>
@@ -7985,10 +8084,10 @@
     </row>
     <row r="406" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I406" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="J406" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="K406" t="s">
         <v>21</v>
@@ -7999,10 +8098,10 @@
     </row>
     <row r="407" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I407" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="J407" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="K407" t="s">
         <v>21</v>
@@ -8013,10 +8112,10 @@
     </row>
     <row r="408" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I408" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="J408" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="K408" t="s">
         <v>21</v>
@@ -8027,13 +8126,13 @@
     </row>
     <row r="409" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I409" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="J409" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="K409" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L409" t="s">
         <v>4</v>
@@ -8041,10 +8140,10 @@
     </row>
     <row r="410" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I410" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="J410" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="K410" t="s">
         <v>21</v>
@@ -8055,10 +8154,10 @@
     </row>
     <row r="411" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I411" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="J411" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="K411" t="s">
         <v>21</v>
@@ -8069,10 +8168,10 @@
     </row>
     <row r="412" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I412" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="J412" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="K412" t="s">
         <v>21</v>
@@ -8083,10 +8182,10 @@
     </row>
     <row r="413" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I413" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="J413" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="K413" t="s">
         <v>21</v>
@@ -8097,10 +8196,10 @@
     </row>
     <row r="414" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I414" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="J414" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="K414" t="s">
         <v>21</v>
@@ -8111,10 +8210,10 @@
     </row>
     <row r="415" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I415" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="J415" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="K415" t="s">
         <v>21</v>
@@ -8125,10 +8224,10 @@
     </row>
     <row r="416" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I416" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="J416" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="K416" t="s">
         <v>21</v>
@@ -8139,10 +8238,10 @@
     </row>
     <row r="417" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I417" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="J417" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="K417" t="s">
         <v>21</v>
@@ -8153,10 +8252,10 @@
     </row>
     <row r="418" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I418" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="J418" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="K418" t="s">
         <v>21</v>
@@ -8167,10 +8266,10 @@
     </row>
     <row r="419" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I419" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="J419" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K419" t="s">
         <v>21</v>
@@ -8181,10 +8280,10 @@
     </row>
     <row r="420" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I420" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="J420" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K420" t="s">
         <v>21</v>
@@ -8195,10 +8294,10 @@
     </row>
     <row r="421" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I421" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="J421" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K421" t="s">
         <v>21</v>
@@ -8209,10 +8308,10 @@
     </row>
     <row r="422" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I422" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="J422" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="K422" t="s">
         <v>21</v>
@@ -8223,13 +8322,13 @@
     </row>
     <row r="423" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I423" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="J423" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="K423" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L423" t="s">
         <v>5</v>
@@ -8237,10 +8336,10 @@
     </row>
     <row r="424" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I424" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="J424" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="K424" t="s">
         <v>21</v>
@@ -8251,10 +8350,10 @@
     </row>
     <row r="425" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I425" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="J425" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="K425" t="s">
         <v>21</v>
@@ -8265,10 +8364,10 @@
     </row>
     <row r="426" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I426" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="J426" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="K426" t="s">
         <v>21</v>
@@ -8279,10 +8378,10 @@
     </row>
     <row r="427" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I427" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="J427" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="K427" t="s">
         <v>21</v>
@@ -8293,10 +8392,10 @@
     </row>
     <row r="428" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I428" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="J428" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="K428" t="s">
         <v>21</v>
@@ -8307,13 +8406,13 @@
     </row>
     <row r="429" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I429" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="J429" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="K429" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L429" t="s">
         <v>3</v>
@@ -8321,13 +8420,13 @@
     </row>
     <row r="430" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I430" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="J430" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="K430" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L430" t="s">
         <v>5</v>
@@ -8335,13 +8434,13 @@
     </row>
     <row r="431" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I431" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="J431" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="K431" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L431" t="s">
         <v>4</v>
@@ -8349,13 +8448,13 @@
     </row>
     <row r="432" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I432" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="J432" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="K432" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L432" t="s">
         <v>6</v>
@@ -8363,13 +8462,13 @@
     </row>
     <row r="433" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I433" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="J433" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="K433" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L433" t="s">
         <v>3</v>
@@ -8377,10 +8476,10 @@
     </row>
     <row r="434" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I434" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="J434" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="K434" t="s">
         <v>21</v>
@@ -8391,10 +8490,10 @@
     </row>
     <row r="435" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I435" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="J435" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="K435" t="s">
         <v>21</v>
@@ -8405,10 +8504,10 @@
     </row>
     <row r="436" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I436" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="J436" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="K436" t="s">
         <v>21</v>
@@ -8419,10 +8518,10 @@
     </row>
     <row r="437" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I437" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="J437" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="K437" t="s">
         <v>21</v>
@@ -8433,10 +8532,10 @@
     </row>
     <row r="438" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I438" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="J438" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="K438" t="s">
         <v>21</v>
@@ -8447,10 +8546,10 @@
     </row>
     <row r="439" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I439" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="J439" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="K439" t="s">
         <v>21</v>
@@ -8461,13 +8560,13 @@
     </row>
     <row r="440" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I440" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="J440" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="K440" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L440" t="s">
         <v>6</v>
@@ -8475,10 +8574,10 @@
     </row>
     <row r="441" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I441" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="J441" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="K441" t="s">
         <v>21</v>
@@ -8489,10 +8588,10 @@
     </row>
     <row r="442" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I442" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="J442" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="K442" t="s">
         <v>21</v>
@@ -8503,10 +8602,10 @@
     </row>
     <row r="443" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I443" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="J443" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="K443" t="s">
         <v>21</v>
@@ -8517,10 +8616,10 @@
     </row>
     <row r="444" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I444" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="J444" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="K444" t="s">
         <v>21</v>
@@ -8531,10 +8630,10 @@
     </row>
     <row r="445" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I445" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="J445" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="K445" t="s">
         <v>21</v>
@@ -8545,10 +8644,10 @@
     </row>
     <row r="446" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I446" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="J446" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="K446" t="s">
         <v>21</v>
@@ -8559,10 +8658,10 @@
     </row>
     <row r="447" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I447" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="J447" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="K447" t="s">
         <v>21</v>
@@ -8573,10 +8672,10 @@
     </row>
     <row r="448" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I448" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="J448" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="K448" t="s">
         <v>21</v>
@@ -8587,13 +8686,13 @@
     </row>
     <row r="449" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I449" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="J449" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="K449" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L449" t="s">
         <v>3</v>
@@ -8601,13 +8700,13 @@
     </row>
     <row r="450" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I450" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="J450" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="K450" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L450" t="s">
         <v>5</v>
@@ -8615,10 +8714,10 @@
     </row>
     <row r="451" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I451" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="J451" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="K451" t="s">
         <v>21</v>
@@ -8629,10 +8728,10 @@
     </row>
     <row r="452" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I452" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="J452" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="K452" t="s">
         <v>21</v>
@@ -8643,10 +8742,10 @@
     </row>
     <row r="453" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I453" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="J453" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="K453" t="s">
         <v>21</v>
@@ -8657,10 +8756,10 @@
     </row>
     <row r="454" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I454" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="J454" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="K454" t="s">
         <v>21</v>
@@ -8671,10 +8770,10 @@
     </row>
     <row r="455" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I455" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="J455" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="K455" t="s">
         <v>21</v>
@@ -8685,10 +8784,10 @@
     </row>
     <row r="456" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I456" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="J456" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="K456" t="s">
         <v>21</v>
@@ -8699,13 +8798,13 @@
     </row>
     <row r="457" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I457" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="J457" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="K457" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L457" t="s">
         <v>3</v>
@@ -8713,13 +8812,13 @@
     </row>
     <row r="458" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I458" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="J458" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="K458" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L458" t="s">
         <v>5</v>
@@ -8727,13 +8826,13 @@
     </row>
     <row r="459" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I459" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="J459" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="K459" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L459" t="s">
         <v>4</v>
@@ -8741,13 +8840,13 @@
     </row>
     <row r="460" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I460" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="J460" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="K460" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L460" t="s">
         <v>3</v>
@@ -8755,13 +8854,13 @@
     </row>
     <row r="461" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I461" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="J461" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="K461" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L461" t="s">
         <v>5</v>
@@ -8769,13 +8868,13 @@
     </row>
     <row r="462" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I462" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="J462" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="K462" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L462" t="s">
         <v>4</v>
@@ -8783,10 +8882,10 @@
     </row>
     <row r="463" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I463" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="J463" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="K463" t="s">
         <v>21</v>
@@ -8797,10 +8896,10 @@
     </row>
     <row r="464" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I464" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="J464" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="K464" t="s">
         <v>21</v>
@@ -8811,10 +8910,10 @@
     </row>
     <row r="465" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I465" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="J465" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="K465" t="s">
         <v>21</v>
@@ -8825,10 +8924,10 @@
     </row>
     <row r="466" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I466" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="J466" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="K466" t="s">
         <v>21</v>
@@ -8839,10 +8938,10 @@
     </row>
     <row r="467" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I467" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="J467" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="K467" t="s">
         <v>21</v>
@@ -8853,10 +8952,10 @@
     </row>
     <row r="468" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I468" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="J468" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="K468" t="s">
         <v>21</v>
@@ -8867,13 +8966,13 @@
     </row>
     <row r="469" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I469" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="J469" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="K469" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L469" t="s">
         <v>3</v>
@@ -8881,13 +8980,13 @@
     </row>
     <row r="470" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I470" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="J470" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="K470" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L470" t="s">
         <v>6</v>
@@ -8895,10 +8994,10 @@
     </row>
     <row r="471" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I471" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="J471" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="K471" t="s">
         <v>21</v>
@@ -8909,10 +9008,10 @@
     </row>
     <row r="472" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I472" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="J472" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="K472" t="s">
         <v>21</v>
@@ -8923,10 +9022,10 @@
     </row>
     <row r="473" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I473" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="J473" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="K473" t="s">
         <v>21</v>
@@ -8937,10 +9036,10 @@
     </row>
     <row r="474" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I474" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="J474" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="K474" t="s">
         <v>21</v>
@@ -8951,10 +9050,10 @@
     </row>
     <row r="475" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I475" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="J475" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="K475" t="s">
         <v>21</v>
@@ -8965,10 +9064,10 @@
     </row>
     <row r="476" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I476" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="J476" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K476" t="s">
         <v>21</v>
@@ -8979,10 +9078,10 @@
     </row>
     <row r="477" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I477" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="J477" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K477" t="s">
         <v>21</v>
@@ -8993,10 +9092,10 @@
     </row>
     <row r="478" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I478" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="J478" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K478" t="s">
         <v>21</v>
@@ -9007,10 +9106,10 @@
     </row>
     <row r="479" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I479" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="J479" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K479" t="s">
         <v>21</v>
@@ -9021,13 +9120,13 @@
     </row>
     <row r="480" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I480" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="J480" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K480" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L480" t="s">
         <v>3</v>
@@ -9035,13 +9134,13 @@
     </row>
     <row r="481" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I481" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="J481" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K481" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L481" t="s">
         <v>5</v>
@@ -9049,13 +9148,13 @@
     </row>
     <row r="482" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I482" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="J482" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K482" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L482" t="s">
         <v>4</v>
@@ -9063,13 +9162,13 @@
     </row>
     <row r="483" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I483" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="J483" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="K483" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L483" t="s">
         <v>6</v>
@@ -9077,10 +9176,10 @@
     </row>
     <row r="484" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I484" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="J484" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="K484" t="s">
         <v>21</v>
@@ -9091,10 +9190,10 @@
     </row>
     <row r="485" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I485" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="J485" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="K485" t="s">
         <v>21</v>
@@ -9105,10 +9204,10 @@
     </row>
     <row r="486" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I486" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="J486" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="K486" t="s">
         <v>21</v>
@@ -9119,10 +9218,10 @@
     </row>
     <row r="487" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I487" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="J487" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="K487" t="s">
         <v>21</v>
@@ -9133,10 +9232,10 @@
     </row>
     <row r="488" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I488" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="J488" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="K488" t="s">
         <v>21</v>
@@ -9147,13 +9246,13 @@
     </row>
     <row r="489" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I489" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="J489" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="K489" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L489" t="s">
         <v>4</v>
@@ -9161,13 +9260,13 @@
     </row>
     <row r="490" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I490" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J490" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="K490" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L490" t="s">
         <v>6</v>
@@ -9175,13 +9274,13 @@
     </row>
     <row r="491" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I491" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J491" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K491" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L491" t="s">
         <v>7</v>
@@ -9189,13 +9288,13 @@
     </row>
     <row r="492" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I492" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J492" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K492" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L492" t="s">
         <v>7</v>
@@ -9203,13 +9302,13 @@
     </row>
     <row r="493" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I493" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J493" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="K493" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L493" t="s">
         <v>3</v>
@@ -9220,7 +9319,7 @@
         <v>19</v>
       </c>
       <c r="J494" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="K494" t="s">
         <v>21</v>
@@ -9231,13 +9330,13 @@
     </row>
     <row r="495" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I495" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J495" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="K495" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L495" t="s">
         <v>5</v>
@@ -9245,10 +9344,10 @@
     </row>
     <row r="496" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I496" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="J496" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="K496" t="s">
         <v>21</v>
@@ -9259,13 +9358,13 @@
     </row>
     <row r="497" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I497" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J497" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="K497" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L497" t="s">
         <v>7</v>
@@ -9297,51 +9396,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="E3" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="G3" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="H3" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="I3" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9943,12 +10042,16 @@
       <c r="E153" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="458">
+  <dataValidations count="459">
     <dataValidation type="list" showErrorMessage="1" error="Por favor ingresar un Código de Establecimiento válido" sqref="A10:A153">
       <formula1>Info!$A$2:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor ingresar un Código de Establecimiento válido" sqref="A4:A153">
       <formula1>Info!$A$2:$A$14</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" showErrorMessage="1" error="No se puede editar" sqref="B1">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un material válido." sqref="B10:B153">
       <formula1>Info!$B$2:$B$6</formula1>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Info" state="veryHidden" r:id="rId4"/>
+    <sheet sheetId="1" name="Info" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Carga Masiva" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="579">
   <si>
     <t>CODIGO</t>
   </si>
@@ -23,34 +23,37 @@
     <t>TIPO TRATAMIENTO</t>
   </si>
   <si>
+    <t>Papel_Cartón</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Mezclados</t>
+  </si>
+  <si>
+    <t>RUTs</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>REGIONES</t>
+  </si>
+  <si>
+    <t>MATERIALES</t>
+  </si>
+  <si>
+    <t>id_test - Metropolitana - Cerrillos - Estación Central</t>
+  </si>
+  <si>
     <t>Papel/Cartón</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Mezclados</t>
-  </si>
-  <si>
-    <t>RUTs</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>REGIONES</t>
-  </si>
-  <si>
-    <t>MATERIALES</t>
-  </si>
-  <si>
-    <t>id_test - Metropolitana - Cerrillos - Estación Central</t>
   </si>
   <si>
     <t>Reciclaje Mecánico</t>
@@ -1824,12 +1827,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Papel/Cartón" displayName="Papel/Cartón" ref="D1:D7" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Papel_Cartón" displayName="Papel_Cartón" ref="D1:D7" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="D1:D7">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Papel/Cartón" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="Papel_Cartón" totalsRowLabel="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1896,7 +1899,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="TIPO TRATAMIENTO" displayName="TIPO TRATAMIENTO" ref="C1:C8" totalsRowShown="1" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="TIPO_TRATAMIENTO" displayName="TIPO_TRATAMIENTO" ref="C1:C8" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="C1:C8">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
@@ -2296,34 +2299,34 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -2331,34 +2334,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
@@ -2366,63 +2369,63 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -2430,31 +2433,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
         <v>5</v>
@@ -2462,25 +2465,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -2488,19 +2491,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
@@ -2508,16 +2511,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
         <v>5</v>
@@ -2525,16 +2528,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
         <v>6</v>
@@ -2542,16 +2545,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>5</v>
@@ -2559,16 +2562,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
@@ -2576,16 +2579,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>6</v>
@@ -2593,30 +2596,30 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
         <v>4</v>
@@ -2624,13 +2627,13 @@
     </row>
     <row r="16" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
@@ -2638,13 +2641,13 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s">
         <v>6</v>
@@ -2652,27 +2655,27 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
         <v>4</v>
@@ -2680,13 +2683,13 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" t="s">
         <v>6</v>
@@ -2694,13 +2697,13 @@
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
@@ -2708,13 +2711,13 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
         <v>5</v>
@@ -2722,13 +2725,13 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
         <v>6</v>
@@ -2736,13 +2739,13 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s">
         <v>78</v>
       </c>
-      <c r="J24" t="s">
-        <v>77</v>
-      </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
@@ -2750,13 +2753,13 @@
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s">
         <v>5</v>
@@ -2764,13 +2767,13 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
         <v>6</v>
@@ -2778,13 +2781,13 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
         <v>4</v>
@@ -2792,27 +2795,27 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
@@ -2820,27 +2823,27 @@
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L31" t="s">
         <v>6</v>
@@ -2848,13 +2851,13 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
         <v>6</v>
@@ -2862,13 +2865,13 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
         <v>6</v>
@@ -2876,13 +2879,13 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
@@ -2890,13 +2893,13 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L35" t="s">
         <v>5</v>
@@ -2904,13 +2907,13 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
         <v>6</v>
@@ -2918,13 +2921,13 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L37" t="s">
         <v>4</v>
@@ -2932,27 +2935,27 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L39" t="s">
         <v>4</v>
@@ -2960,13 +2963,13 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L40" t="s">
         <v>5</v>
@@ -2974,13 +2977,13 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L41" t="s">
         <v>6</v>
@@ -2988,13 +2991,13 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L42" t="s">
         <v>5</v>
@@ -3002,13 +3005,13 @@
     </row>
     <row r="43" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L43" t="s">
         <v>6</v>
@@ -3016,13 +3019,13 @@
     </row>
     <row r="44" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s">
         <v>5</v>
@@ -3030,13 +3033,13 @@
     </row>
     <row r="45" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
@@ -3044,13 +3047,13 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
         <v>6</v>
@@ -3058,13 +3061,13 @@
     </row>
     <row r="47" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L47" t="s">
         <v>6</v>
@@ -3072,13 +3075,13 @@
     </row>
     <row r="48" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
         <v>5</v>
@@ -3086,13 +3089,13 @@
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L49" t="s">
         <v>6</v>
@@ -3100,13 +3103,13 @@
     </row>
     <row r="50" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J50" t="s">
         <v>91</v>
       </c>
-      <c r="J50" t="s">
-        <v>90</v>
-      </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
         <v>6</v>
@@ -3114,13 +3117,13 @@
     </row>
     <row r="51" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" t="s">
         <v>91</v>
       </c>
-      <c r="J51" t="s">
-        <v>90</v>
-      </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
         <v>6</v>
@@ -3128,13 +3131,13 @@
     </row>
     <row r="52" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" t="s">
         <v>6</v>
@@ -3142,13 +3145,13 @@
     </row>
     <row r="53" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L53" t="s">
         <v>6</v>
@@ -3156,13 +3159,13 @@
     </row>
     <row r="54" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L54" t="s">
         <v>6</v>
@@ -3170,13 +3173,13 @@
     </row>
     <row r="55" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L55" t="s">
         <v>6</v>
@@ -3184,13 +3187,13 @@
     </row>
     <row r="56" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L56" t="s">
         <v>6</v>
@@ -3198,13 +3201,13 @@
     </row>
     <row r="57" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L57" t="s">
         <v>6</v>
@@ -3212,13 +3215,13 @@
     </row>
     <row r="58" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L58" t="s">
         <v>6</v>
@@ -3226,13 +3229,13 @@
     </row>
     <row r="59" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
         <v>6</v>
@@ -3240,13 +3243,13 @@
     </row>
     <row r="60" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L60" t="s">
         <v>6</v>
@@ -3254,13 +3257,13 @@
     </row>
     <row r="61" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
         <v>6</v>
@@ -3268,13 +3271,13 @@
     </row>
     <row r="62" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
         <v>6</v>
@@ -3282,13 +3285,13 @@
     </row>
     <row r="63" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L63" t="s">
         <v>4</v>
@@ -3296,13 +3299,13 @@
     </row>
     <row r="64" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L64" t="s">
         <v>4</v>
@@ -3310,13 +3313,13 @@
     </row>
     <row r="65" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
         <v>6</v>
@@ -3324,27 +3327,27 @@
     </row>
     <row r="66" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L66" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L67" t="s">
         <v>4</v>
@@ -3352,13 +3355,13 @@
     </row>
     <row r="68" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L68" t="s">
         <v>4</v>
@@ -3366,13 +3369,13 @@
     </row>
     <row r="69" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L69" t="s">
         <v>5</v>
@@ -3380,13 +3383,13 @@
     </row>
     <row r="70" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L70" t="s">
         <v>5</v>
@@ -3394,13 +3397,13 @@
     </row>
     <row r="71" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L71" t="s">
         <v>5</v>
@@ -3408,13 +3411,13 @@
     </row>
     <row r="72" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L72" t="s">
         <v>5</v>
@@ -3422,27 +3425,27 @@
     </row>
     <row r="73" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L74" t="s">
         <v>4</v>
@@ -3450,13 +3453,13 @@
     </row>
     <row r="75" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L75" t="s">
         <v>6</v>
@@ -3464,13 +3467,13 @@
     </row>
     <row r="76" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L76" t="s">
         <v>7</v>
@@ -3478,13 +3481,13 @@
     </row>
     <row r="77" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L77" t="s">
         <v>7</v>
@@ -3492,13 +3495,13 @@
     </row>
     <row r="78" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L78" t="s">
         <v>7</v>
@@ -3506,13 +3509,13 @@
     </row>
     <row r="79" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L79" t="s">
         <v>7</v>
@@ -3520,13 +3523,13 @@
     </row>
     <row r="80" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L80" t="s">
         <v>7</v>
@@ -3534,13 +3537,13 @@
     </row>
     <row r="81" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L81" t="s">
         <v>7</v>
@@ -3548,13 +3551,13 @@
     </row>
     <row r="82" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L82" t="s">
         <v>7</v>
@@ -3562,13 +3565,13 @@
     </row>
     <row r="83" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L83" t="s">
         <v>7</v>
@@ -3576,13 +3579,13 @@
     </row>
     <row r="84" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
         <v>7</v>
@@ -3590,27 +3593,27 @@
     </row>
     <row r="85" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L85" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L86" t="s">
         <v>4</v>
@@ -3618,13 +3621,13 @@
     </row>
     <row r="87" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L87" t="s">
         <v>6</v>
@@ -3632,13 +3635,13 @@
     </row>
     <row r="88" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
+        <v>108</v>
+      </c>
+      <c r="J88" t="s">
         <v>107</v>
       </c>
-      <c r="J88" t="s">
-        <v>106</v>
-      </c>
       <c r="K88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L88" t="s">
         <v>6</v>
@@ -3646,13 +3649,13 @@
     </row>
     <row r="89" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L89" t="s">
         <v>6</v>
@@ -3660,13 +3663,13 @@
     </row>
     <row r="90" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L90" t="s">
         <v>5</v>
@@ -3674,13 +3677,13 @@
     </row>
     <row r="91" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L91" t="s">
         <v>5</v>
@@ -3688,13 +3691,13 @@
     </row>
     <row r="92" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L92" t="s">
         <v>6</v>
@@ -3702,13 +3705,13 @@
     </row>
     <row r="93" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L93" t="s">
         <v>4</v>
@@ -3716,13 +3719,13 @@
     </row>
     <row r="94" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L94" t="s">
         <v>7</v>
@@ -3730,13 +3733,13 @@
     </row>
     <row r="95" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L95" t="s">
         <v>4</v>
@@ -3744,13 +3747,13 @@
     </row>
     <row r="96" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L96" t="s">
         <v>6</v>
@@ -3758,13 +3761,13 @@
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L97" t="s">
         <v>6</v>
@@ -3772,13 +3775,13 @@
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L98" t="s">
         <v>4</v>
@@ -3786,27 +3789,27 @@
     </row>
     <row r="99" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L99" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L100" t="s">
         <v>6</v>
@@ -3814,27 +3817,27 @@
     </row>
     <row r="101" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L102" t="s">
         <v>5</v>
@@ -3842,13 +3845,13 @@
     </row>
     <row r="103" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L103" t="s">
         <v>4</v>
@@ -3856,13 +3859,13 @@
     </row>
     <row r="104" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L104" t="s">
         <v>5</v>
@@ -3870,13 +3873,13 @@
     </row>
     <row r="105" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L105" t="s">
         <v>5</v>
@@ -3884,13 +3887,13 @@
     </row>
     <row r="106" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L106" t="s">
         <v>4</v>
@@ -3898,27 +3901,27 @@
     </row>
     <row r="107" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L108" t="s">
         <v>5</v>
@@ -3926,13 +3929,13 @@
     </row>
     <row r="109" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L109" t="s">
         <v>4</v>
@@ -3940,13 +3943,13 @@
     </row>
     <row r="110" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L110" t="s">
         <v>4</v>
@@ -3954,13 +3957,13 @@
     </row>
     <row r="111" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L111" t="s">
         <v>6</v>
@@ -3968,27 +3971,27 @@
     </row>
     <row r="112" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L113" t="s">
         <v>5</v>
@@ -3996,13 +3999,13 @@
     </row>
     <row r="114" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L114" t="s">
         <v>4</v>
@@ -4010,13 +4013,13 @@
     </row>
     <row r="115" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L115" t="s">
         <v>6</v>
@@ -4024,13 +4027,13 @@
     </row>
     <row r="116" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L116" t="s">
         <v>5</v>
@@ -4038,13 +4041,13 @@
     </row>
     <row r="117" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L117" t="s">
         <v>5</v>
@@ -4052,13 +4055,13 @@
     </row>
     <row r="118" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L118" t="s">
         <v>4</v>
@@ -4066,55 +4069,55 @@
     </row>
     <row r="119" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J119" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L119" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K121" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L121" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L122" t="s">
         <v>5</v>
@@ -4122,13 +4125,13 @@
     </row>
     <row r="123" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L123" t="s">
         <v>4</v>
@@ -4136,13 +4139,13 @@
     </row>
     <row r="124" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K124" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L124" t="s">
         <v>5</v>
@@ -4150,13 +4153,13 @@
     </row>
     <row r="125" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K125" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L125" t="s">
         <v>4</v>
@@ -4164,13 +4167,13 @@
     </row>
     <row r="126" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L126" t="s">
         <v>5</v>
@@ -4178,13 +4181,13 @@
     </row>
     <row r="127" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L127" t="s">
         <v>4</v>
@@ -4192,13 +4195,13 @@
     </row>
     <row r="128" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L128" t="s">
         <v>5</v>
@@ -4206,27 +4209,27 @@
     </row>
     <row r="129" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J129" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L129" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L130" t="s">
         <v>5</v>
@@ -4234,13 +4237,13 @@
     </row>
     <row r="131" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L131" t="s">
         <v>4</v>
@@ -4248,13 +4251,13 @@
     </row>
     <row r="132" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J132" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K132" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L132" t="s">
         <v>4</v>
@@ -4262,13 +4265,13 @@
     </row>
     <row r="133" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J133" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K133" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L133" t="s">
         <v>4</v>
@@ -4276,13 +4279,13 @@
     </row>
     <row r="134" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K134" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L134" t="s">
         <v>4</v>
@@ -4290,13 +4293,13 @@
     </row>
     <row r="135" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J135" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L135" t="s">
         <v>5</v>
@@ -4304,13 +4307,13 @@
     </row>
     <row r="136" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I136" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L136" t="s">
         <v>4</v>
@@ -4318,13 +4321,13 @@
     </row>
     <row r="137" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J137" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L137" t="s">
         <v>4</v>
@@ -4332,13 +4335,13 @@
     </row>
     <row r="138" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J138" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K138" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L138" t="s">
         <v>4</v>
@@ -4346,27 +4349,27 @@
     </row>
     <row r="139" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J139" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L139" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L140" t="s">
         <v>4</v>
@@ -4374,13 +4377,13 @@
     </row>
     <row r="141" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L141" t="s">
         <v>5</v>
@@ -4388,13 +4391,13 @@
     </row>
     <row r="142" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J142" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L142" t="s">
         <v>5</v>
@@ -4402,13 +4405,13 @@
     </row>
     <row r="143" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J143" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L143" t="s">
         <v>4</v>
@@ -4416,13 +4419,13 @@
     </row>
     <row r="144" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J144" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L144" t="s">
         <v>4</v>
@@ -4430,27 +4433,27 @@
     </row>
     <row r="145" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L145" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J146" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L146" t="s">
         <v>4</v>
@@ -4458,13 +4461,13 @@
     </row>
     <row r="147" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L147" t="s">
         <v>4</v>
@@ -4472,27 +4475,27 @@
     </row>
     <row r="148" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J148" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L148" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L149" t="s">
         <v>5</v>
@@ -4500,13 +4503,13 @@
     </row>
     <row r="150" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J150" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L150" t="s">
         <v>4</v>
@@ -4514,13 +4517,13 @@
     </row>
     <row r="151" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L151" t="s">
         <v>5</v>
@@ -4528,13 +4531,13 @@
     </row>
     <row r="152" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J152" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K152" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L152" t="s">
         <v>4</v>
@@ -4542,13 +4545,13 @@
     </row>
     <row r="153" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I153" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L153" t="s">
         <v>4</v>
@@ -4556,13 +4559,13 @@
     </row>
     <row r="154" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L154" t="s">
         <v>4</v>
@@ -4570,13 +4573,13 @@
     </row>
     <row r="155" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L155" t="s">
         <v>4</v>
@@ -4584,13 +4587,13 @@
     </row>
     <row r="156" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J156" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L156" t="s">
         <v>4</v>
@@ -4598,13 +4601,13 @@
     </row>
     <row r="157" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I157" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J157" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L157" t="s">
         <v>4</v>
@@ -4612,13 +4615,13 @@
     </row>
     <row r="158" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J158" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L158" t="s">
         <v>5</v>
@@ -4626,27 +4629,27 @@
     </row>
     <row r="159" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I159" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J159" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K159" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L159" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K160" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L160" t="s">
         <v>5</v>
@@ -4654,13 +4657,13 @@
     </row>
     <row r="161" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I161" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J161" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L161" t="s">
         <v>5</v>
@@ -4668,13 +4671,13 @@
     </row>
     <row r="162" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I162" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J162" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K162" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L162" t="s">
         <v>5</v>
@@ -4682,27 +4685,27 @@
     </row>
     <row r="163" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I163" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J163" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L163" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I164" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J164" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L164" t="s">
         <v>4</v>
@@ -4710,27 +4713,27 @@
     </row>
     <row r="165" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I165" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J165" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L165" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I166" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J166" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K166" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L166" t="s">
         <v>5</v>
@@ -4738,13 +4741,13 @@
     </row>
     <row r="167" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I167" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J167" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L167" t="s">
         <v>4</v>
@@ -4752,13 +4755,13 @@
     </row>
     <row r="168" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I168" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L168" t="s">
         <v>4</v>
@@ -4766,13 +4769,13 @@
     </row>
     <row r="169" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I169" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J169" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L169" t="s">
         <v>4</v>
@@ -4780,27 +4783,27 @@
     </row>
     <row r="170" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I170" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J170" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L170" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I171" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J171" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K171" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L171" t="s">
         <v>4</v>
@@ -4808,13 +4811,13 @@
     </row>
     <row r="172" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I172" t="s">
+        <v>213</v>
+      </c>
+      <c r="J172" t="s">
         <v>212</v>
       </c>
-      <c r="J172" t="s">
-        <v>211</v>
-      </c>
       <c r="K172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L172" t="s">
         <v>4</v>
@@ -4822,13 +4825,13 @@
     </row>
     <row r="173" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I173" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J173" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L173" t="s">
         <v>5</v>
@@ -4836,13 +4839,13 @@
     </row>
     <row r="174" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I174" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J174" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K174" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L174" t="s">
         <v>4</v>
@@ -4850,27 +4853,27 @@
     </row>
     <row r="175" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I175" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L175" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I176" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J176" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L176" t="s">
         <v>5</v>
@@ -4878,13 +4881,13 @@
     </row>
     <row r="177" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I177" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J177" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L177" t="s">
         <v>4</v>
@@ -4892,13 +4895,13 @@
     </row>
     <row r="178" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I178" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J178" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L178" t="s">
         <v>6</v>
@@ -4906,13 +4909,13 @@
     </row>
     <row r="179" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I179" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J179" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L179" t="s">
         <v>5</v>
@@ -4920,13 +4923,13 @@
     </row>
     <row r="180" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I180" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J180" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K180" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L180" t="s">
         <v>4</v>
@@ -4934,27 +4937,27 @@
     </row>
     <row r="181" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I181" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J181" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L181" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I182" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J182" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L182" t="s">
         <v>4</v>
@@ -4962,13 +4965,13 @@
     </row>
     <row r="183" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I183" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J183" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K183" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L183" t="s">
         <v>6</v>
@@ -4976,13 +4979,13 @@
     </row>
     <row r="184" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I184" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J184" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L184" t="s">
         <v>5</v>
@@ -4990,27 +4993,27 @@
     </row>
     <row r="185" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J185" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L185" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L186" t="s">
         <v>5</v>
@@ -5018,13 +5021,13 @@
     </row>
     <row r="187" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L187" t="s">
         <v>4</v>
@@ -5032,13 +5035,13 @@
     </row>
     <row r="188" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I188" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J188" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K188" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L188" t="s">
         <v>6</v>
@@ -5046,41 +5049,41 @@
     </row>
     <row r="189" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K189" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L189" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I190" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J190" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L190" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I191" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J191" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K191" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L191" t="s">
         <v>5</v>
@@ -5088,13 +5091,13 @@
     </row>
     <row r="192" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I192" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J192" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L192" t="s">
         <v>4</v>
@@ -5102,13 +5105,13 @@
     </row>
     <row r="193" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I193" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J193" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K193" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L193" t="s">
         <v>4</v>
@@ -5116,27 +5119,27 @@
     </row>
     <row r="194" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J194" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K194" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L194" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J195" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K195" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L195" t="s">
         <v>5</v>
@@ -5144,13 +5147,13 @@
     </row>
     <row r="196" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I196" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J196" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K196" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L196" t="s">
         <v>4</v>
@@ -5158,13 +5161,13 @@
     </row>
     <row r="197" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J197" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L197" t="s">
         <v>6</v>
@@ -5172,27 +5175,27 @@
     </row>
     <row r="198" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I198" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J198" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K198" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L198" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I199" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J199" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K199" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L199" t="s">
         <v>5</v>
@@ -5200,13 +5203,13 @@
     </row>
     <row r="200" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I200" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J200" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K200" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L200" t="s">
         <v>4</v>
@@ -5214,13 +5217,13 @@
     </row>
     <row r="201" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I201" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J201" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K201" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L201" t="s">
         <v>6</v>
@@ -5228,27 +5231,27 @@
     </row>
     <row r="202" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I202" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J202" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L202" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I203" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J203" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L203" t="s">
         <v>6</v>
@@ -5256,27 +5259,27 @@
     </row>
     <row r="204" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I204" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J204" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K204" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L204" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I205" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J205" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K205" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L205" t="s">
         <v>5</v>
@@ -5284,13 +5287,13 @@
     </row>
     <row r="206" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I206" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J206" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K206" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L206" t="s">
         <v>4</v>
@@ -5298,13 +5301,13 @@
     </row>
     <row r="207" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I207" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J207" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K207" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L207" t="s">
         <v>6</v>
@@ -5312,13 +5315,13 @@
     </row>
     <row r="208" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I208" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K208" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L208" t="s">
         <v>4</v>
@@ -5326,13 +5329,13 @@
     </row>
     <row r="209" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I209" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J209" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K209" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L209" t="s">
         <v>5</v>
@@ -5340,13 +5343,13 @@
     </row>
     <row r="210" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I210" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J210" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K210" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L210" t="s">
         <v>4</v>
@@ -5354,13 +5357,13 @@
     </row>
     <row r="211" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I211" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J211" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K211" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L211" t="s">
         <v>4</v>
@@ -5368,27 +5371,27 @@
     </row>
     <row r="212" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I212" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J212" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K212" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L212" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I213" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J213" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K213" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L213" t="s">
         <v>6</v>
@@ -5396,13 +5399,13 @@
     </row>
     <row r="214" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I214" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J214" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K214" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L214" t="s">
         <v>4</v>
@@ -5410,13 +5413,13 @@
     </row>
     <row r="215" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I215" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J215" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K215" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L215" t="s">
         <v>5</v>
@@ -5424,13 +5427,13 @@
     </row>
     <row r="216" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I216" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J216" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K216" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L216" t="s">
         <v>4</v>
@@ -5438,13 +5441,13 @@
     </row>
     <row r="217" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I217" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J217" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K217" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L217" t="s">
         <v>4</v>
@@ -5452,13 +5455,13 @@
     </row>
     <row r="218" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I218" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J218" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K218" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L218" t="s">
         <v>4</v>
@@ -5466,13 +5469,13 @@
     </row>
     <row r="219" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I219" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J219" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L219" t="s">
         <v>5</v>
@@ -5480,13 +5483,13 @@
     </row>
     <row r="220" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I220" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K220" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L220" t="s">
         <v>4</v>
@@ -5494,13 +5497,13 @@
     </row>
     <row r="221" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I221" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J221" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K221" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L221" t="s">
         <v>4</v>
@@ -5508,13 +5511,13 @@
     </row>
     <row r="222" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I222" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J222" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K222" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L222" t="s">
         <v>4</v>
@@ -5522,13 +5525,13 @@
     </row>
     <row r="223" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I223" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J223" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L223" t="s">
         <v>4</v>
@@ -5536,13 +5539,13 @@
     </row>
     <row r="224" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I224" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J224" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K224" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L224" t="s">
         <v>4</v>
@@ -5550,13 +5553,13 @@
     </row>
     <row r="225" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I225" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J225" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K225" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L225" t="s">
         <v>4</v>
@@ -5564,13 +5567,13 @@
     </row>
     <row r="226" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I226" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J226" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K226" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L226" t="s">
         <v>4</v>
@@ -5578,13 +5581,13 @@
     </row>
     <row r="227" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I227" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J227" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K227" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L227" t="s">
         <v>4</v>
@@ -5592,13 +5595,13 @@
     </row>
     <row r="228" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I228" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J228" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K228" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L228" t="s">
         <v>4</v>
@@ -5606,13 +5609,13 @@
     </row>
     <row r="229" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I229" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J229" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K229" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L229" t="s">
         <v>4</v>
@@ -5620,13 +5623,13 @@
     </row>
     <row r="230" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I230" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J230" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K230" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L230" t="s">
         <v>4</v>
@@ -5634,13 +5637,13 @@
     </row>
     <row r="231" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I231" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J231" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K231" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L231" t="s">
         <v>5</v>
@@ -5648,13 +5651,13 @@
     </row>
     <row r="232" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I232" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J232" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K232" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L232" t="s">
         <v>4</v>
@@ -5662,27 +5665,27 @@
     </row>
     <row r="233" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J233" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K233" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L233" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I234" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J234" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L234" t="s">
         <v>5</v>
@@ -5690,13 +5693,13 @@
     </row>
     <row r="235" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I235" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J235" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K235" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L235" t="s">
         <v>4</v>
@@ -5704,13 +5707,13 @@
     </row>
     <row r="236" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I236" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J236" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K236" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L236" t="s">
         <v>6</v>
@@ -5718,27 +5721,27 @@
     </row>
     <row r="237" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I237" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J237" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K237" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L237" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I238" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J238" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K238" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L238" t="s">
         <v>5</v>
@@ -5746,13 +5749,13 @@
     </row>
     <row r="239" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I239" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J239" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K239" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L239" t="s">
         <v>4</v>
@@ -5760,13 +5763,13 @@
     </row>
     <row r="240" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I240" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J240" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K240" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L240" t="s">
         <v>6</v>
@@ -5774,27 +5777,27 @@
     </row>
     <row r="241" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I241" t="s">
+        <v>294</v>
+      </c>
+      <c r="J241" t="s">
         <v>293</v>
       </c>
-      <c r="J241" t="s">
-        <v>292</v>
-      </c>
       <c r="K241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L241" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I242" t="s">
+        <v>294</v>
+      </c>
+      <c r="J242" t="s">
         <v>293</v>
       </c>
-      <c r="J242" t="s">
-        <v>292</v>
-      </c>
       <c r="K242" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L242" t="s">
         <v>5</v>
@@ -5802,13 +5805,13 @@
     </row>
     <row r="243" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I243" t="s">
+        <v>294</v>
+      </c>
+      <c r="J243" t="s">
         <v>293</v>
       </c>
-      <c r="J243" t="s">
-        <v>292</v>
-      </c>
       <c r="K243" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L243" t="s">
         <v>4</v>
@@ -5816,13 +5819,13 @@
     </row>
     <row r="244" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I244" t="s">
+        <v>294</v>
+      </c>
+      <c r="J244" t="s">
         <v>293</v>
       </c>
-      <c r="J244" t="s">
-        <v>292</v>
-      </c>
       <c r="K244" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L244" t="s">
         <v>6</v>
@@ -5830,13 +5833,13 @@
     </row>
     <row r="245" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I245" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J245" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K245" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L245" t="s">
         <v>4</v>
@@ -5844,27 +5847,27 @@
     </row>
     <row r="246" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I246" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J246" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K246" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L246" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I247" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J247" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K247" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L247" t="s">
         <v>5</v>
@@ -5872,13 +5875,13 @@
     </row>
     <row r="248" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I248" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J248" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K248" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L248" t="s">
         <v>4</v>
@@ -5886,13 +5889,13 @@
     </row>
     <row r="249" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I249" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J249" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K249" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L249" t="s">
         <v>5</v>
@@ -5900,13 +5903,13 @@
     </row>
     <row r="250" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I250" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J250" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K250" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L250" t="s">
         <v>5</v>
@@ -5914,13 +5917,13 @@
     </row>
     <row r="251" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I251" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J251" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K251" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L251" t="s">
         <v>4</v>
@@ -5928,13 +5931,13 @@
     </row>
     <row r="252" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I252" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J252" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K252" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L252" t="s">
         <v>4</v>
@@ -5942,13 +5945,13 @@
     </row>
     <row r="253" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I253" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J253" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L253" t="s">
         <v>5</v>
@@ -5956,13 +5959,13 @@
     </row>
     <row r="254" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I254" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J254" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K254" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L254" t="s">
         <v>4</v>
@@ -5970,13 +5973,13 @@
     </row>
     <row r="255" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I255" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J255" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K255" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L255" t="s">
         <v>4</v>
@@ -5984,13 +5987,13 @@
     </row>
     <row r="256" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I256" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J256" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K256" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L256" t="s">
         <v>5</v>
@@ -5998,13 +6001,13 @@
     </row>
     <row r="257" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I257" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J257" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K257" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L257" t="s">
         <v>4</v>
@@ -6012,13 +6015,13 @@
     </row>
     <row r="258" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I258" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J258" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K258" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L258" t="s">
         <v>4</v>
@@ -6026,13 +6029,13 @@
     </row>
     <row r="259" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I259" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J259" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K259" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L259" t="s">
         <v>4</v>
@@ -6040,13 +6043,13 @@
     </row>
     <row r="260" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I260" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J260" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K260" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L260" t="s">
         <v>5</v>
@@ -6054,13 +6057,13 @@
     </row>
     <row r="261" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I261" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J261" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K261" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L261" t="s">
         <v>4</v>
@@ -6068,27 +6071,27 @@
     </row>
     <row r="262" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I262" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J262" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K262" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L262" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I263" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J263" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K263" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L263" t="s">
         <v>5</v>
@@ -6096,13 +6099,13 @@
     </row>
     <row r="264" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I264" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J264" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L264" t="s">
         <v>4</v>
@@ -6110,13 +6113,13 @@
     </row>
     <row r="265" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I265" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J265" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K265" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L265" t="s">
         <v>6</v>
@@ -6124,13 +6127,13 @@
     </row>
     <row r="266" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I266" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J266" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K266" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L266" t="s">
         <v>4</v>
@@ -6138,13 +6141,13 @@
     </row>
     <row r="267" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I267" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J267" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K267" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L267" t="s">
         <v>4</v>
@@ -6152,13 +6155,13 @@
     </row>
     <row r="268" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I268" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J268" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K268" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L268" t="s">
         <v>5</v>
@@ -6166,27 +6169,27 @@
     </row>
     <row r="269" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I269" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J269" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L269" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I270" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J270" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L270" t="s">
         <v>5</v>
@@ -6194,13 +6197,13 @@
     </row>
     <row r="271" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I271" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J271" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L271" t="s">
         <v>5</v>
@@ -6208,13 +6211,13 @@
     </row>
     <row r="272" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I272" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J272" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L272" t="s">
         <v>4</v>
@@ -6222,13 +6225,13 @@
     </row>
     <row r="273" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I273" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J273" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L273" t="s">
         <v>4</v>
@@ -6236,13 +6239,13 @@
     </row>
     <row r="274" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I274" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J274" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K274" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L274" t="s">
         <v>4</v>
@@ -6250,13 +6253,13 @@
     </row>
     <row r="275" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I275" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J275" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L275" t="s">
         <v>4</v>
@@ -6264,13 +6267,13 @@
     </row>
     <row r="276" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I276" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J276" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K276" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L276" t="s">
         <v>6</v>
@@ -6278,13 +6281,13 @@
     </row>
     <row r="277" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I277" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J277" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K277" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L277" t="s">
         <v>4</v>
@@ -6292,27 +6295,27 @@
     </row>
     <row r="278" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I278" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J278" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K278" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L278" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I279" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J279" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K279" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L279" t="s">
         <v>5</v>
@@ -6320,13 +6323,13 @@
     </row>
     <row r="280" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I280" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J280" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K280" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L280" t="s">
         <v>4</v>
@@ -6334,13 +6337,13 @@
     </row>
     <row r="281" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I281" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K281" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L281" t="s">
         <v>6</v>
@@ -6348,27 +6351,27 @@
     </row>
     <row r="282" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I282" t="s">
+        <v>346</v>
+      </c>
+      <c r="J282" t="s">
         <v>345</v>
       </c>
-      <c r="J282" t="s">
-        <v>344</v>
-      </c>
       <c r="K282" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L282" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I283" t="s">
+        <v>346</v>
+      </c>
+      <c r="J283" t="s">
         <v>345</v>
       </c>
-      <c r="J283" t="s">
-        <v>344</v>
-      </c>
       <c r="K283" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L283" t="s">
         <v>5</v>
@@ -6376,13 +6379,13 @@
     </row>
     <row r="284" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I284" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J284" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K284" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L284" t="s">
         <v>4</v>
@@ -6390,41 +6393,41 @@
     </row>
     <row r="285" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I285" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J285" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K285" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L285" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I286" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J286" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K286" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L286" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I287" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J287" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K287" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L287" t="s">
         <v>5</v>
@@ -6432,13 +6435,13 @@
     </row>
     <row r="288" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I288" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J288" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K288" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L288" t="s">
         <v>4</v>
@@ -6446,13 +6449,13 @@
     </row>
     <row r="289" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I289" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J289" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K289" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L289" t="s">
         <v>6</v>
@@ -6460,13 +6463,13 @@
     </row>
     <row r="290" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I290" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J290" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K290" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L290" t="s">
         <v>4</v>
@@ -6474,13 +6477,13 @@
     </row>
     <row r="291" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I291" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J291" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K291" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L291" t="s">
         <v>5</v>
@@ -6488,13 +6491,13 @@
     </row>
     <row r="292" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I292" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J292" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K292" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L292" t="s">
         <v>5</v>
@@ -6502,13 +6505,13 @@
     </row>
     <row r="293" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I293" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J293" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K293" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L293" t="s">
         <v>5</v>
@@ -6516,13 +6519,13 @@
     </row>
     <row r="294" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I294" t="s">
+        <v>361</v>
+      </c>
+      <c r="J294" t="s">
         <v>360</v>
       </c>
-      <c r="J294" t="s">
-        <v>359</v>
-      </c>
       <c r="K294" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L294" t="s">
         <v>5</v>
@@ -6530,13 +6533,13 @@
     </row>
     <row r="295" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I295" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J295" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K295" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L295" t="s">
         <v>5</v>
@@ -6544,13 +6547,13 @@
     </row>
     <row r="296" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I296" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J296" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K296" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L296" t="s">
         <v>5</v>
@@ -6558,13 +6561,13 @@
     </row>
     <row r="297" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I297" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J297" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K297" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L297" t="s">
         <v>5</v>
@@ -6572,13 +6575,13 @@
     </row>
     <row r="298" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I298" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J298" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K298" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L298" t="s">
         <v>4</v>
@@ -6586,13 +6589,13 @@
     </row>
     <row r="299" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I299" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J299" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K299" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L299" t="s">
         <v>4</v>
@@ -6600,13 +6603,13 @@
     </row>
     <row r="300" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I300" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J300" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K300" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L300" t="s">
         <v>5</v>
@@ -6614,13 +6617,13 @@
     </row>
     <row r="301" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I301" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J301" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K301" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L301" t="s">
         <v>4</v>
@@ -6628,13 +6631,13 @@
     </row>
     <row r="302" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I302" t="s">
+        <v>376</v>
+      </c>
+      <c r="J302" t="s">
         <v>375</v>
       </c>
-      <c r="J302" t="s">
-        <v>374</v>
-      </c>
       <c r="K302" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L302" t="s">
         <v>4</v>
@@ -6642,27 +6645,27 @@
     </row>
     <row r="303" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I303" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J303" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K303" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L303" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I304" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J304" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K304" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L304" t="s">
         <v>5</v>
@@ -6670,13 +6673,13 @@
     </row>
     <row r="305" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I305" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J305" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K305" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L305" t="s">
         <v>4</v>
@@ -6684,13 +6687,13 @@
     </row>
     <row r="306" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I306" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J306" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K306" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L306" t="s">
         <v>6</v>
@@ -6698,13 +6701,13 @@
     </row>
     <row r="307" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I307" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J307" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K307" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L307" t="s">
         <v>5</v>
@@ -6712,41 +6715,41 @@
     </row>
     <row r="308" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I308" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J308" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K308" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L308" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I309" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J309" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K309" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L309" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I310" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J310" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K310" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L310" t="s">
         <v>5</v>
@@ -6754,13 +6757,13 @@
     </row>
     <row r="311" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I311" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J311" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K311" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L311" t="s">
         <v>5</v>
@@ -6768,27 +6771,27 @@
     </row>
     <row r="312" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I312" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J312" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K312" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L312" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I313" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J313" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K313" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L313" t="s">
         <v>5</v>
@@ -6796,13 +6799,13 @@
     </row>
     <row r="314" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I314" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J314" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K314" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L314" t="s">
         <v>6</v>
@@ -6810,27 +6813,27 @@
     </row>
     <row r="315" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I315" t="s">
+        <v>389</v>
+      </c>
+      <c r="J315" t="s">
         <v>388</v>
       </c>
-      <c r="J315" t="s">
-        <v>387</v>
-      </c>
       <c r="K315" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L315" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I316" t="s">
+        <v>389</v>
+      </c>
+      <c r="J316" t="s">
         <v>388</v>
       </c>
-      <c r="J316" t="s">
-        <v>387</v>
-      </c>
       <c r="K316" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L316" t="s">
         <v>5</v>
@@ -6838,13 +6841,13 @@
     </row>
     <row r="317" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I317" t="s">
+        <v>389</v>
+      </c>
+      <c r="J317" t="s">
         <v>388</v>
       </c>
-      <c r="J317" t="s">
-        <v>387</v>
-      </c>
       <c r="K317" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L317" t="s">
         <v>6</v>
@@ -6852,27 +6855,27 @@
     </row>
     <row r="318" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I318" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J318" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K318" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L318" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I319" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J319" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K319" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L319" t="s">
         <v>5</v>
@@ -6880,13 +6883,13 @@
     </row>
     <row r="320" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I320" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J320" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K320" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L320" t="s">
         <v>4</v>
@@ -6894,27 +6897,27 @@
     </row>
     <row r="321" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I321" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J321" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K321" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L321" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I322" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J322" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K322" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L322" t="s">
         <v>5</v>
@@ -6922,13 +6925,13 @@
     </row>
     <row r="323" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I323" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J323" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K323" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L323" t="s">
         <v>4</v>
@@ -6936,13 +6939,13 @@
     </row>
     <row r="324" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I324" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J324" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K324" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L324" t="s">
         <v>6</v>
@@ -6950,27 +6953,27 @@
     </row>
     <row r="325" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I325" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J325" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K325" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L325" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I326" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J326" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K326" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L326" t="s">
         <v>5</v>
@@ -6978,13 +6981,13 @@
     </row>
     <row r="327" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I327" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J327" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K327" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L327" t="s">
         <v>5</v>
@@ -6992,13 +6995,13 @@
     </row>
     <row r="328" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I328" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J328" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L328" t="s">
         <v>5</v>
@@ -7006,13 +7009,13 @@
     </row>
     <row r="329" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I329" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J329" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K329" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L329" t="s">
         <v>5</v>
@@ -7020,13 +7023,13 @@
     </row>
     <row r="330" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I330" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J330" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K330" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L330" t="s">
         <v>4</v>
@@ -7034,27 +7037,27 @@
     </row>
     <row r="331" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I331" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J331" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K331" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L331" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I332" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J332" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K332" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L332" t="s">
         <v>4</v>
@@ -7062,13 +7065,13 @@
     </row>
     <row r="333" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I333" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J333" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K333" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L333" t="s">
         <v>6</v>
@@ -7076,13 +7079,13 @@
     </row>
     <row r="334" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I334" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J334" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K334" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L334" t="s">
         <v>4</v>
@@ -7090,27 +7093,27 @@
     </row>
     <row r="335" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I335" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J335" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K335" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L335" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I336" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J336" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K336" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L336" t="s">
         <v>5</v>
@@ -7118,13 +7121,13 @@
     </row>
     <row r="337" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I337" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J337" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K337" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L337" t="s">
         <v>4</v>
@@ -7132,13 +7135,13 @@
     </row>
     <row r="338" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I338" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J338" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K338" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L338" t="s">
         <v>5</v>
@@ -7146,13 +7149,13 @@
     </row>
     <row r="339" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I339" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J339" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K339" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L339" t="s">
         <v>5</v>
@@ -7160,13 +7163,13 @@
     </row>
     <row r="340" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I340" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J340" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K340" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L340" t="s">
         <v>4</v>
@@ -7174,13 +7177,13 @@
     </row>
     <row r="341" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I341" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J341" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K341" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L341" t="s">
         <v>5</v>
@@ -7188,13 +7191,13 @@
     </row>
     <row r="342" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I342" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J342" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K342" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L342" t="s">
         <v>4</v>
@@ -7202,13 +7205,13 @@
     </row>
     <row r="343" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I343" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J343" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K343" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L343" t="s">
         <v>5</v>
@@ -7216,13 +7219,13 @@
     </row>
     <row r="344" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I344" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J344" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K344" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L344" t="s">
         <v>5</v>
@@ -7230,27 +7233,27 @@
     </row>
     <row r="345" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I345" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J345" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K345" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L345" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I346" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J346" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K346" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L346" t="s">
         <v>5</v>
@@ -7258,13 +7261,13 @@
     </row>
     <row r="347" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I347" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J347" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K347" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L347" t="s">
         <v>5</v>
@@ -7272,13 +7275,13 @@
     </row>
     <row r="348" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I348" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J348" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L348" t="s">
         <v>4</v>
@@ -7286,13 +7289,13 @@
     </row>
     <row r="349" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I349" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J349" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K349" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L349" t="s">
         <v>6</v>
@@ -7300,13 +7303,13 @@
     </row>
     <row r="350" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I350" t="s">
+        <v>428</v>
+      </c>
+      <c r="J350" t="s">
         <v>427</v>
       </c>
-      <c r="J350" t="s">
-        <v>426</v>
-      </c>
       <c r="K350" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L350" t="s">
         <v>5</v>
@@ -7314,13 +7317,13 @@
     </row>
     <row r="351" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I351" t="s">
+        <v>428</v>
+      </c>
+      <c r="J351" t="s">
         <v>427</v>
       </c>
-      <c r="J351" t="s">
-        <v>426</v>
-      </c>
       <c r="K351" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L351" t="s">
         <v>4</v>
@@ -7328,13 +7331,13 @@
     </row>
     <row r="352" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I352" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J352" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K352" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L352" t="s">
         <v>4</v>
@@ -7342,13 +7345,13 @@
     </row>
     <row r="353" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I353" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J353" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L353" t="s">
         <v>5</v>
@@ -7356,13 +7359,13 @@
     </row>
     <row r="354" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I354" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J354" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K354" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L354" t="s">
         <v>4</v>
@@ -7370,27 +7373,27 @@
     </row>
     <row r="355" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I355" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J355" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K355" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L355" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I356" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J356" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K356" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L356" t="s">
         <v>5</v>
@@ -7398,13 +7401,13 @@
     </row>
     <row r="357" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I357" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J357" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K357" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L357" t="s">
         <v>6</v>
@@ -7412,27 +7415,27 @@
     </row>
     <row r="358" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I358" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J358" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K358" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L358" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I359" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J359" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K359" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L359" t="s">
         <v>5</v>
@@ -7440,13 +7443,13 @@
     </row>
     <row r="360" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I360" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J360" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K360" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L360" t="s">
         <v>4</v>
@@ -7454,13 +7457,13 @@
     </row>
     <row r="361" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I361" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J361" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K361" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L361" t="s">
         <v>6</v>
@@ -7468,27 +7471,27 @@
     </row>
     <row r="362" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I362" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J362" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K362" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L362" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I363" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J363" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K363" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L363" t="s">
         <v>5</v>
@@ -7496,13 +7499,13 @@
     </row>
     <row r="364" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I364" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J364" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K364" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L364" t="s">
         <v>4</v>
@@ -7510,13 +7513,13 @@
     </row>
     <row r="365" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I365" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J365" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K365" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L365" t="s">
         <v>6</v>
@@ -7524,27 +7527,27 @@
     </row>
     <row r="366" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I366" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J366" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K366" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L366" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I367" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J367" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K367" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L367" t="s">
         <v>5</v>
@@ -7552,13 +7555,13 @@
     </row>
     <row r="368" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I368" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J368" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K368" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L368" t="s">
         <v>4</v>
@@ -7566,13 +7569,13 @@
     </row>
     <row r="369" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I369" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J369" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K369" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L369" t="s">
         <v>6</v>
@@ -7580,27 +7583,27 @@
     </row>
     <row r="370" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I370" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J370" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K370" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L370" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I371" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J371" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K371" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L371" t="s">
         <v>5</v>
@@ -7608,13 +7611,13 @@
     </row>
     <row r="372" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I372" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J372" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K372" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L372" t="s">
         <v>4</v>
@@ -7622,13 +7625,13 @@
     </row>
     <row r="373" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I373" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J373" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K373" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L373" t="s">
         <v>4</v>
@@ -7636,13 +7639,13 @@
     </row>
     <row r="374" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I374" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J374" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K374" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L374" t="s">
         <v>4</v>
@@ -7650,27 +7653,27 @@
     </row>
     <row r="375" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I375" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J375" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K375" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L375" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I376" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J376" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K376" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L376" t="s">
         <v>5</v>
@@ -7678,13 +7681,13 @@
     </row>
     <row r="377" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I377" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J377" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K377" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L377" t="s">
         <v>4</v>
@@ -7692,27 +7695,27 @@
     </row>
     <row r="378" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I378" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J378" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K378" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L378" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I379" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J379" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K379" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L379" t="s">
         <v>5</v>
@@ -7720,13 +7723,13 @@
     </row>
     <row r="380" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I380" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J380" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K380" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L380" t="s">
         <v>4</v>
@@ -7734,13 +7737,13 @@
     </row>
     <row r="381" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I381" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J381" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K381" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L381" t="s">
         <v>5</v>
@@ -7748,27 +7751,27 @@
     </row>
     <row r="382" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I382" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J382" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K382" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L382" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I383" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J383" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K383" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L383" t="s">
         <v>5</v>
@@ -7776,13 +7779,13 @@
     </row>
     <row r="384" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I384" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J384" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K384" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L384" t="s">
         <v>4</v>
@@ -7790,13 +7793,13 @@
     </row>
     <row r="385" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I385" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J385" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K385" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L385" t="s">
         <v>5</v>
@@ -7804,27 +7807,27 @@
     </row>
     <row r="386" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I386" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J386" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K386" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L386" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I387" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J387" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K387" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L387" t="s">
         <v>5</v>
@@ -7832,13 +7835,13 @@
     </row>
     <row r="388" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I388" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J388" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K388" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L388" t="s">
         <v>4</v>
@@ -7846,13 +7849,13 @@
     </row>
     <row r="389" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I389" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J389" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K389" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L389" t="s">
         <v>6</v>
@@ -7860,13 +7863,13 @@
     </row>
     <row r="390" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I390" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J390" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K390" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L390" t="s">
         <v>4</v>
@@ -7874,13 +7877,13 @@
     </row>
     <row r="391" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I391" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J391" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K391" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L391" t="s">
         <v>4</v>
@@ -7888,13 +7891,13 @@
     </row>
     <row r="392" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I392" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J392" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K392" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L392" t="s">
         <v>4</v>
@@ -7902,13 +7905,13 @@
     </row>
     <row r="393" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I393" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J393" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K393" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L393" t="s">
         <v>4</v>
@@ -7916,27 +7919,27 @@
     </row>
     <row r="394" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I394" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J394" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K394" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L394" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I395" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J395" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K395" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L395" t="s">
         <v>5</v>
@@ -7944,13 +7947,13 @@
     </row>
     <row r="396" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I396" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J396" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K396" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L396" t="s">
         <v>4</v>
@@ -7958,13 +7961,13 @@
     </row>
     <row r="397" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I397" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J397" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K397" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L397" t="s">
         <v>5</v>
@@ -7972,27 +7975,27 @@
     </row>
     <row r="398" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I398" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J398" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K398" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L398" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I399" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J399" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K399" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L399" t="s">
         <v>5</v>
@@ -8000,13 +8003,13 @@
     </row>
     <row r="400" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I400" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J400" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K400" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L400" t="s">
         <v>4</v>
@@ -8014,13 +8017,13 @@
     </row>
     <row r="401" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I401" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J401" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K401" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L401" t="s">
         <v>6</v>
@@ -8028,13 +8031,13 @@
     </row>
     <row r="402" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I402" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J402" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K402" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L402" t="s">
         <v>5</v>
@@ -8042,13 +8045,13 @@
     </row>
     <row r="403" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I403" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J403" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K403" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L403" t="s">
         <v>5</v>
@@ -8056,13 +8059,13 @@
     </row>
     <row r="404" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I404" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J404" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L404" t="s">
         <v>4</v>
@@ -8070,13 +8073,13 @@
     </row>
     <row r="405" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I405" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J405" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K405" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L405" t="s">
         <v>4</v>
@@ -8084,27 +8087,27 @@
     </row>
     <row r="406" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I406" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J406" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K406" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L406" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I407" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J407" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K407" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L407" t="s">
         <v>5</v>
@@ -8112,13 +8115,13 @@
     </row>
     <row r="408" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I408" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J408" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K408" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L408" t="s">
         <v>4</v>
@@ -8126,13 +8129,13 @@
     </row>
     <row r="409" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I409" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J409" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K409" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L409" t="s">
         <v>4</v>
@@ -8140,13 +8143,13 @@
     </row>
     <row r="410" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I410" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J410" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K410" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L410" t="s">
         <v>5</v>
@@ -8154,13 +8157,13 @@
     </row>
     <row r="411" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I411" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J411" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K411" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L411" t="s">
         <v>4</v>
@@ -8168,27 +8171,27 @@
     </row>
     <row r="412" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I412" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J412" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K412" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L412" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I413" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J413" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K413" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L413" t="s">
         <v>4</v>
@@ -8196,27 +8199,27 @@
     </row>
     <row r="414" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I414" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J414" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K414" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L414" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I415" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J415" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K415" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L415" t="s">
         <v>5</v>
@@ -8224,13 +8227,13 @@
     </row>
     <row r="416" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I416" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J416" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K416" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L416" t="s">
         <v>5</v>
@@ -8238,13 +8241,13 @@
     </row>
     <row r="417" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I417" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J417" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K417" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L417" t="s">
         <v>5</v>
@@ -8252,13 +8255,13 @@
     </row>
     <row r="418" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I418" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J418" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K418" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L418" t="s">
         <v>4</v>
@@ -8266,27 +8269,27 @@
     </row>
     <row r="419" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I419" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J419" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K419" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L419" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I420" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J420" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K420" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L420" t="s">
         <v>4</v>
@@ -8294,13 +8297,13 @@
     </row>
     <row r="421" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I421" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J421" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K421" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L421" t="s">
         <v>6</v>
@@ -8308,13 +8311,13 @@
     </row>
     <row r="422" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I422" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J422" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K422" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L422" t="s">
         <v>4</v>
@@ -8322,13 +8325,13 @@
     </row>
     <row r="423" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I423" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J423" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K423" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L423" t="s">
         <v>5</v>
@@ -8336,13 +8339,13 @@
     </row>
     <row r="424" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I424" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J424" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K424" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L424" t="s">
         <v>5</v>
@@ -8350,13 +8353,13 @@
     </row>
     <row r="425" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I425" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J425" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K425" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L425" t="s">
         <v>4</v>
@@ -8364,13 +8367,13 @@
     </row>
     <row r="426" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I426" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J426" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K426" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L426" t="s">
         <v>5</v>
@@ -8378,13 +8381,13 @@
     </row>
     <row r="427" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I427" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J427" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K427" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L427" t="s">
         <v>5</v>
@@ -8392,41 +8395,41 @@
     </row>
     <row r="428" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I428" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J428" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K428" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L428" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="429" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I429" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J429" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K429" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L429" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I430" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J430" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K430" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L430" t="s">
         <v>5</v>
@@ -8434,13 +8437,13 @@
     </row>
     <row r="431" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I431" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J431" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K431" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L431" t="s">
         <v>4</v>
@@ -8448,13 +8451,13 @@
     </row>
     <row r="432" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I432" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J432" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K432" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L432" t="s">
         <v>6</v>
@@ -8462,41 +8465,41 @@
     </row>
     <row r="433" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I433" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J433" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K433" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L433" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I434" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J434" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K434" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L434" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I435" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J435" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K435" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L435" t="s">
         <v>5</v>
@@ -8504,13 +8507,13 @@
     </row>
     <row r="436" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I436" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J436" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K436" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L436" t="s">
         <v>4</v>
@@ -8518,13 +8521,13 @@
     </row>
     <row r="437" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I437" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J437" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K437" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L437" t="s">
         <v>5</v>
@@ -8532,13 +8535,13 @@
     </row>
     <row r="438" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I438" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J438" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K438" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L438" t="s">
         <v>4</v>
@@ -8546,13 +8549,13 @@
     </row>
     <row r="439" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I439" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J439" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K439" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L439" t="s">
         <v>4</v>
@@ -8560,13 +8563,13 @@
     </row>
     <row r="440" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I440" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J440" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K440" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L440" t="s">
         <v>6</v>
@@ -8574,13 +8577,13 @@
     </row>
     <row r="441" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I441" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J441" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K441" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L441" t="s">
         <v>5</v>
@@ -8588,27 +8591,27 @@
     </row>
     <row r="442" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I442" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J442" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K442" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L442" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I443" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J443" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K443" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L443" t="s">
         <v>5</v>
@@ -8616,13 +8619,13 @@
     </row>
     <row r="444" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I444" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J444" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K444" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L444" t="s">
         <v>4</v>
@@ -8630,13 +8633,13 @@
     </row>
     <row r="445" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I445" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J445" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K445" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L445" t="s">
         <v>6</v>
@@ -8644,27 +8647,27 @@
     </row>
     <row r="446" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I446" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J446" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K446" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L446" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I447" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J447" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K447" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L447" t="s">
         <v>5</v>
@@ -8672,13 +8675,13 @@
     </row>
     <row r="448" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I448" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J448" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K448" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L448" t="s">
         <v>4</v>
@@ -8686,27 +8689,27 @@
     </row>
     <row r="449" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I449" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J449" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K449" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L449" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I450" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J450" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K450" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L450" t="s">
         <v>5</v>
@@ -8714,27 +8717,27 @@
     </row>
     <row r="451" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I451" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J451" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K451" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L451" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I452" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J452" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K452" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L452" t="s">
         <v>5</v>
@@ -8742,13 +8745,13 @@
     </row>
     <row r="453" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I453" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J453" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K453" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L453" t="s">
         <v>4</v>
@@ -8756,13 +8759,13 @@
     </row>
     <row r="454" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I454" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J454" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K454" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L454" t="s">
         <v>5</v>
@@ -8770,27 +8773,27 @@
     </row>
     <row r="455" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I455" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J455" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K455" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L455" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I456" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J456" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K456" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L456" t="s">
         <v>4</v>
@@ -8798,27 +8801,27 @@
     </row>
     <row r="457" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I457" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J457" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K457" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L457" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I458" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J458" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K458" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L458" t="s">
         <v>5</v>
@@ -8826,13 +8829,13 @@
     </row>
     <row r="459" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I459" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J459" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K459" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L459" t="s">
         <v>4</v>
@@ -8840,27 +8843,27 @@
     </row>
     <row r="460" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I460" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J460" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K460" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L460" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I461" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J461" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K461" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L461" t="s">
         <v>5</v>
@@ -8868,13 +8871,13 @@
     </row>
     <row r="462" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I462" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J462" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K462" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L462" t="s">
         <v>4</v>
@@ -8882,27 +8885,27 @@
     </row>
     <row r="463" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I463" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J463" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K463" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L463" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I464" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J464" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K464" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L464" t="s">
         <v>5</v>
@@ -8910,13 +8913,13 @@
     </row>
     <row r="465" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I465" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J465" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K465" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L465" t="s">
         <v>4</v>
@@ -8924,27 +8927,27 @@
     </row>
     <row r="466" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I466" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J466" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K466" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L466" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I467" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J467" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K467" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L467" t="s">
         <v>5</v>
@@ -8952,13 +8955,13 @@
     </row>
     <row r="468" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I468" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J468" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K468" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L468" t="s">
         <v>4</v>
@@ -8966,27 +8969,27 @@
     </row>
     <row r="469" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I469" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J469" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K469" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L469" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I470" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J470" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K470" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L470" t="s">
         <v>6</v>
@@ -8994,13 +8997,13 @@
     </row>
     <row r="471" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I471" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J471" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K471" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L471" t="s">
         <v>5</v>
@@ -9008,27 +9011,27 @@
     </row>
     <row r="472" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I472" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J472" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K472" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L472" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I473" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J473" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K473" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L473" t="s">
         <v>5</v>
@@ -9036,13 +9039,13 @@
     </row>
     <row r="474" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I474" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J474" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K474" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L474" t="s">
         <v>4</v>
@@ -9050,13 +9053,13 @@
     </row>
     <row r="475" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I475" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J475" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K475" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L475" t="s">
         <v>6</v>
@@ -9064,27 +9067,27 @@
     </row>
     <row r="476" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I476" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J476" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K476" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L476" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I477" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J477" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K477" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L477" t="s">
         <v>5</v>
@@ -9092,13 +9095,13 @@
     </row>
     <row r="478" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I478" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J478" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K478" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L478" t="s">
         <v>4</v>
@@ -9106,13 +9109,13 @@
     </row>
     <row r="479" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I479" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J479" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K479" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L479" t="s">
         <v>6</v>
@@ -9120,27 +9123,27 @@
     </row>
     <row r="480" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I480" t="s">
+        <v>556</v>
+      </c>
+      <c r="J480" t="s">
         <v>555</v>
       </c>
-      <c r="J480" t="s">
-        <v>554</v>
-      </c>
       <c r="K480" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L480" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="481" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I481" t="s">
+        <v>556</v>
+      </c>
+      <c r="J481" t="s">
         <v>555</v>
       </c>
-      <c r="J481" t="s">
-        <v>554</v>
-      </c>
       <c r="K481" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L481" t="s">
         <v>5</v>
@@ -9148,13 +9151,13 @@
     </row>
     <row r="482" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I482" t="s">
+        <v>556</v>
+      </c>
+      <c r="J482" t="s">
         <v>555</v>
       </c>
-      <c r="J482" t="s">
-        <v>554</v>
-      </c>
       <c r="K482" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L482" t="s">
         <v>4</v>
@@ -9162,13 +9165,13 @@
     </row>
     <row r="483" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I483" t="s">
+        <v>556</v>
+      </c>
+      <c r="J483" t="s">
         <v>555</v>
       </c>
-      <c r="J483" t="s">
-        <v>554</v>
-      </c>
       <c r="K483" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L483" t="s">
         <v>6</v>
@@ -9176,27 +9179,27 @@
     </row>
     <row r="484" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I484" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J484" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K484" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L484" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I485" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J485" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K485" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L485" t="s">
         <v>5</v>
@@ -9204,13 +9207,13 @@
     </row>
     <row r="486" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I486" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J486" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K486" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L486" t="s">
         <v>4</v>
@@ -9218,27 +9221,27 @@
     </row>
     <row r="487" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I487" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J487" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K487" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L487" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I488" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J488" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K488" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L488" t="s">
         <v>5</v>
@@ -9246,13 +9249,13 @@
     </row>
     <row r="489" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I489" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J489" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K489" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L489" t="s">
         <v>4</v>
@@ -9260,13 +9263,13 @@
     </row>
     <row r="490" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I490" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J490" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K490" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L490" t="s">
         <v>6</v>
@@ -9274,13 +9277,13 @@
     </row>
     <row r="491" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I491" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J491" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K491" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L491" t="s">
         <v>7</v>
@@ -9288,13 +9291,13 @@
     </row>
     <row r="492" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I492" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J492" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K492" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L492" t="s">
         <v>7</v>
@@ -9302,27 +9305,27 @@
     </row>
     <row r="493" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I493" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J493" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K493" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L493" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I494" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J494" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K494" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L494" t="s">
         <v>4</v>
@@ -9330,13 +9333,13 @@
     </row>
     <row r="495" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I495" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J495" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K495" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L495" t="s">
         <v>5</v>
@@ -9344,13 +9347,13 @@
     </row>
     <row r="496" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I496" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J496" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K496" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L496" t="s">
         <v>6</v>
@@ -9358,13 +9361,13 @@
     </row>
     <row r="497" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I497" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J497" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K497" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L497" t="s">
         <v>7</v>
@@ -9396,51 +9399,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10049,7 +10052,7 @@
     <dataValidation type="list" showErrorMessage="1" error="Por favor ingresar un Código de Establecimiento válido" sqref="A4:A153">
       <formula1>Info!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" error="No se puede editar" sqref="B1">
+    <dataValidation type="textLength" showErrorMessage="1" error="No se puede editar" sqref="B1:B2">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Info" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Info" state="veryHidden" r:id="rId4"/>
     <sheet sheetId="2" name="Carga Masiva" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="581">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1732,6 +1732,12 @@
   </si>
   <si>
     <t>empresa dashboard ci 2</t>
+  </si>
+  <si>
+    <t>12207774-8 - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>EMPRESA ZORO CARGA MASIVA 1</t>
   </si>
   <si>
     <t>RUT</t>
@@ -1911,8 +1917,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" name="RUTsNames" displayName="RUTsNames" ref="I1:L497" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="I1:L497">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" name="RUTsNames" displayName="RUTsNames" ref="I1:L498" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="I1:L498">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2250,7 +2256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L497"/>
+  <dimension ref="A1:L498"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
@@ -9370,6 +9376,20 @@
         <v>58</v>
       </c>
       <c r="L497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I498" t="s">
+        <v>566</v>
+      </c>
+      <c r="J498" t="s">
+        <v>567</v>
+      </c>
+      <c r="K498" t="s">
+        <v>63</v>
+      </c>
+      <c r="L498" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9399,51 +9419,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10527,904 +10547,904 @@
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G10">
-      <formula1>=IF(OR(B10="", A10=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B10,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B10)))</formula1>
+      <formula1>=IF(OR(B10="", A10=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B10,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B10)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G100">
-      <formula1>=IF(OR(B100="", A100=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B100,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B100)))</formula1>
+      <formula1>=IF(OR(B100="", A100=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B100,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B100)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G101">
-      <formula1>=IF(OR(B101="", A101=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B101,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B101)))</formula1>
+      <formula1>=IF(OR(B101="", A101=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B101,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B101)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G102">
-      <formula1>=IF(OR(B102="", A102=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B102,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B102)))</formula1>
+      <formula1>=IF(OR(B102="", A102=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B102,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B102)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G103">
-      <formula1>=IF(OR(B103="", A103=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B103,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B103)))</formula1>
+      <formula1>=IF(OR(B103="", A103=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B103,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B103)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G104">
-      <formula1>=IF(OR(B104="", A104=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B104,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B104)))</formula1>
+      <formula1>=IF(OR(B104="", A104=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B104,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B104)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G105">
-      <formula1>=IF(OR(B105="", A105=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B105,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B105)))</formula1>
+      <formula1>=IF(OR(B105="", A105=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B105,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B105)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G106">
-      <formula1>=IF(OR(B106="", A106=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B106,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B106)))</formula1>
+      <formula1>=IF(OR(B106="", A106=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B106,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B106)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G107">
-      <formula1>=IF(OR(B107="", A107=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B107,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B107)))</formula1>
+      <formula1>=IF(OR(B107="", A107=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B107,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B107)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G108">
-      <formula1>=IF(OR(B108="", A108=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B108,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B108)))</formula1>
+      <formula1>=IF(OR(B108="", A108=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B108,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B108)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G109">
-      <formula1>=IF(OR(B109="", A109=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B109,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B109)))</formula1>
+      <formula1>=IF(OR(B109="", A109=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B109,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B109)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G11">
-      <formula1>=IF(OR(B11="", A11=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B11,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B11)))</formula1>
+      <formula1>=IF(OR(B11="", A11=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B11,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B11)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G110">
-      <formula1>=IF(OR(B110="", A110=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B110,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B110)))</formula1>
+      <formula1>=IF(OR(B110="", A110=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B110,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B110)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G111">
-      <formula1>=IF(OR(B111="", A111=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B111,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B111)))</formula1>
+      <formula1>=IF(OR(B111="", A111=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B111,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B111)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G112">
-      <formula1>=IF(OR(B112="", A112=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B112,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B112)))</formula1>
+      <formula1>=IF(OR(B112="", A112=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B112,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B112)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G113">
-      <formula1>=IF(OR(B113="", A113=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B113,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B113)))</formula1>
+      <formula1>=IF(OR(B113="", A113=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B113,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B113)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G114">
-      <formula1>=IF(OR(B114="", A114=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B114,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B114)))</formula1>
+      <formula1>=IF(OR(B114="", A114=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B114,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B114)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G115">
-      <formula1>=IF(OR(B115="", A115=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B115,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B115)))</formula1>
+      <formula1>=IF(OR(B115="", A115=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B115,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B115)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G116">
-      <formula1>=IF(OR(B116="", A116=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B116,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B116)))</formula1>
+      <formula1>=IF(OR(B116="", A116=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B116,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B116)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G117">
-      <formula1>=IF(OR(B117="", A117=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B117,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B117)))</formula1>
+      <formula1>=IF(OR(B117="", A117=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B117,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B117)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G118">
-      <formula1>=IF(OR(B118="", A118=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B118,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B118)))</formula1>
+      <formula1>=IF(OR(B118="", A118=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B118,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B118)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G119">
-      <formula1>=IF(OR(B119="", A119=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B119,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B119)))</formula1>
+      <formula1>=IF(OR(B119="", A119=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B119,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B119)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G12">
-      <formula1>=IF(OR(B12="", A12=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B12,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B12)))</formula1>
+      <formula1>=IF(OR(B12="", A12=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B12,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B12)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G120">
-      <formula1>=IF(OR(B120="", A120=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B120,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B120)))</formula1>
+      <formula1>=IF(OR(B120="", A120=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B120,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B120)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G121">
-      <formula1>=IF(OR(B121="", A121=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B121,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B121)))</formula1>
+      <formula1>=IF(OR(B121="", A121=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B121,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B121)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G122">
-      <formula1>=IF(OR(B122="", A122=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B122,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B122)))</formula1>
+      <formula1>=IF(OR(B122="", A122=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B122,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B122)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G123">
-      <formula1>=IF(OR(B123="", A123=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B123,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B123)))</formula1>
+      <formula1>=IF(OR(B123="", A123=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B123,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B123)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G124">
-      <formula1>=IF(OR(B124="", A124=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B124,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B124)))</formula1>
+      <formula1>=IF(OR(B124="", A124=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B124,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B124)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G125">
-      <formula1>=IF(OR(B125="", A125=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B125,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B125)))</formula1>
+      <formula1>=IF(OR(B125="", A125=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B125,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B125)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G126">
-      <formula1>=IF(OR(B126="", A126=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B126,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B126)))</formula1>
+      <formula1>=IF(OR(B126="", A126=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B126,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B126)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G127">
-      <formula1>=IF(OR(B127="", A127=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B127,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B127)))</formula1>
+      <formula1>=IF(OR(B127="", A127=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B127,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B127)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G128">
-      <formula1>=IF(OR(B128="", A128=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B128,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B128)))</formula1>
+      <formula1>=IF(OR(B128="", A128=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B128,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B128)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G129">
-      <formula1>=IF(OR(B129="", A129=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B129,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B129)))</formula1>
+      <formula1>=IF(OR(B129="", A129=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B129,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B129)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G13">
-      <formula1>=IF(OR(B13="", A13=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B13,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B13)))</formula1>
+      <formula1>=IF(OR(B13="", A13=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B13,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B13)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G130">
-      <formula1>=IF(OR(B130="", A130=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B130,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B130)))</formula1>
+      <formula1>=IF(OR(B130="", A130=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B130,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B130)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G131">
-      <formula1>=IF(OR(B131="", A131=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B131,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B131)))</formula1>
+      <formula1>=IF(OR(B131="", A131=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B131,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B131)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G132">
-      <formula1>=IF(OR(B132="", A132=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B132,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B132)))</formula1>
+      <formula1>=IF(OR(B132="", A132=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B132,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B132)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G133">
-      <formula1>=IF(OR(B133="", A133=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B133,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B133)))</formula1>
+      <formula1>=IF(OR(B133="", A133=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B133,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B133)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G134">
-      <formula1>=IF(OR(B134="", A134=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B134,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B134)))</formula1>
+      <formula1>=IF(OR(B134="", A134=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B134,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B134)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G135">
-      <formula1>=IF(OR(B135="", A135=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B135,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B135)))</formula1>
+      <formula1>=IF(OR(B135="", A135=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B135,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B135)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G136">
-      <formula1>=IF(OR(B136="", A136=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B136,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B136)))</formula1>
+      <formula1>=IF(OR(B136="", A136=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B136,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B136)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G137">
-      <formula1>=IF(OR(B137="", A137=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B137,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B137)))</formula1>
+      <formula1>=IF(OR(B137="", A137=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B137,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B137)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G138">
-      <formula1>=IF(OR(B138="", A138=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B138,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B138)))</formula1>
+      <formula1>=IF(OR(B138="", A138=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B138,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B138)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G139">
-      <formula1>=IF(OR(B139="", A139=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B139,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B139)))</formula1>
+      <formula1>=IF(OR(B139="", A139=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B139,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B139)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G14">
-      <formula1>=IF(OR(B14="", A14=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B14,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B14)))</formula1>
+      <formula1>=IF(OR(B14="", A14=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B14,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B14)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G140">
-      <formula1>=IF(OR(B140="", A140=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B140,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B140)))</formula1>
+      <formula1>=IF(OR(B140="", A140=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B140,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B140)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G141">
-      <formula1>=IF(OR(B141="", A141=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B141,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B141)))</formula1>
+      <formula1>=IF(OR(B141="", A141=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B141,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B141)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G142">
-      <formula1>=IF(OR(B142="", A142=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B142,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B142)))</formula1>
+      <formula1>=IF(OR(B142="", A142=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B142,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B142)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G143">
-      <formula1>=IF(OR(B143="", A143=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B143,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B143)))</formula1>
+      <formula1>=IF(OR(B143="", A143=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B143,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B143)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G144">
-      <formula1>=IF(OR(B144="", A144=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B144,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B144)))</formula1>
+      <formula1>=IF(OR(B144="", A144=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B144,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B144)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G145">
-      <formula1>=IF(OR(B145="", A145=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B145,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B145)))</formula1>
+      <formula1>=IF(OR(B145="", A145=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B145,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B145)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G146">
-      <formula1>=IF(OR(B146="", A146=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B146,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B146)))</formula1>
+      <formula1>=IF(OR(B146="", A146=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B146,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B146)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G147">
-      <formula1>=IF(OR(B147="", A147=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B147,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B147)))</formula1>
+      <formula1>=IF(OR(B147="", A147=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B147,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B147)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G148">
-      <formula1>=IF(OR(B148="", A148=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B148,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B148)))</formula1>
+      <formula1>=IF(OR(B148="", A148=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B148,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B148)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G149">
-      <formula1>=IF(OR(B149="", A149=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B149,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B149)))</formula1>
+      <formula1>=IF(OR(B149="", A149=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B149,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B149)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G15">
-      <formula1>=IF(OR(B15="", A15=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B15,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B15)))</formula1>
+      <formula1>=IF(OR(B15="", A15=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B15,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B15)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G150">
-      <formula1>=IF(OR(B150="", A150=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B150,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B150)))</formula1>
+      <formula1>=IF(OR(B150="", A150=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B150,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B150)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G151">
-      <formula1>=IF(OR(B151="", A151=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B151,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B151)))</formula1>
+      <formula1>=IF(OR(B151="", A151=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B151,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B151)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G152">
-      <formula1>=IF(OR(B152="", A152=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B152,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B152)))</formula1>
+      <formula1>=IF(OR(B152="", A152=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B152,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B152)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G153">
-      <formula1>=IF(OR(B153="", A153=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B153,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B153)))</formula1>
+      <formula1>=IF(OR(B153="", A153=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B153,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B153)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G16">
-      <formula1>=IF(OR(B16="", A16=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B16,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B16)))</formula1>
+      <formula1>=IF(OR(B16="", A16=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B16,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B16)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G17">
-      <formula1>=IF(OR(B17="", A17=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B17,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B17)))</formula1>
+      <formula1>=IF(OR(B17="", A17=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B17,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B17)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G18">
-      <formula1>=IF(OR(B18="", A18=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B18,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B18)))</formula1>
+      <formula1>=IF(OR(B18="", A18=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B18,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B18)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G19">
-      <formula1>=IF(OR(B19="", A19=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B19,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B19)))</formula1>
+      <formula1>=IF(OR(B19="", A19=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B19,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B19)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G20">
-      <formula1>=IF(OR(B20="", A20=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B20,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B20)))</formula1>
+      <formula1>=IF(OR(B20="", A20=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B20,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B20)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G21">
-      <formula1>=IF(OR(B21="", A21=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B21,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B21)))</formula1>
+      <formula1>=IF(OR(B21="", A21=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B21,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B21)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G22">
-      <formula1>=IF(OR(B22="", A22=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B22,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B22)))</formula1>
+      <formula1>=IF(OR(B22="", A22=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B22,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B22)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G23">
-      <formula1>=IF(OR(B23="", A23=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B23,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B23)))</formula1>
+      <formula1>=IF(OR(B23="", A23=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B23,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B23)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G24">
-      <formula1>=IF(OR(B24="", A24=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B24,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B24)))</formula1>
+      <formula1>=IF(OR(B24="", A24=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B24,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B24)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G25">
-      <formula1>=IF(OR(B25="", A25=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B25,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B25)))</formula1>
+      <formula1>=IF(OR(B25="", A25=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B25,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B25)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G26">
-      <formula1>=IF(OR(B26="", A26=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B26,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B26)))</formula1>
+      <formula1>=IF(OR(B26="", A26=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B26,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B26)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G27">
-      <formula1>=IF(OR(B27="", A27=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B27,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B27)))</formula1>
+      <formula1>=IF(OR(B27="", A27=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B27,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B27)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G28">
-      <formula1>=IF(OR(B28="", A28=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B28,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B28)))</formula1>
+      <formula1>=IF(OR(B28="", A28=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B28,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B28)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G29">
-      <formula1>=IF(OR(B29="", A29=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B29,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B29)))</formula1>
+      <formula1>=IF(OR(B29="", A29=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B29,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B29)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G30">
-      <formula1>=IF(OR(B30="", A30=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B30,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B30)))</formula1>
+      <formula1>=IF(OR(B30="", A30=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B30,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B30)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G31">
-      <formula1>=IF(OR(B31="", A31=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B31,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B31)))</formula1>
+      <formula1>=IF(OR(B31="", A31=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B31,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B31)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G32">
-      <formula1>=IF(OR(B32="", A32=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B32,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B32)))</formula1>
+      <formula1>=IF(OR(B32="", A32=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B32,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B32)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G33">
-      <formula1>=IF(OR(B33="", A33=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B33,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B33)))</formula1>
+      <formula1>=IF(OR(B33="", A33=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B33,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B33)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G34">
-      <formula1>=IF(OR(B34="", A34=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B34,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B34)))</formula1>
+      <formula1>=IF(OR(B34="", A34=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B34,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B34)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G35">
-      <formula1>=IF(OR(B35="", A35=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B35,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B35)))</formula1>
+      <formula1>=IF(OR(B35="", A35=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B35,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B35)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G36">
-      <formula1>=IF(OR(B36="", A36=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B36,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B36)))</formula1>
+      <formula1>=IF(OR(B36="", A36=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B36,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B36)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G37">
-      <formula1>=IF(OR(B37="", A37=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B37,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B37)))</formula1>
+      <formula1>=IF(OR(B37="", A37=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B37,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B37)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G38">
-      <formula1>=IF(OR(B38="", A38=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B38,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B38)))</formula1>
+      <formula1>=IF(OR(B38="", A38=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B38,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B38)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G39">
-      <formula1>=IF(OR(B39="", A39=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B39,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B39)))</formula1>
+      <formula1>=IF(OR(B39="", A39=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B39,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B39)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G4">
-      <formula1>=IF(OR(B4="", A4=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B4,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B4)))</formula1>
+      <formula1>=IF(OR(B4="", A4=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B4,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B4)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G40">
-      <formula1>=IF(OR(B40="", A40=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B40,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B40)))</formula1>
+      <formula1>=IF(OR(B40="", A40=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B40,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B40)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G41">
-      <formula1>=IF(OR(B41="", A41=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B41,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B41)))</formula1>
+      <formula1>=IF(OR(B41="", A41=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B41,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B41)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G42">
-      <formula1>=IF(OR(B42="", A42=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B42,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B42)))</formula1>
+      <formula1>=IF(OR(B42="", A42=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B42,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B42)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G43">
-      <formula1>=IF(OR(B43="", A43=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B43,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B43)))</formula1>
+      <formula1>=IF(OR(B43="", A43=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B43,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B43)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G44">
-      <formula1>=IF(OR(B44="", A44=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B44,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B44)))</formula1>
+      <formula1>=IF(OR(B44="", A44=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B44,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B44)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G45">
-      <formula1>=IF(OR(B45="", A45=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B45,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B45)))</formula1>
+      <formula1>=IF(OR(B45="", A45=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B45,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B45)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G46">
-      <formula1>=IF(OR(B46="", A46=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B46,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B46)))</formula1>
+      <formula1>=IF(OR(B46="", A46=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B46,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B46)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G47">
-      <formula1>=IF(OR(B47="", A47=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B47,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B47)))</formula1>
+      <formula1>=IF(OR(B47="", A47=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B47,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B47)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G48">
-      <formula1>=IF(OR(B48="", A48=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B48,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B48)))</formula1>
+      <formula1>=IF(OR(B48="", A48=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B48,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B48)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G49">
-      <formula1>=IF(OR(B49="", A49=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B49,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B49)))</formula1>
+      <formula1>=IF(OR(B49="", A49=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B49,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B49)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G5">
-      <formula1>=IF(OR(B5="", A5=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B5,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B5)))</formula1>
+      <formula1>=IF(OR(B5="", A5=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B5,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B5)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G50">
-      <formula1>=IF(OR(B50="", A50=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B50,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B50)))</formula1>
+      <formula1>=IF(OR(B50="", A50=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B50,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B50)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G51">
-      <formula1>=IF(OR(B51="", A51=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B51,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B51)))</formula1>
+      <formula1>=IF(OR(B51="", A51=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B51,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B51)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G52">
-      <formula1>=IF(OR(B52="", A52=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B52,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B52)))</formula1>
+      <formula1>=IF(OR(B52="", A52=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B52,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B52)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G53">
-      <formula1>=IF(OR(B53="", A53=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B53,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B53)))</formula1>
+      <formula1>=IF(OR(B53="", A53=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B53,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B53)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G54">
-      <formula1>=IF(OR(B54="", A54=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B54,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B54)))</formula1>
+      <formula1>=IF(OR(B54="", A54=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B54,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B54)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G55">
-      <formula1>=IF(OR(B55="", A55=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B55,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B55)))</formula1>
+      <formula1>=IF(OR(B55="", A55=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B55,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B55)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G56">
-      <formula1>=IF(OR(B56="", A56=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B56,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B56)))</formula1>
+      <formula1>=IF(OR(B56="", A56=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B56,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B56)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G57">
-      <formula1>=IF(OR(B57="", A57=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B57,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B57)))</formula1>
+      <formula1>=IF(OR(B57="", A57=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B57,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B57)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G58">
-      <formula1>=IF(OR(B58="", A58=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B58,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B58)))</formula1>
+      <formula1>=IF(OR(B58="", A58=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B58,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B58)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G59">
-      <formula1>=IF(OR(B59="", A59=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B59,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B59)))</formula1>
+      <formula1>=IF(OR(B59="", A59=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B59,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B59)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G6">
-      <formula1>=IF(OR(B6="", A6=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B6,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B6)))</formula1>
+      <formula1>=IF(OR(B6="", A6=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B6,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B6)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G60">
-      <formula1>=IF(OR(B60="", A60=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B60,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B60)))</formula1>
+      <formula1>=IF(OR(B60="", A60=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B60,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B60)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G61">
-      <formula1>=IF(OR(B61="", A61=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B61,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B61)))</formula1>
+      <formula1>=IF(OR(B61="", A61=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B61,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B61)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G62">
-      <formula1>=IF(OR(B62="", A62=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B62,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B62)))</formula1>
+      <formula1>=IF(OR(B62="", A62=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B62,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B62)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G63">
-      <formula1>=IF(OR(B63="", A63=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B63,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B63)))</formula1>
+      <formula1>=IF(OR(B63="", A63=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B63,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B63)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G64">
-      <formula1>=IF(OR(B64="", A64=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B64,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B64)))</formula1>
+      <formula1>=IF(OR(B64="", A64=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B64,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B64)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G65">
-      <formula1>=IF(OR(B65="", A65=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B65,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B65)))</formula1>
+      <formula1>=IF(OR(B65="", A65=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B65,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B65)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G66">
-      <formula1>=IF(OR(B66="", A66=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B66,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B66)))</formula1>
+      <formula1>=IF(OR(B66="", A66=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B66,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B66)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G67">
-      <formula1>=IF(OR(B67="", A67=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B67,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B67)))</formula1>
+      <formula1>=IF(OR(B67="", A67=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B67,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B67)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G68">
-      <formula1>=IF(OR(B68="", A68=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B68,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B68)))</formula1>
+      <formula1>=IF(OR(B68="", A68=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B68,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B68)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G69">
-      <formula1>=IF(OR(B69="", A69=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B69,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B69)))</formula1>
+      <formula1>=IF(OR(B69="", A69=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B69,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B69)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G7">
-      <formula1>=IF(OR(B7="", A7=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B7,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B7)))</formula1>
+      <formula1>=IF(OR(B7="", A7=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B7,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B7)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G70">
-      <formula1>=IF(OR(B70="", A70=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B70,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B70)))</formula1>
+      <formula1>=IF(OR(B70="", A70=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B70,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B70)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G71">
-      <formula1>=IF(OR(B71="", A71=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B71,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B71)))</formula1>
+      <formula1>=IF(OR(B71="", A71=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B71,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B71)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G72">
-      <formula1>=IF(OR(B72="", A72=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B72,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B72)))</formula1>
+      <formula1>=IF(OR(B72="", A72=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B72,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B72)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G73">
-      <formula1>=IF(OR(B73="", A73=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B73,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B73)))</formula1>
+      <formula1>=IF(OR(B73="", A73=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B73,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B73)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G74">
-      <formula1>=IF(OR(B74="", A74=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B74,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B74)))</formula1>
+      <formula1>=IF(OR(B74="", A74=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B74,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B74)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G75">
-      <formula1>=IF(OR(B75="", A75=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B75,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B75)))</formula1>
+      <formula1>=IF(OR(B75="", A75=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B75,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B75)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G76">
-      <formula1>=IF(OR(B76="", A76=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B76,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B76)))</formula1>
+      <formula1>=IF(OR(B76="", A76=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B76,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B76)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G77">
-      <formula1>=IF(OR(B77="", A77=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B77,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B77)))</formula1>
+      <formula1>=IF(OR(B77="", A77=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B77,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B77)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G78">
-      <formula1>=IF(OR(B78="", A78=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B78,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B78)))</formula1>
+      <formula1>=IF(OR(B78="", A78=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B78,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B78)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G79">
-      <formula1>=IF(OR(B79="", A79=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B79,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B79)))</formula1>
+      <formula1>=IF(OR(B79="", A79=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B79,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B79)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G8">
-      <formula1>=IF(OR(B8="", A8=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B8,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B8)))</formula1>
+      <formula1>=IF(OR(B8="", A8=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B8,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B8)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G80">
-      <formula1>=IF(OR(B80="", A80=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B80,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B80)))</formula1>
+      <formula1>=IF(OR(B80="", A80=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B80,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B80)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G81">
-      <formula1>=IF(OR(B81="", A81=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B81,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B81)))</formula1>
+      <formula1>=IF(OR(B81="", A81=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B81,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B81)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G82">
-      <formula1>=IF(OR(B82="", A82=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B82,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B82)))</formula1>
+      <formula1>=IF(OR(B82="", A82=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B82,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B82)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G83">
-      <formula1>=IF(OR(B83="", A83=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B83,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B83)))</formula1>
+      <formula1>=IF(OR(B83="", A83=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B83,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B83)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G84">
-      <formula1>=IF(OR(B84="", A84=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B84,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B84)))</formula1>
+      <formula1>=IF(OR(B84="", A84=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B84,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B84)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G85">
-      <formula1>=IF(OR(B85="", A85=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B85,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B85)))</formula1>
+      <formula1>=IF(OR(B85="", A85=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B85,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B85)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G86">
-      <formula1>=IF(OR(B86="", A86=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B86,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B86)))</formula1>
+      <formula1>=IF(OR(B86="", A86=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B86,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B86)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G87">
-      <formula1>=IF(OR(B87="", A87=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B87,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B87)))</formula1>
+      <formula1>=IF(OR(B87="", A87=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B87,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B87)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G88">
-      <formula1>=IF(OR(B88="", A88=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B88,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B88)))</formula1>
+      <formula1>=IF(OR(B88="", A88=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B88,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B88)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G89">
-      <formula1>=IF(OR(B89="", A89=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B89,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B89)))</formula1>
+      <formula1>=IF(OR(B89="", A89=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B89,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B89)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G9">
-      <formula1>=IF(OR(B9="", A9=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B9,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B9)))</formula1>
+      <formula1>=IF(OR(B9="", A9=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B9,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B9)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G90">
-      <formula1>=IF(OR(B90="", A90=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B90,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B90)))</formula1>
+      <formula1>=IF(OR(B90="", A90=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B90,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B90)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G91">
-      <formula1>=IF(OR(B91="", A91=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B91,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B91)))</formula1>
+      <formula1>=IF(OR(B91="", A91=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B91,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B91)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G92">
-      <formula1>=IF(OR(B92="", A92=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B92,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B92)))</formula1>
+      <formula1>=IF(OR(B92="", A92=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B92,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B92)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G93">
-      <formula1>=IF(OR(B93="", A93=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B93,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B93)))</formula1>
+      <formula1>=IF(OR(B93="", A93=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B93,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B93)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G94">
-      <formula1>=IF(OR(B94="", A94=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B94,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B94)))</formula1>
+      <formula1>=IF(OR(B94="", A94=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B94,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B94)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G95">
-      <formula1>=IF(OR(B95="", A95=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B95,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B95)))</formula1>
+      <formula1>=IF(OR(B95="", A95=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B95,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B95)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G96">
-      <formula1>=IF(OR(B96="", A96=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B96,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B96)))</formula1>
+      <formula1>=IF(OR(B96="", A96=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B96,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B96)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G97">
-      <formula1>=IF(OR(B97="", A97=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B97,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B97)))</formula1>
+      <formula1>=IF(OR(B97="", A97=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B97,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B97)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G98">
-      <formula1>=IF(OR(B98="", A98=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B98,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B98)))</formula1>
+      <formula1>=IF(OR(B98="", A98=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B98,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B98)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G99">
-      <formula1>=IF(OR(B99="", A99=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B99,INDIRECT("Info!$L$2:$L$"&amp;497),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;497),B99)))</formula1>
+      <formula1>=IF(OR(B99="", A99=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B99,INDIRECT("Info!$L$2:$L$"&amp;498),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;498),B99)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H10">
-      <formula1>=IF(G10="", "", OFFSET(Info!$J$2,MATCH(G10,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G10)))</formula1>
+      <formula1>=IF(G10="", "", OFFSET(Info!$J$2,MATCH(G10,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G10)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H100">
-      <formula1>=IF(G100="", "", OFFSET(Info!$J$2,MATCH(G100,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G100)))</formula1>
+      <formula1>=IF(G100="", "", OFFSET(Info!$J$2,MATCH(G100,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G100)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H101">
-      <formula1>=IF(G101="", "", OFFSET(Info!$J$2,MATCH(G101,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G101)))</formula1>
+      <formula1>=IF(G101="", "", OFFSET(Info!$J$2,MATCH(G101,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G101)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H102">
-      <formula1>=IF(G102="", "", OFFSET(Info!$J$2,MATCH(G102,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G102)))</formula1>
+      <formula1>=IF(G102="", "", OFFSET(Info!$J$2,MATCH(G102,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G102)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H103">
-      <formula1>=IF(G103="", "", OFFSET(Info!$J$2,MATCH(G103,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G103)))</formula1>
+      <formula1>=IF(G103="", "", OFFSET(Info!$J$2,MATCH(G103,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G103)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H104">
-      <formula1>=IF(G104="", "", OFFSET(Info!$J$2,MATCH(G104,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G104)))</formula1>
+      <formula1>=IF(G104="", "", OFFSET(Info!$J$2,MATCH(G104,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G104)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H105">
-      <formula1>=IF(G105="", "", OFFSET(Info!$J$2,MATCH(G105,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G105)))</formula1>
+      <formula1>=IF(G105="", "", OFFSET(Info!$J$2,MATCH(G105,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G105)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H106">
-      <formula1>=IF(G106="", "", OFFSET(Info!$J$2,MATCH(G106,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G106)))</formula1>
+      <formula1>=IF(G106="", "", OFFSET(Info!$J$2,MATCH(G106,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G106)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H107">
-      <formula1>=IF(G107="", "", OFFSET(Info!$J$2,MATCH(G107,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G107)))</formula1>
+      <formula1>=IF(G107="", "", OFFSET(Info!$J$2,MATCH(G107,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G107)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H108">
-      <formula1>=IF(G108="", "", OFFSET(Info!$J$2,MATCH(G108,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G108)))</formula1>
+      <formula1>=IF(G108="", "", OFFSET(Info!$J$2,MATCH(G108,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G108)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H109">
-      <formula1>=IF(G109="", "", OFFSET(Info!$J$2,MATCH(G109,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G109)))</formula1>
+      <formula1>=IF(G109="", "", OFFSET(Info!$J$2,MATCH(G109,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G109)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H11">
-      <formula1>=IF(G11="", "", OFFSET(Info!$J$2,MATCH(G11,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G11)))</formula1>
+      <formula1>=IF(G11="", "", OFFSET(Info!$J$2,MATCH(G11,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G11)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H110">
-      <formula1>=IF(G110="", "", OFFSET(Info!$J$2,MATCH(G110,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G110)))</formula1>
+      <formula1>=IF(G110="", "", OFFSET(Info!$J$2,MATCH(G110,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G110)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H111">
-      <formula1>=IF(G111="", "", OFFSET(Info!$J$2,MATCH(G111,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G111)))</formula1>
+      <formula1>=IF(G111="", "", OFFSET(Info!$J$2,MATCH(G111,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G111)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H112">
-      <formula1>=IF(G112="", "", OFFSET(Info!$J$2,MATCH(G112,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G112)))</formula1>
+      <formula1>=IF(G112="", "", OFFSET(Info!$J$2,MATCH(G112,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G112)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H113">
-      <formula1>=IF(G113="", "", OFFSET(Info!$J$2,MATCH(G113,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G113)))</formula1>
+      <formula1>=IF(G113="", "", OFFSET(Info!$J$2,MATCH(G113,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G113)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H114">
-      <formula1>=IF(G114="", "", OFFSET(Info!$J$2,MATCH(G114,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G114)))</formula1>
+      <formula1>=IF(G114="", "", OFFSET(Info!$J$2,MATCH(G114,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G114)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H115">
-      <formula1>=IF(G115="", "", OFFSET(Info!$J$2,MATCH(G115,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G115)))</formula1>
+      <formula1>=IF(G115="", "", OFFSET(Info!$J$2,MATCH(G115,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G115)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H116">
-      <formula1>=IF(G116="", "", OFFSET(Info!$J$2,MATCH(G116,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G116)))</formula1>
+      <formula1>=IF(G116="", "", OFFSET(Info!$J$2,MATCH(G116,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G116)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H117">
-      <formula1>=IF(G117="", "", OFFSET(Info!$J$2,MATCH(G117,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G117)))</formula1>
+      <formula1>=IF(G117="", "", OFFSET(Info!$J$2,MATCH(G117,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G117)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H118">
-      <formula1>=IF(G118="", "", OFFSET(Info!$J$2,MATCH(G118,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G118)))</formula1>
+      <formula1>=IF(G118="", "", OFFSET(Info!$J$2,MATCH(G118,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G118)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H119">
-      <formula1>=IF(G119="", "", OFFSET(Info!$J$2,MATCH(G119,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G119)))</formula1>
+      <formula1>=IF(G119="", "", OFFSET(Info!$J$2,MATCH(G119,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G119)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H12">
-      <formula1>=IF(G12="", "", OFFSET(Info!$J$2,MATCH(G12,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G12)))</formula1>
+      <formula1>=IF(G12="", "", OFFSET(Info!$J$2,MATCH(G12,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G12)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H120">
-      <formula1>=IF(G120="", "", OFFSET(Info!$J$2,MATCH(G120,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G120)))</formula1>
+      <formula1>=IF(G120="", "", OFFSET(Info!$J$2,MATCH(G120,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G120)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H121">
-      <formula1>=IF(G121="", "", OFFSET(Info!$J$2,MATCH(G121,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G121)))</formula1>
+      <formula1>=IF(G121="", "", OFFSET(Info!$J$2,MATCH(G121,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G121)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H122">
-      <formula1>=IF(G122="", "", OFFSET(Info!$J$2,MATCH(G122,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G122)))</formula1>
+      <formula1>=IF(G122="", "", OFFSET(Info!$J$2,MATCH(G122,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G122)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H123">
-      <formula1>=IF(G123="", "", OFFSET(Info!$J$2,MATCH(G123,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G123)))</formula1>
+      <formula1>=IF(G123="", "", OFFSET(Info!$J$2,MATCH(G123,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G123)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H124">
-      <formula1>=IF(G124="", "", OFFSET(Info!$J$2,MATCH(G124,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G124)))</formula1>
+      <formula1>=IF(G124="", "", OFFSET(Info!$J$2,MATCH(G124,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G124)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H125">
-      <formula1>=IF(G125="", "", OFFSET(Info!$J$2,MATCH(G125,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G125)))</formula1>
+      <formula1>=IF(G125="", "", OFFSET(Info!$J$2,MATCH(G125,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G125)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H126">
-      <formula1>=IF(G126="", "", OFFSET(Info!$J$2,MATCH(G126,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G126)))</formula1>
+      <formula1>=IF(G126="", "", OFFSET(Info!$J$2,MATCH(G126,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G126)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H127">
-      <formula1>=IF(G127="", "", OFFSET(Info!$J$2,MATCH(G127,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G127)))</formula1>
+      <formula1>=IF(G127="", "", OFFSET(Info!$J$2,MATCH(G127,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G127)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H128">
-      <formula1>=IF(G128="", "", OFFSET(Info!$J$2,MATCH(G128,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G128)))</formula1>
+      <formula1>=IF(G128="", "", OFFSET(Info!$J$2,MATCH(G128,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G128)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H129">
-      <formula1>=IF(G129="", "", OFFSET(Info!$J$2,MATCH(G129,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G129)))</formula1>
+      <formula1>=IF(G129="", "", OFFSET(Info!$J$2,MATCH(G129,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G129)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H13">
-      <formula1>=IF(G13="", "", OFFSET(Info!$J$2,MATCH(G13,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G13)))</formula1>
+      <formula1>=IF(G13="", "", OFFSET(Info!$J$2,MATCH(G13,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G13)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H130">
-      <formula1>=IF(G130="", "", OFFSET(Info!$J$2,MATCH(G130,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G130)))</formula1>
+      <formula1>=IF(G130="", "", OFFSET(Info!$J$2,MATCH(G130,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G130)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H131">
-      <formula1>=IF(G131="", "", OFFSET(Info!$J$2,MATCH(G131,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G131)))</formula1>
+      <formula1>=IF(G131="", "", OFFSET(Info!$J$2,MATCH(G131,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G131)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H132">
-      <formula1>=IF(G132="", "", OFFSET(Info!$J$2,MATCH(G132,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G132)))</formula1>
+      <formula1>=IF(G132="", "", OFFSET(Info!$J$2,MATCH(G132,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G132)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H133">
-      <formula1>=IF(G133="", "", OFFSET(Info!$J$2,MATCH(G133,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G133)))</formula1>
+      <formula1>=IF(G133="", "", OFFSET(Info!$J$2,MATCH(G133,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G133)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H134">
-      <formula1>=IF(G134="", "", OFFSET(Info!$J$2,MATCH(G134,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G134)))</formula1>
+      <formula1>=IF(G134="", "", OFFSET(Info!$J$2,MATCH(G134,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G134)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H135">
-      <formula1>=IF(G135="", "", OFFSET(Info!$J$2,MATCH(G135,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G135)))</formula1>
+      <formula1>=IF(G135="", "", OFFSET(Info!$J$2,MATCH(G135,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G135)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H136">
-      <formula1>=IF(G136="", "", OFFSET(Info!$J$2,MATCH(G136,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G136)))</formula1>
+      <formula1>=IF(G136="", "", OFFSET(Info!$J$2,MATCH(G136,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G136)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H137">
-      <formula1>=IF(G137="", "", OFFSET(Info!$J$2,MATCH(G137,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G137)))</formula1>
+      <formula1>=IF(G137="", "", OFFSET(Info!$J$2,MATCH(G137,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G137)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H138">
-      <formula1>=IF(G138="", "", OFFSET(Info!$J$2,MATCH(G138,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G138)))</formula1>
+      <formula1>=IF(G138="", "", OFFSET(Info!$J$2,MATCH(G138,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G138)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H139">
-      <formula1>=IF(G139="", "", OFFSET(Info!$J$2,MATCH(G139,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G139)))</formula1>
+      <formula1>=IF(G139="", "", OFFSET(Info!$J$2,MATCH(G139,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G139)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H14">
-      <formula1>=IF(G14="", "", OFFSET(Info!$J$2,MATCH(G14,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G14)))</formula1>
+      <formula1>=IF(G14="", "", OFFSET(Info!$J$2,MATCH(G14,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G14)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H140">
-      <formula1>=IF(G140="", "", OFFSET(Info!$J$2,MATCH(G140,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G140)))</formula1>
+      <formula1>=IF(G140="", "", OFFSET(Info!$J$2,MATCH(G140,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G140)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H141">
-      <formula1>=IF(G141="", "", OFFSET(Info!$J$2,MATCH(G141,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G141)))</formula1>
+      <formula1>=IF(G141="", "", OFFSET(Info!$J$2,MATCH(G141,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G141)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H142">
-      <formula1>=IF(G142="", "", OFFSET(Info!$J$2,MATCH(G142,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G142)))</formula1>
+      <formula1>=IF(G142="", "", OFFSET(Info!$J$2,MATCH(G142,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G142)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H143">
-      <formula1>=IF(G143="", "", OFFSET(Info!$J$2,MATCH(G143,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G143)))</formula1>
+      <formula1>=IF(G143="", "", OFFSET(Info!$J$2,MATCH(G143,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G143)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H144">
-      <formula1>=IF(G144="", "", OFFSET(Info!$J$2,MATCH(G144,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G144)))</formula1>
+      <formula1>=IF(G144="", "", OFFSET(Info!$J$2,MATCH(G144,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G144)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H145">
-      <formula1>=IF(G145="", "", OFFSET(Info!$J$2,MATCH(G145,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G145)))</formula1>
+      <formula1>=IF(G145="", "", OFFSET(Info!$J$2,MATCH(G145,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G145)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H146">
-      <formula1>=IF(G146="", "", OFFSET(Info!$J$2,MATCH(G146,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G146)))</formula1>
+      <formula1>=IF(G146="", "", OFFSET(Info!$J$2,MATCH(G146,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G146)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H147">
-      <formula1>=IF(G147="", "", OFFSET(Info!$J$2,MATCH(G147,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G147)))</formula1>
+      <formula1>=IF(G147="", "", OFFSET(Info!$J$2,MATCH(G147,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G147)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H148">
-      <formula1>=IF(G148="", "", OFFSET(Info!$J$2,MATCH(G148,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G148)))</formula1>
+      <formula1>=IF(G148="", "", OFFSET(Info!$J$2,MATCH(G148,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G148)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H149">
-      <formula1>=IF(G149="", "", OFFSET(Info!$J$2,MATCH(G149,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G149)))</formula1>
+      <formula1>=IF(G149="", "", OFFSET(Info!$J$2,MATCH(G149,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G149)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H15">
-      <formula1>=IF(G15="", "", OFFSET(Info!$J$2,MATCH(G15,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G15)))</formula1>
+      <formula1>=IF(G15="", "", OFFSET(Info!$J$2,MATCH(G15,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G15)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H150">
-      <formula1>=IF(G150="", "", OFFSET(Info!$J$2,MATCH(G150,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G150)))</formula1>
+      <formula1>=IF(G150="", "", OFFSET(Info!$J$2,MATCH(G150,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G150)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H151">
-      <formula1>=IF(G151="", "", OFFSET(Info!$J$2,MATCH(G151,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G151)))</formula1>
+      <formula1>=IF(G151="", "", OFFSET(Info!$J$2,MATCH(G151,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G151)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H152">
-      <formula1>=IF(G152="", "", OFFSET(Info!$J$2,MATCH(G152,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G152)))</formula1>
+      <formula1>=IF(G152="", "", OFFSET(Info!$J$2,MATCH(G152,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G152)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H153">
-      <formula1>=IF(G153="", "", OFFSET(Info!$J$2,MATCH(G153,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G153)))</formula1>
+      <formula1>=IF(G153="", "", OFFSET(Info!$J$2,MATCH(G153,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G153)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H16">
-      <formula1>=IF(G16="", "", OFFSET(Info!$J$2,MATCH(G16,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G16)))</formula1>
+      <formula1>=IF(G16="", "", OFFSET(Info!$J$2,MATCH(G16,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G16)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H17">
-      <formula1>=IF(G17="", "", OFFSET(Info!$J$2,MATCH(G17,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G17)))</formula1>
+      <formula1>=IF(G17="", "", OFFSET(Info!$J$2,MATCH(G17,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G17)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H18">
-      <formula1>=IF(G18="", "", OFFSET(Info!$J$2,MATCH(G18,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G18)))</formula1>
+      <formula1>=IF(G18="", "", OFFSET(Info!$J$2,MATCH(G18,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G18)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H19">
-      <formula1>=IF(G19="", "", OFFSET(Info!$J$2,MATCH(G19,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G19)))</formula1>
+      <formula1>=IF(G19="", "", OFFSET(Info!$J$2,MATCH(G19,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G19)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H20">
-      <formula1>=IF(G20="", "", OFFSET(Info!$J$2,MATCH(G20,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G20)))</formula1>
+      <formula1>=IF(G20="", "", OFFSET(Info!$J$2,MATCH(G20,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G20)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H21">
-      <formula1>=IF(G21="", "", OFFSET(Info!$J$2,MATCH(G21,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G21)))</formula1>
+      <formula1>=IF(G21="", "", OFFSET(Info!$J$2,MATCH(G21,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G21)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H22">
-      <formula1>=IF(G22="", "", OFFSET(Info!$J$2,MATCH(G22,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G22)))</formula1>
+      <formula1>=IF(G22="", "", OFFSET(Info!$J$2,MATCH(G22,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G22)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H23">
-      <formula1>=IF(G23="", "", OFFSET(Info!$J$2,MATCH(G23,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G23)))</formula1>
+      <formula1>=IF(G23="", "", OFFSET(Info!$J$2,MATCH(G23,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G23)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H24">
-      <formula1>=IF(G24="", "", OFFSET(Info!$J$2,MATCH(G24,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G24)))</formula1>
+      <formula1>=IF(G24="", "", OFFSET(Info!$J$2,MATCH(G24,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G24)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H25">
-      <formula1>=IF(G25="", "", OFFSET(Info!$J$2,MATCH(G25,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G25)))</formula1>
+      <formula1>=IF(G25="", "", OFFSET(Info!$J$2,MATCH(G25,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G25)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H26">
-      <formula1>=IF(G26="", "", OFFSET(Info!$J$2,MATCH(G26,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G26)))</formula1>
+      <formula1>=IF(G26="", "", OFFSET(Info!$J$2,MATCH(G26,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G26)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H27">
-      <formula1>=IF(G27="", "", OFFSET(Info!$J$2,MATCH(G27,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G27)))</formula1>
+      <formula1>=IF(G27="", "", OFFSET(Info!$J$2,MATCH(G27,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G27)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H28">
-      <formula1>=IF(G28="", "", OFFSET(Info!$J$2,MATCH(G28,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G28)))</formula1>
+      <formula1>=IF(G28="", "", OFFSET(Info!$J$2,MATCH(G28,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G28)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H29">
-      <formula1>=IF(G29="", "", OFFSET(Info!$J$2,MATCH(G29,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G29)))</formula1>
+      <formula1>=IF(G29="", "", OFFSET(Info!$J$2,MATCH(G29,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G29)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H30">
-      <formula1>=IF(G30="", "", OFFSET(Info!$J$2,MATCH(G30,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G30)))</formula1>
+      <formula1>=IF(G30="", "", OFFSET(Info!$J$2,MATCH(G30,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G30)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H31">
-      <formula1>=IF(G31="", "", OFFSET(Info!$J$2,MATCH(G31,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G31)))</formula1>
+      <formula1>=IF(G31="", "", OFFSET(Info!$J$2,MATCH(G31,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G31)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H32">
-      <formula1>=IF(G32="", "", OFFSET(Info!$J$2,MATCH(G32,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G32)))</formula1>
+      <formula1>=IF(G32="", "", OFFSET(Info!$J$2,MATCH(G32,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G32)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H33">
-      <formula1>=IF(G33="", "", OFFSET(Info!$J$2,MATCH(G33,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G33)))</formula1>
+      <formula1>=IF(G33="", "", OFFSET(Info!$J$2,MATCH(G33,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G33)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H34">
-      <formula1>=IF(G34="", "", OFFSET(Info!$J$2,MATCH(G34,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G34)))</formula1>
+      <formula1>=IF(G34="", "", OFFSET(Info!$J$2,MATCH(G34,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G34)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H35">
-      <formula1>=IF(G35="", "", OFFSET(Info!$J$2,MATCH(G35,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G35)))</formula1>
+      <formula1>=IF(G35="", "", OFFSET(Info!$J$2,MATCH(G35,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G35)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H36">
-      <formula1>=IF(G36="", "", OFFSET(Info!$J$2,MATCH(G36,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G36)))</formula1>
+      <formula1>=IF(G36="", "", OFFSET(Info!$J$2,MATCH(G36,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G36)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H37">
-      <formula1>=IF(G37="", "", OFFSET(Info!$J$2,MATCH(G37,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G37)))</formula1>
+      <formula1>=IF(G37="", "", OFFSET(Info!$J$2,MATCH(G37,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G37)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H38">
-      <formula1>=IF(G38="", "", OFFSET(Info!$J$2,MATCH(G38,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G38)))</formula1>
+      <formula1>=IF(G38="", "", OFFSET(Info!$J$2,MATCH(G38,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G38)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H39">
-      <formula1>=IF(G39="", "", OFFSET(Info!$J$2,MATCH(G39,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G39)))</formula1>
+      <formula1>=IF(G39="", "", OFFSET(Info!$J$2,MATCH(G39,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G39)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H4">
-      <formula1>=IF(G4="", "", OFFSET(Info!$J$2,MATCH(G4,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G4)))</formula1>
+      <formula1>=IF(G4="", "", OFFSET(Info!$J$2,MATCH(G4,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G4)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H40">
-      <formula1>=IF(G40="", "", OFFSET(Info!$J$2,MATCH(G40,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G40)))</formula1>
+      <formula1>=IF(G40="", "", OFFSET(Info!$J$2,MATCH(G40,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G40)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H41">
-      <formula1>=IF(G41="", "", OFFSET(Info!$J$2,MATCH(G41,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G41)))</formula1>
+      <formula1>=IF(G41="", "", OFFSET(Info!$J$2,MATCH(G41,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G41)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H42">
-      <formula1>=IF(G42="", "", OFFSET(Info!$J$2,MATCH(G42,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G42)))</formula1>
+      <formula1>=IF(G42="", "", OFFSET(Info!$J$2,MATCH(G42,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G42)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H43">
-      <formula1>=IF(G43="", "", OFFSET(Info!$J$2,MATCH(G43,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G43)))</formula1>
+      <formula1>=IF(G43="", "", OFFSET(Info!$J$2,MATCH(G43,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G43)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H44">
-      <formula1>=IF(G44="", "", OFFSET(Info!$J$2,MATCH(G44,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G44)))</formula1>
+      <formula1>=IF(G44="", "", OFFSET(Info!$J$2,MATCH(G44,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G44)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H45">
-      <formula1>=IF(G45="", "", OFFSET(Info!$J$2,MATCH(G45,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G45)))</formula1>
+      <formula1>=IF(G45="", "", OFFSET(Info!$J$2,MATCH(G45,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G45)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H46">
-      <formula1>=IF(G46="", "", OFFSET(Info!$J$2,MATCH(G46,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G46)))</formula1>
+      <formula1>=IF(G46="", "", OFFSET(Info!$J$2,MATCH(G46,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G46)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H47">
-      <formula1>=IF(G47="", "", OFFSET(Info!$J$2,MATCH(G47,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G47)))</formula1>
+      <formula1>=IF(G47="", "", OFFSET(Info!$J$2,MATCH(G47,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G47)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H48">
-      <formula1>=IF(G48="", "", OFFSET(Info!$J$2,MATCH(G48,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G48)))</formula1>
+      <formula1>=IF(G48="", "", OFFSET(Info!$J$2,MATCH(G48,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G48)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H49">
-      <formula1>=IF(G49="", "", OFFSET(Info!$J$2,MATCH(G49,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G49)))</formula1>
+      <formula1>=IF(G49="", "", OFFSET(Info!$J$2,MATCH(G49,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G49)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H5">
-      <formula1>=IF(G5="", "", OFFSET(Info!$J$2,MATCH(G5,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G5)))</formula1>
+      <formula1>=IF(G5="", "", OFFSET(Info!$J$2,MATCH(G5,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G5)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H50">
-      <formula1>=IF(G50="", "", OFFSET(Info!$J$2,MATCH(G50,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G50)))</formula1>
+      <formula1>=IF(G50="", "", OFFSET(Info!$J$2,MATCH(G50,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G50)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H51">
-      <formula1>=IF(G51="", "", OFFSET(Info!$J$2,MATCH(G51,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G51)))</formula1>
+      <formula1>=IF(G51="", "", OFFSET(Info!$J$2,MATCH(G51,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G51)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H52">
-      <formula1>=IF(G52="", "", OFFSET(Info!$J$2,MATCH(G52,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G52)))</formula1>
+      <formula1>=IF(G52="", "", OFFSET(Info!$J$2,MATCH(G52,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G52)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H53">
-      <formula1>=IF(G53="", "", OFFSET(Info!$J$2,MATCH(G53,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G53)))</formula1>
+      <formula1>=IF(G53="", "", OFFSET(Info!$J$2,MATCH(G53,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G53)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H54">
-      <formula1>=IF(G54="", "", OFFSET(Info!$J$2,MATCH(G54,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G54)))</formula1>
+      <formula1>=IF(G54="", "", OFFSET(Info!$J$2,MATCH(G54,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G54)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H55">
-      <formula1>=IF(G55="", "", OFFSET(Info!$J$2,MATCH(G55,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G55)))</formula1>
+      <formula1>=IF(G55="", "", OFFSET(Info!$J$2,MATCH(G55,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G55)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H56">
-      <formula1>=IF(G56="", "", OFFSET(Info!$J$2,MATCH(G56,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G56)))</formula1>
+      <formula1>=IF(G56="", "", OFFSET(Info!$J$2,MATCH(G56,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G56)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H57">
-      <formula1>=IF(G57="", "", OFFSET(Info!$J$2,MATCH(G57,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G57)))</formula1>
+      <formula1>=IF(G57="", "", OFFSET(Info!$J$2,MATCH(G57,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G57)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H58">
-      <formula1>=IF(G58="", "", OFFSET(Info!$J$2,MATCH(G58,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G58)))</formula1>
+      <formula1>=IF(G58="", "", OFFSET(Info!$J$2,MATCH(G58,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G58)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H59">
-      <formula1>=IF(G59="", "", OFFSET(Info!$J$2,MATCH(G59,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G59)))</formula1>
+      <formula1>=IF(G59="", "", OFFSET(Info!$J$2,MATCH(G59,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G59)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H6">
-      <formula1>=IF(G6="", "", OFFSET(Info!$J$2,MATCH(G6,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G6)))</formula1>
+      <formula1>=IF(G6="", "", OFFSET(Info!$J$2,MATCH(G6,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G6)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H60">
-      <formula1>=IF(G60="", "", OFFSET(Info!$J$2,MATCH(G60,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G60)))</formula1>
+      <formula1>=IF(G60="", "", OFFSET(Info!$J$2,MATCH(G60,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G60)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H61">
-      <formula1>=IF(G61="", "", OFFSET(Info!$J$2,MATCH(G61,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G61)))</formula1>
+      <formula1>=IF(G61="", "", OFFSET(Info!$J$2,MATCH(G61,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G61)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H62">
-      <formula1>=IF(G62="", "", OFFSET(Info!$J$2,MATCH(G62,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G62)))</formula1>
+      <formula1>=IF(G62="", "", OFFSET(Info!$J$2,MATCH(G62,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G62)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H63">
-      <formula1>=IF(G63="", "", OFFSET(Info!$J$2,MATCH(G63,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G63)))</formula1>
+      <formula1>=IF(G63="", "", OFFSET(Info!$J$2,MATCH(G63,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G63)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H64">
-      <formula1>=IF(G64="", "", OFFSET(Info!$J$2,MATCH(G64,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G64)))</formula1>
+      <formula1>=IF(G64="", "", OFFSET(Info!$J$2,MATCH(G64,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G64)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H65">
-      <formula1>=IF(G65="", "", OFFSET(Info!$J$2,MATCH(G65,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G65)))</formula1>
+      <formula1>=IF(G65="", "", OFFSET(Info!$J$2,MATCH(G65,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G65)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H66">
-      <formula1>=IF(G66="", "", OFFSET(Info!$J$2,MATCH(G66,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G66)))</formula1>
+      <formula1>=IF(G66="", "", OFFSET(Info!$J$2,MATCH(G66,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G66)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H67">
-      <formula1>=IF(G67="", "", OFFSET(Info!$J$2,MATCH(G67,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G67)))</formula1>
+      <formula1>=IF(G67="", "", OFFSET(Info!$J$2,MATCH(G67,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G67)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H68">
-      <formula1>=IF(G68="", "", OFFSET(Info!$J$2,MATCH(G68,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G68)))</formula1>
+      <formula1>=IF(G68="", "", OFFSET(Info!$J$2,MATCH(G68,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G68)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H69">
-      <formula1>=IF(G69="", "", OFFSET(Info!$J$2,MATCH(G69,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G69)))</formula1>
+      <formula1>=IF(G69="", "", OFFSET(Info!$J$2,MATCH(G69,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G69)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H7">
-      <formula1>=IF(G7="", "", OFFSET(Info!$J$2,MATCH(G7,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G7)))</formula1>
+      <formula1>=IF(G7="", "", OFFSET(Info!$J$2,MATCH(G7,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G7)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H70">
-      <formula1>=IF(G70="", "", OFFSET(Info!$J$2,MATCH(G70,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G70)))</formula1>
+      <formula1>=IF(G70="", "", OFFSET(Info!$J$2,MATCH(G70,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G70)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H71">
-      <formula1>=IF(G71="", "", OFFSET(Info!$J$2,MATCH(G71,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G71)))</formula1>
+      <formula1>=IF(G71="", "", OFFSET(Info!$J$2,MATCH(G71,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G71)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H72">
-      <formula1>=IF(G72="", "", OFFSET(Info!$J$2,MATCH(G72,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G72)))</formula1>
+      <formula1>=IF(G72="", "", OFFSET(Info!$J$2,MATCH(G72,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G72)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H73">
-      <formula1>=IF(G73="", "", OFFSET(Info!$J$2,MATCH(G73,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G73)))</formula1>
+      <formula1>=IF(G73="", "", OFFSET(Info!$J$2,MATCH(G73,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G73)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H74">
-      <formula1>=IF(G74="", "", OFFSET(Info!$J$2,MATCH(G74,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G74)))</formula1>
+      <formula1>=IF(G74="", "", OFFSET(Info!$J$2,MATCH(G74,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G74)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H75">
-      <formula1>=IF(G75="", "", OFFSET(Info!$J$2,MATCH(G75,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G75)))</formula1>
+      <formula1>=IF(G75="", "", OFFSET(Info!$J$2,MATCH(G75,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G75)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H76">
-      <formula1>=IF(G76="", "", OFFSET(Info!$J$2,MATCH(G76,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G76)))</formula1>
+      <formula1>=IF(G76="", "", OFFSET(Info!$J$2,MATCH(G76,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G76)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H77">
-      <formula1>=IF(G77="", "", OFFSET(Info!$J$2,MATCH(G77,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G77)))</formula1>
+      <formula1>=IF(G77="", "", OFFSET(Info!$J$2,MATCH(G77,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G77)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H78">
-      <formula1>=IF(G78="", "", OFFSET(Info!$J$2,MATCH(G78,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G78)))</formula1>
+      <formula1>=IF(G78="", "", OFFSET(Info!$J$2,MATCH(G78,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G78)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H79">
-      <formula1>=IF(G79="", "", OFFSET(Info!$J$2,MATCH(G79,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G79)))</formula1>
+      <formula1>=IF(G79="", "", OFFSET(Info!$J$2,MATCH(G79,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G79)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H8">
-      <formula1>=IF(G8="", "", OFFSET(Info!$J$2,MATCH(G8,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G8)))</formula1>
+      <formula1>=IF(G8="", "", OFFSET(Info!$J$2,MATCH(G8,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G8)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H80">
-      <formula1>=IF(G80="", "", OFFSET(Info!$J$2,MATCH(G80,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G80)))</formula1>
+      <formula1>=IF(G80="", "", OFFSET(Info!$J$2,MATCH(G80,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G80)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H81">
-      <formula1>=IF(G81="", "", OFFSET(Info!$J$2,MATCH(G81,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G81)))</formula1>
+      <formula1>=IF(G81="", "", OFFSET(Info!$J$2,MATCH(G81,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G81)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H82">
-      <formula1>=IF(G82="", "", OFFSET(Info!$J$2,MATCH(G82,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G82)))</formula1>
+      <formula1>=IF(G82="", "", OFFSET(Info!$J$2,MATCH(G82,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G82)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H83">
-      <formula1>=IF(G83="", "", OFFSET(Info!$J$2,MATCH(G83,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G83)))</formula1>
+      <formula1>=IF(G83="", "", OFFSET(Info!$J$2,MATCH(G83,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G83)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H84">
-      <formula1>=IF(G84="", "", OFFSET(Info!$J$2,MATCH(G84,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G84)))</formula1>
+      <formula1>=IF(G84="", "", OFFSET(Info!$J$2,MATCH(G84,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G84)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H85">
-      <formula1>=IF(G85="", "", OFFSET(Info!$J$2,MATCH(G85,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G85)))</formula1>
+      <formula1>=IF(G85="", "", OFFSET(Info!$J$2,MATCH(G85,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G85)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H86">
-      <formula1>=IF(G86="", "", OFFSET(Info!$J$2,MATCH(G86,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G86)))</formula1>
+      <formula1>=IF(G86="", "", OFFSET(Info!$J$2,MATCH(G86,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G86)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H87">
-      <formula1>=IF(G87="", "", OFFSET(Info!$J$2,MATCH(G87,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G87)))</formula1>
+      <formula1>=IF(G87="", "", OFFSET(Info!$J$2,MATCH(G87,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G87)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H88">
-      <formula1>=IF(G88="", "", OFFSET(Info!$J$2,MATCH(G88,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G88)))</formula1>
+      <formula1>=IF(G88="", "", OFFSET(Info!$J$2,MATCH(G88,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G88)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H89">
-      <formula1>=IF(G89="", "", OFFSET(Info!$J$2,MATCH(G89,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G89)))</formula1>
+      <formula1>=IF(G89="", "", OFFSET(Info!$J$2,MATCH(G89,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G89)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H9">
-      <formula1>=IF(G9="", "", OFFSET(Info!$J$2,MATCH(G9,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G9)))</formula1>
+      <formula1>=IF(G9="", "", OFFSET(Info!$J$2,MATCH(G9,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G9)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H90">
-      <formula1>=IF(G90="", "", OFFSET(Info!$J$2,MATCH(G90,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G90)))</formula1>
+      <formula1>=IF(G90="", "", OFFSET(Info!$J$2,MATCH(G90,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G90)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H91">
-      <formula1>=IF(G91="", "", OFFSET(Info!$J$2,MATCH(G91,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G91)))</formula1>
+      <formula1>=IF(G91="", "", OFFSET(Info!$J$2,MATCH(G91,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G91)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H92">
-      <formula1>=IF(G92="", "", OFFSET(Info!$J$2,MATCH(G92,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G92)))</formula1>
+      <formula1>=IF(G92="", "", OFFSET(Info!$J$2,MATCH(G92,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G92)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H93">
-      <formula1>=IF(G93="", "", OFFSET(Info!$J$2,MATCH(G93,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G93)))</formula1>
+      <formula1>=IF(G93="", "", OFFSET(Info!$J$2,MATCH(G93,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G93)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H94">
-      <formula1>=IF(G94="", "", OFFSET(Info!$J$2,MATCH(G94,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G94)))</formula1>
+      <formula1>=IF(G94="", "", OFFSET(Info!$J$2,MATCH(G94,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G94)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H95">
-      <formula1>=IF(G95="", "", OFFSET(Info!$J$2,MATCH(G95,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G95)))</formula1>
+      <formula1>=IF(G95="", "", OFFSET(Info!$J$2,MATCH(G95,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G95)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H96">
-      <formula1>=IF(G96="", "", OFFSET(Info!$J$2,MATCH(G96,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G96)))</formula1>
+      <formula1>=IF(G96="", "", OFFSET(Info!$J$2,MATCH(G96,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G96)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H97">
-      <formula1>=IF(G97="", "", OFFSET(Info!$J$2,MATCH(G97,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G97)))</formula1>
+      <formula1>=IF(G97="", "", OFFSET(Info!$J$2,MATCH(G97,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G97)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H98">
-      <formula1>=IF(G98="", "", OFFSET(Info!$J$2,MATCH(G98,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G98)))</formula1>
+      <formula1>=IF(G98="", "", OFFSET(Info!$J$2,MATCH(G98,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G98)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un nombre válido." sqref="H99">
-      <formula1>=IF(G99="", "", OFFSET(Info!$J$2,MATCH(G99,Info!$I$2:$I$497,0)-1,0,COUNTIF(Info!$I$2:$I$497,G99)))</formula1>
+      <formula1>=IF(G99="", "", OFFSET(Info!$J$2,MATCH(G99,Info!$I$2:$I$498,0)-1,0,COUNTIF(Info!$I$2:$I$498,G99)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -188,7 +188,7 @@
     <t>id_test - Región de Atacama - Alto del Carmen - Juan</t>
   </si>
   <si>
-    <t>DF en Relleno Sanitario</t>
+    <t>DF en Relleno Seguridad</t>
   </si>
   <si>
     <t>Papel Otros</t>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="626">
   <si>
     <t>CODIGO</t>
   </si>
@@ -644,22 +644,34 @@
     <t>Comercial Bendito Residuo SPA</t>
   </si>
   <si>
+    <t>16114742-7 - Región de Aysén - CM-TEST - carga masiva test</t>
+  </si>
+  <si>
+    <t>carga masiva test</t>
+  </si>
+  <si>
+    <t>77084498-3 - Región de Los Lagos - 5482083 - Triciclo Sur Ingeniería e innovación Spa</t>
+  </si>
+  <si>
+    <t>Triciclo Sur Ingeniería e innovación Spa</t>
+  </si>
+  <si>
     <t>16114742-7 - Región de Coquimbo - ZOR-GESTOR - EMPRESA ZOR GESTORES</t>
   </si>
   <si>
-    <t>77084498-3 - Región de Los Lagos - 5482083 - Triciclo Sur Ingeniería e innovación Spa</t>
-  </si>
-  <si>
-    <t>Triciclo Sur Ingeniería e innovación Spa</t>
+    <t>77179750-4 - Región Metropolitana - 5452050 - Sociedad Comercial Degraf Ltda.</t>
+  </si>
+  <si>
+    <t>Sociedad Comercial Degraf Ltda.</t>
   </si>
   <si>
     <t>16114742-7 - Región de O’Higgins - ZOR-GESTOR - EMPRESA ZOR GESTORES</t>
   </si>
   <si>
-    <t>77179750-4 - Región Metropolitana - 5452050 - Sociedad Comercial Degraf Ltda.</t>
-  </si>
-  <si>
-    <t>Sociedad Comercial Degraf Ltda.</t>
+    <t>77268155-0 - Región de Los Lagos - G036 - Paz Recycling</t>
+  </si>
+  <si>
+    <t>Paz Recycling</t>
   </si>
   <si>
     <t>16114742-7 - Región de Valparaíso - EDCI2 - empresa dashboard ci 2</t>
@@ -668,10 +680,10 @@
     <t>empresa dashboard ci 2</t>
   </si>
   <si>
-    <t>77268155-0 - Región de Los Lagos - G036 - Paz Recycling</t>
-  </si>
-  <si>
-    <t>Paz Recycling</t>
+    <t>77320250-8 - Región Metropolitana - 5475229 - Sociedad Comercializadora Importadora Y Exportadora De Excedentes Industriales Poliplas Ltda.</t>
+  </si>
+  <si>
+    <t>Sociedad Comercializadora Importadora Y Exportadora De Excedentes Industriales Poliplas Ltda.</t>
   </si>
   <si>
     <t>16114742-7 - Región de Valparaíso - NT1 - EMPRESA NESKO TEST 1</t>
@@ -680,10 +692,10 @@
     <t>EMPRESA NESKO TEST 1</t>
   </si>
   <si>
-    <t>77320250-8 - Región Metropolitana - 5475229 - Sociedad Comercializadora Importadora Y Exportadora De Excedentes Industriales Poliplas Ltda.</t>
-  </si>
-  <si>
-    <t>Sociedad Comercializadora Importadora Y Exportadora De Excedentes Industriales Poliplas Ltda.</t>
+    <t>77429370-1 - Región de O’Higgins - 5452173 - Agroorgánicos Mostazal Limitada</t>
+  </si>
+  <si>
+    <t>Agroorgánicos Mostazal Limitada</t>
   </si>
   <si>
     <t>16114742-7 - Región de Valparaíso - NT2 - EMPRESA NESKO TEST 2</t>
@@ -692,22 +704,16 @@
     <t>EMPRESA NESKO TEST 2</t>
   </si>
   <si>
-    <t>77429370-1 - Región de O’Higgins - 5452173 - Agroorgánicos Mostazal Limitada</t>
-  </si>
-  <si>
-    <t>Agroorgánicos Mostazal Limitada</t>
+    <t>77462400-7 - Región Metropolitana - 5472107 - Servicios Tecnicos Urbanos Ltda.</t>
+  </si>
+  <si>
+    <t>Servicios Tecnicos Urbanos Ltda.</t>
   </si>
   <si>
     <t>16114742-7 - Región de Valparaíso - ZOR-21 - EMPRESA ZOR-21</t>
   </si>
   <si>
     <t>EMPRESA ZOR-21</t>
-  </si>
-  <si>
-    <t>77462400-7 - Región Metropolitana - 5472107 - Servicios Tecnicos Urbanos Ltda.</t>
-  </si>
-  <si>
-    <t>Servicios Tecnicos Urbanos Ltda.</t>
   </si>
   <si>
     <t xml:space="preserve">77583350-5 - Región Metropolitana - 5466184 - Recicamp - PAPELES Y CARTONES CONSTANZA LTDA
@@ -718,13 +724,19 @@
 </t>
   </si>
   <si>
+    <t>77934420-7 - Región Metropolitana - 5466658 - Sociedad Recuperadora de Papeles y Cartones Manuel Medina E Hijo Ltda.</t>
+  </si>
+  <si>
+    <t>Sociedad Recuperadora de Papeles y Cartones Manuel Medina E Hijo Ltda.</t>
+  </si>
+  <si>
     <t>16114742-7 - Región Metropolitana - EDCI2 - empresa dashboard ci 2</t>
   </si>
   <si>
-    <t>77934420-7 - Región Metropolitana - 5466658 - Sociedad Recuperadora de Papeles y Cartones Manuel Medina E Hijo Ltda.</t>
-  </si>
-  <si>
-    <t>Sociedad Recuperadora de Papeles y Cartones Manuel Medina E Hijo Ltda.</t>
+    <t>78591180-6 - Región de Valparaíso - 5460838 - Servicios Gea Ltda</t>
+  </si>
+  <si>
+    <t>Servicios Gea Ltda</t>
   </si>
   <si>
     <t>16114742-7 - Región Metropolitana - EDCI3 - EMPRESA DASHBOARD CI3</t>
@@ -733,19 +745,19 @@
     <t>EMPRESA DASHBOARD CI3</t>
   </si>
   <si>
-    <t>78591180-6 - Región de Valparaíso - 5460838 - Servicios Gea Ltda</t>
-  </si>
-  <si>
-    <t>Servicios Gea Ltda</t>
+    <t>78773970-9 - Región de Los Lagos - 59355 - REXIN SPA</t>
+  </si>
+  <si>
+    <t>REXIN SPA</t>
   </si>
   <si>
     <t>16114742-7 - Región Metropolitana - NT2 - EMPRESA NESKO TEST 2</t>
   </si>
   <si>
-    <t>78773970-9 - Región de Los Lagos - 59355 - REXIN SPA</t>
-  </si>
-  <si>
-    <t>REXIN SPA</t>
+    <t>78959680-8 - Región Metropolitana - G043 - Reciclaje Ecotrans Ltda.</t>
+  </si>
+  <si>
+    <t>Reciclaje Ecotrans Ltda.</t>
   </si>
   <si>
     <t>16114742-7 - Región Metropolitana - ZOR-GES - EMPRESA ZOR-GES</t>
@@ -754,28 +766,28 @@
     <t>EMPRESA ZOR-GES</t>
   </si>
   <si>
-    <t>78959680-8 - Región Metropolitana - G043 - Reciclaje Ecotrans Ltda.</t>
-  </si>
-  <si>
-    <t>Reciclaje Ecotrans Ltda.</t>
-  </si>
-  <si>
     <t>79985050-8 - Región Metropolitana - G067 - Vicmar SA</t>
   </si>
   <si>
     <t>Vicmar SA</t>
   </si>
   <si>
+    <t>85051600-6 - Región Metropolitana - 5476883 - Comercial Hual</t>
+  </si>
+  <si>
+    <t>Comercial Hual</t>
+  </si>
+  <si>
     <t>19283992-0 - Región de Antofagasta - PR-13 - Telefonica</t>
   </si>
   <si>
     <t>Telefonica</t>
   </si>
   <si>
-    <t>85051600-6 - Región Metropolitana - 5476883 - Comercial Hual</t>
-  </si>
-  <si>
-    <t>Comercial Hual</t>
+    <t>86359300-K - Región Metropolitana - G058 - Sorepa S.A.</t>
+  </si>
+  <si>
+    <t>Sorepa S.A.</t>
   </si>
   <si>
     <t>19283992-0 - Región de Atacama - JA-1 - Juan1</t>
@@ -784,37 +796,37 @@
     <t>Juan1</t>
   </si>
   <si>
-    <t>86359300-K - Región Metropolitana - G058 - Sorepa S.A.</t>
-  </si>
-  <si>
-    <t>Sorepa S.A.</t>
+    <t>86359300-K - Región de Antofagasta - 5462303 - Sorepa Antofagasta</t>
+  </si>
+  <si>
+    <t>Sorepa Antofagasta</t>
   </si>
   <si>
     <t>19283992-0 - Región de Atacama - PR-13 - Telefonica</t>
   </si>
   <si>
-    <t>86359300-K - Región de Antofagasta - 5462303 - Sorepa Antofagasta</t>
-  </si>
-  <si>
-    <t>Sorepa Antofagasta</t>
+    <t>87803800-2 - Región Metropolitana - 78709 - Veolia SU Chile SA</t>
+  </si>
+  <si>
+    <t>Veolia SU Chile SA</t>
   </si>
   <si>
     <t>19283992-0 - Región de O’Higgins - JA-1 - Juan1</t>
   </si>
   <si>
-    <t>87803800-2 - Región Metropolitana - 78709 - Veolia SU Chile SA</t>
-  </si>
-  <si>
-    <t>Veolia SU Chile SA</t>
+    <t>88842000-2 - Región Metropolitana - 9562 - Veolia SI Chile SA</t>
+  </si>
+  <si>
+    <t>Veolia SI Chile SA</t>
   </si>
   <si>
     <t>19283992-0 - Región de Valparaíso - PR-13 - Telefonica</t>
   </si>
   <si>
-    <t>88842000-2 - Región Metropolitana - 9562 - Veolia SI Chile SA</t>
-  </si>
-  <si>
-    <t>Veolia SI Chile SA</t>
+    <t>92264000-9 - Región Metropolitana - 1903 - Dynal Industrial S A</t>
+  </si>
+  <si>
+    <t>Dynal Industrial S A</t>
   </si>
   <si>
     <t>44444446-0 - Región de Aysén - CV-1 - QueTeImporta Importaciones S.A</t>
@@ -823,19 +835,19 @@
     <t>QueTeImporta Importaciones S.A</t>
   </si>
   <si>
-    <t>92264000-9 - Región Metropolitana - 1903 - Dynal Industrial S A</t>
-  </si>
-  <si>
-    <t>Dynal Industrial S A</t>
+    <t>93658000-9 - Región Metropolitana - 4341711 - Chilena de Moldeados S.A.</t>
+  </si>
+  <si>
+    <t>Chilena de Moldeados S.A.</t>
   </si>
   <si>
     <t>44444446-0 - Región Metropolitana - CV-1 - QueTeImporta Importaciones S.A</t>
   </si>
   <si>
-    <t>93658000-9 - Región Metropolitana - 4341711 - Chilena de Moldeados S.A.</t>
-  </si>
-  <si>
-    <t>Chilena de Moldeados S.A.</t>
+    <t>94282000-3 - Región Metropolitana - 11498 - ESSITY CHILE SA</t>
+  </si>
+  <si>
+    <t>ESSITY CHILE SA</t>
   </si>
   <si>
     <t xml:space="preserve">52000616-8 - Región Metropolitana - 5467545 - Comercial Praxedes del Rosario Pizarro Landero Spa -
@@ -846,10 +858,10 @@
 DIFEZA</t>
   </si>
   <si>
-    <t>94282000-3 - Región Metropolitana - 11498 - ESSITY CHILE SA</t>
-  </si>
-  <si>
-    <t>ESSITY CHILE SA</t>
+    <t>96529310-8 - Región Metropolitana - 2974 - CMPC TISSUE Puente Alto</t>
+  </si>
+  <si>
+    <t>CMPC TISSUE Puente Alto</t>
   </si>
   <si>
     <t>76002742-1 - Región Metropolitana - G012 - Comercializadora de Metales Oxxo</t>
@@ -858,28 +870,28 @@
     <t>Comercializadora de Metales Oxxo</t>
   </si>
   <si>
-    <t>96529310-8 - Región Metropolitana - 2974 - CMPC TISSUE Puente Alto</t>
-  </si>
-  <si>
-    <t>CMPC TISSUE Puente Alto</t>
-  </si>
-  <si>
     <t>96529310-8 - Región Metropolitana - 9898 - CMPC TISSUE Talagante</t>
   </si>
   <si>
     <t>CMPC TISSUE Talagante</t>
   </si>
   <si>
+    <t>96554890-4 - Región de O’Higgins - 322 - Compañia Papelera del Pacifico S A</t>
+  </si>
+  <si>
+    <t>Compañia Papelera del Pacifico S A</t>
+  </si>
+  <si>
     <t>76005972-2 - Región Metropolitana - G051 - Sociedad Comercial Chile Metales Ltda.</t>
   </si>
   <si>
     <t>Sociedad Comercial Chile Metales Ltda.</t>
   </si>
   <si>
-    <t>96554890-4 - Región de O’Higgins - 322 - Compañia Papelera del Pacifico S A</t>
-  </si>
-  <si>
-    <t>Compañia Papelera del Pacifico S A</t>
+    <t>96588400-9 - Región Metropolitana - 5461522 - Recupac S.A.</t>
+  </si>
+  <si>
+    <t>Recupac S.A.</t>
   </si>
   <si>
     <t>76009053-0 - Región Metropolitana - G031 - Madeco Mills S. A.</t>
@@ -888,28 +900,16 @@
     <t>Madeco Mills S. A.</t>
   </si>
   <si>
-    <t>96588400-9 - Región Metropolitana - 5461522 - Recupac S.A.</t>
-  </si>
-  <si>
-    <t>Recupac S.A.</t>
+    <t>96722440-6 - Región Metropolitana - 5457683 - Gestión Ecológica de Residuos SA. (Gersa)</t>
+  </si>
+  <si>
+    <t>Gestión Ecológica de Residuos SA. (Gersa)</t>
   </si>
   <si>
     <t>76010722-0 - Región Metropolitana - 5469160 - Sociedad de Procesamientos Industriales Ltda</t>
   </si>
   <si>
     <t>Sociedad de Procesamientos Industriales Ltda</t>
-  </si>
-  <si>
-    <t>96722440-6 - Región Metropolitana - 5457683 - Gestión Ecológica de Residuos SA. (Gersa)</t>
-  </si>
-  <si>
-    <t>Gestión Ecológica de Residuos SA. (Gersa)</t>
-  </si>
-  <si>
-    <t>76022783-8 - Región Metropolitana - 5466679 - COMERCIALIZADORA DE FIERROS CARRASCAL SA</t>
-  </si>
-  <si>
-    <t>COMERCIALIZADORA DE FIERROS CARRASCAL SA</t>
   </si>
   <si>
     <t xml:space="preserve">96754450-7 - Región Metropolitana - 7803 - Relleno Loma Los
@@ -920,10 +920,10 @@
 Colorados (Kdm)</t>
   </si>
   <si>
-    <t>76046889-4 - Región Metropolitana - 5470077 - Martínez y Valdivieso S.A.</t>
-  </si>
-  <si>
-    <t>Martínez y Valdivieso S.A.</t>
+    <t>76022783-8 - Región Metropolitana - 5466679 - COMERCIALIZADORA DE FIERROS CARRASCAL SA</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA DE FIERROS CARRASCAL SA</t>
   </si>
   <si>
     <t xml:space="preserve">96756460-5 - Región Metropolitana - 319510 - ECOCLEAN S A
@@ -934,6 +934,18 @@
 </t>
   </si>
   <si>
+    <t>76046889-4 - Región Metropolitana - 5470077 - Martínez y Valdivieso S.A.</t>
+  </si>
+  <si>
+    <t>Martínez y Valdivieso S.A.</t>
+  </si>
+  <si>
+    <t>96827370-1 - Región de Atacama - G018 - Cosemar</t>
+  </si>
+  <si>
+    <t>Cosemar</t>
+  </si>
+  <si>
     <t xml:space="preserve">76047913-6 - Región Metropolitana - 5467254 - Metales y Aluminios S.A. -
 METALUM</t>
   </si>
@@ -942,22 +954,16 @@
 METALUM</t>
   </si>
   <si>
-    <t>96827370-1 - Región de Atacama - G018 - Cosemar</t>
-  </si>
-  <si>
-    <t>Cosemar</t>
+    <t>96828810-5 - Región Metropolitana - 97614 - Relleno Sanitario Santa Marta</t>
+  </si>
+  <si>
+    <t>Relleno Sanitario Santa Marta</t>
   </si>
   <si>
     <t>76048145-9 - Región Metropolitana - 5466504 - COMERCIALIZADORA DE ENVASES INDUSTRIALES LIMITADA</t>
   </si>
   <si>
     <t>COMERCIALIZADORA DE ENVASES INDUSTRIALES LIMITADA</t>
-  </si>
-  <si>
-    <t>96828810-5 - Región Metropolitana - 97614 - Relleno Sanitario Santa Marta</t>
-  </si>
-  <si>
-    <t>Relleno Sanitario Santa Marta</t>
   </si>
   <si>
     <t xml:space="preserve">96834290-8 - Región Metropolitana - 5453558 - Reciclajes Industriales SA
@@ -974,16 +980,22 @@
     <t>Paimasa S.A.</t>
   </si>
   <si>
+    <t>96900530-1 - Región Metropolitana - 332969 - Warehousing Valle Grande S.A.</t>
+  </si>
+  <si>
+    <t>Warehousing Valle Grande S.A.</t>
+  </si>
+  <si>
     <t>76071377-5 - Región de Los Lagos - G045 - Recimar SA</t>
   </si>
   <si>
     <t>Recimar SA</t>
   </si>
   <si>
-    <t>96900530-1 - Región Metropolitana - 332969 - Warehousing Valle Grande S.A.</t>
-  </si>
-  <si>
-    <t>Warehousing Valle Grande S.A.</t>
+    <t>96920980-2 - Región Metropolitana - 5477960 - Winpack SA</t>
+  </si>
+  <si>
+    <t>Winpack SA</t>
   </si>
   <si>
     <t>76073260-5 - Región Metropolitana - 5459831 - Industria Procesadora de Plásticos Ltda. (Inproplas)</t>
@@ -992,28 +1004,28 @@
     <t>Industria Procesadora de Plásticos Ltda. (Inproplas)</t>
   </si>
   <si>
-    <t>96920980-2 - Región Metropolitana - 5477960 - Winpack SA</t>
-  </si>
-  <si>
-    <t>Winpack SA</t>
-  </si>
-  <si>
     <t>96944470-4 - Región Metropolitana - 5461360 - Ecológica S.A.</t>
   </si>
   <si>
     <t>Ecológica S.A.</t>
   </si>
   <si>
+    <t>96956530-7 - Región de Atacama - 4507158 - Soluciones Ecologicas del Norte - SOLENOR</t>
+  </si>
+  <si>
+    <t>Soluciones Ecologicas del Norte - SOLENOR</t>
+  </si>
+  <si>
     <t>76081792-9 - Región Metropolitana - 5460605 - Comercial Industrial Recipack Ldta</t>
   </si>
   <si>
     <t>Comercial Industrial Recipack Ldta</t>
   </si>
   <si>
-    <t>96956530-7 - Región de Atacama - 4507158 - Soluciones Ecologicas del Norte - SOLENOR</t>
-  </si>
-  <si>
-    <t>Soluciones Ecologicas del Norte - SOLENOR</t>
+    <t>99536660-6 - Región Metropolitana - G034 - Mol Ambiente Sociedad Anonima</t>
+  </si>
+  <si>
+    <t>Mol Ambiente Sociedad Anonima</t>
   </si>
   <si>
     <t>76081887-9 - Región Metropolitana - G066 - Verplast Ltda.</t>
@@ -1022,10 +1034,7 @@
     <t>Verplast Ltda.</t>
   </si>
   <si>
-    <t>99536660-6 - Región Metropolitana - G034 - Mol Ambiente Sociedad Anonima</t>
-  </si>
-  <si>
-    <t>Mol Ambiente Sociedad Anonima</t>
+    <t>99536660-6 - Región de O’Higgins - G034 - Mol Ambiente Sociedad Anonima</t>
   </si>
   <si>
     <t>76081906-9 - Región del Maule - 5470462 - Recipar SA</t>
@@ -1034,7 +1043,10 @@
     <t>Recipar SA</t>
   </si>
   <si>
-    <t>99536660-6 - Región de O’Higgins - G034 - Mol Ambiente Sociedad Anonima</t>
+    <t>99537670-9 - Región del Maule - 245025 - RELLENOS SANITARIOS DEL MAULE S A</t>
+  </si>
+  <si>
+    <t>RELLENOS SANITARIOS DEL MAULE S A</t>
   </si>
   <si>
     <t>76084454-3 - Región Metropolitana - 5452898 - Comercial LML</t>
@@ -1043,10 +1055,10 @@
     <t>Comercial LML</t>
   </si>
   <si>
-    <t>99537670-9 - Región del Maule - 245025 - RELLENOS SANITARIOS DEL MAULE S A</t>
-  </si>
-  <si>
-    <t>RELLENOS SANITARIOS DEL MAULE S A</t>
+    <t>99539220-8 - Región del Maule - 4587897 - Ecomaule S A</t>
+  </si>
+  <si>
+    <t>Ecomaule S A</t>
   </si>
   <si>
     <t>76096487-5 - Región Metropolitana - 5474133 - COMERCIALIZADORA RECIPOL SA</t>
@@ -1055,22 +1067,16 @@
     <t>COMERCIALIZADORA RECIPOL SA</t>
   </si>
   <si>
-    <t>99539220-8 - Región del Maule - 4587897 - Ecomaule S A</t>
-  </si>
-  <si>
-    <t>Ecomaule S A</t>
+    <t>99545960-4 - Región Metropolitana - 5461099 - Ecofibras</t>
+  </si>
+  <si>
+    <t>Ecofibras</t>
   </si>
   <si>
     <t>76099416-2 - Región de Los Lagos - 5462309 - Procesadora de plasticos puelche S.A.</t>
   </si>
   <si>
     <t>Procesadora de plasticos puelche S.A.</t>
-  </si>
-  <si>
-    <t>99545960-4 - Región Metropolitana - 5461099 - Ecofibras</t>
-  </si>
-  <si>
-    <t>Ecofibras</t>
   </si>
   <si>
     <t>76116144-K - Región Metropolitana - 5482868 - Compañía General de Remates Spa</t>
@@ -1385,34 +1391,34 @@
     <t>Plásticos Procesa Ltda.</t>
   </si>
   <si>
+    <t>76859670-0 - Región Metropolitana - 5466118 - Sociedad Comercial Verun Ltda.</t>
+  </si>
+  <si>
+    <t>Sociedad Comercial Verun Ltda.</t>
+  </si>
+  <si>
     <t>76634139-K - Región Metropolitana - G039 - Polyrec Spa</t>
   </si>
   <si>
     <t>Polyrec Spa</t>
   </si>
   <si>
-    <t>76859670-0 - Región Metropolitana - 5466118 - Sociedad Comercial Verun Ltda.</t>
-  </si>
-  <si>
-    <t>Sociedad Comercial Verun Ltda.</t>
-  </si>
-  <si>
     <t>76872560-8 - Región Metropolitana - G007 - Cobra Chile Servicios S. A.</t>
   </si>
   <si>
     <t>Cobra Chile Servicios S. A.</t>
   </si>
   <si>
+    <t>76902190-6 - Región Metropolitana - 5442452 - Esco Elecmetal Fundición Ltda.</t>
+  </si>
+  <si>
+    <t>Esco Elecmetal Fundición Ltda.</t>
+  </si>
+  <si>
     <t>76713661-7 - Región de Los Lagos - 5474003 - Reciclaje Patricia Mansilla S. EIRL</t>
   </si>
   <si>
     <t>Reciclaje Patricia Mansilla S. EIRL</t>
-  </si>
-  <si>
-    <t>76902190-6 - Región Metropolitana - 5442452 - Esco Elecmetal Fundición Ltda.</t>
-  </si>
-  <si>
-    <t>Esco Elecmetal Fundición Ltda.</t>
   </si>
   <si>
     <t xml:space="preserve">76983212-2 - Región Metropolitana - 5479720 - COMERCIALIZADORA VACOR LIMITADA
@@ -1423,16 +1429,16 @@
 </t>
   </si>
   <si>
+    <t>77079000-K - Región Metropolitana - 505288 - Fundición y Maestranza Omamet Ltda.</t>
+  </si>
+  <si>
+    <t>Fundición y Maestranza Omamet Ltda.</t>
+  </si>
+  <si>
     <t>76833156-1 - Región de Los Lagos - 5480584 - Reciclajes Rem SPA</t>
   </si>
   <si>
     <t>Reciclajes Rem SPA</t>
-  </si>
-  <si>
-    <t>77079000-K - Región Metropolitana - 505288 - Fundición y Maestranza Omamet Ltda.</t>
-  </si>
-  <si>
-    <t>Fundición y Maestranza Omamet Ltda.</t>
   </si>
   <si>
     <t xml:space="preserve">77112684-7 - Región de O’Higgins - 5479798 - BDC SPA
@@ -1470,16 +1476,16 @@
     <t>Plásticos Filmamerica Ltda.</t>
   </si>
   <si>
+    <t>77610380-2 - Región Metropolitana - 3241710 - Construya Ltda.</t>
+  </si>
+  <si>
+    <t>Construya Ltda.</t>
+  </si>
+  <si>
     <t>77028164-4 - Región Metropolitana - 5482145 - COMERCIALIZADORA EXCEDENTES PLASTICOS F Y J  LIMITADA</t>
   </si>
   <si>
     <t>COMERCIALIZADORA EXCEDENTES PLASTICOS F Y J  LIMITADA</t>
-  </si>
-  <si>
-    <t>77610380-2 - Región Metropolitana - 3241710 - Construya Ltda.</t>
-  </si>
-  <si>
-    <t>Construya Ltda.</t>
   </si>
   <si>
     <t>77820440-1 - Región Metropolitana - 10254 - Recyplanet Spa ( Ex Comercial de la Fuente y otros)</t>
@@ -1508,16 +1514,16 @@
     <t>Fundición Jofre y Cía. Ltda.</t>
   </si>
   <si>
+    <t>78329040-5 - Región Metropolitana - 5469344 - Comercial Cammar</t>
+  </si>
+  <si>
+    <t>Comercial Cammar</t>
+  </si>
+  <si>
     <t>77099530-2 - Región Metropolitana - 5457661 - Sociedad Plásticos Técnicos Spa</t>
   </si>
   <si>
     <t>Sociedad Plásticos Técnicos Spa</t>
-  </si>
-  <si>
-    <t>78329040-5 - Región Metropolitana - 5469344 - Comercial Cammar</t>
-  </si>
-  <si>
-    <t>Comercial Cammar</t>
   </si>
   <si>
     <t xml:space="preserve">78552510-8 - Región Metropolitana - G022 - Estin S.A.
@@ -1534,18 +1540,18 @@
     <t>Comercial E Industrial Albromet Ltda.</t>
   </si>
   <si>
+    <t>78769280-K - Región Metropolitana - 5466589 - Metal López S.A.</t>
+  </si>
+  <si>
+    <t>Metal López S.A.</t>
+  </si>
+  <si>
     <t>77167876-9 - Región Metropolitana - 5480555 - RECICLADORA 2020 SPA</t>
   </si>
   <si>
     <t>RECICLADORA 2020 SPA</t>
   </si>
   <si>
-    <t>78769280-K - Región Metropolitana - 5466589 - Metal López S.A.</t>
-  </si>
-  <si>
-    <t>Metal López S.A.</t>
-  </si>
-  <si>
     <t xml:space="preserve">78803130-0 - Región Metropolitana - 3804 - Proacer (Magotteaux Andino)                                  </t>
   </si>
   <si>
@@ -1588,25 +1594,22 @@
     <t>Fundición Vulco Ltda.</t>
   </si>
   <si>
+    <t>83853800-2 - Región Metropolitana - 5466772 - Botadero Semot</t>
+  </si>
+  <si>
+    <t>Botadero Semot</t>
+  </si>
+  <si>
     <t>77651140-4 - Región Metropolitana - G061 - Tradepro Chile Spa</t>
   </si>
   <si>
     <t>Tradepro Chile Spa</t>
   </si>
   <si>
-    <t>83853800-2 - Región Metropolitana - 5466772 - Botadero Semot</t>
-  </si>
-  <si>
-    <t>Botadero Semot</t>
-  </si>
-  <si>
     <t>77653070-0 - Región de Antofagasta - G038 - Plásticos Dixie Ldta</t>
   </si>
   <si>
     <t>Plásticos Dixie Ldta</t>
-  </si>
-  <si>
-    <t>77653070-0 - Región Metropolitana - G038 - Plásticos Dixie Ldta</t>
   </si>
   <si>
     <t xml:space="preserve">85660800-K - Región de Antofagasta - 5459478 - Sociedad Comercial Alvarez y Alvarez LTDA
@@ -1617,6 +1620,9 @@
 - SOCOAL Ltda</t>
   </si>
   <si>
+    <t>77653070-0 - Región Metropolitana - G038 - Plásticos Dixie Ldta</t>
+  </si>
+  <si>
     <t>87550600-5 - Región del Maule - 386059 - Industrias Vínicas S A</t>
   </si>
   <si>
@@ -1714,6 +1720,12 @@
   </si>
   <si>
     <t>Minera Meridian Limitada</t>
+  </si>
+  <si>
+    <t>96593080-9 - Región Metropolitana - G006 - Coagro S.A.</t>
+  </si>
+  <si>
+    <t>Coagro S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">83653100-0 - Región Metropolitana - 5462161 - Comberplast - COMPAGNON BERNABE S.A.
@@ -1724,12 +1736,6 @@
 </t>
   </si>
   <si>
-    <t>96593080-9 - Región Metropolitana - G006 - Coagro S.A.</t>
-  </si>
-  <si>
-    <t>Coagro S.A.</t>
-  </si>
-  <si>
     <t>96641530-4 - Región Metropolitana - 3858 - Tecnotambores S.A.</t>
   </si>
   <si>
@@ -1780,6 +1786,12 @@
     <t>Servicios del Agro Plasticultivos Ltda.</t>
   </si>
   <si>
+    <t>96904060-3 - Región Metropolitana - 5461655 - Comercial Romerelli S.A.</t>
+  </si>
+  <si>
+    <t>Comercial Romerelli S.A.</t>
+  </si>
+  <si>
     <t xml:space="preserve">89689900-7 - Región Metropolitana - 328396 - De Vicente Plasticos S A
 </t>
   </si>
@@ -1788,12 +1800,6 @@
 </t>
   </si>
   <si>
-    <t>96904060-3 - Región Metropolitana - 5461655 - Comercial Romerelli S.A.</t>
-  </si>
-  <si>
-    <t>Comercial Romerelli S.A.</t>
-  </si>
-  <si>
     <t>96904060-3 - Región Metropolitana - 5470584 - Importadora y Exportadora Romerelli Ltda.</t>
   </si>
   <si>
@@ -1804,6 +1810,12 @@
   </si>
   <si>
     <t>Tambores TMS Ltda</t>
+  </si>
+  <si>
+    <t>96918500-8 - Región Metropolitana - 10850 - Fittings y Llaverías S. A.</t>
+  </si>
+  <si>
+    <t>Fittings y Llaverías S. A.</t>
   </si>
   <si>
     <t xml:space="preserve">91438000-6 - Región de Valparaíso - 4586046 - Cambiaso Hnos. Sac Planta Polietileno
@@ -1812,12 +1824,6 @@
   <si>
     <t xml:space="preserve">Cambiaso Hnos. Sac Planta Polietileno
 </t>
-  </si>
-  <si>
-    <t>96918500-8 - Región Metropolitana - 10850 - Fittings y Llaverías S. A.</t>
-  </si>
-  <si>
-    <t>Fittings y Llaverías S. A.</t>
   </si>
   <si>
     <t>91438000-6 - Región Metropolitana - G004 - Cambiaso Hnos. Sac</t>
@@ -2068,8 +2074,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" name="RUTsNames" displayName="RUTsNames" ref="I1:L483" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="I1:L483">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" name="RUTsNames" displayName="RUTsNames" ref="I1:L484" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="I1:L484">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2086,8 +2092,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" name="RutsSorted" displayName="RutsSorted" ref="M1:P301" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="M1:P301">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" name="RutsSorted" displayName="RutsSorted" ref="M1:P302" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="M1:P302">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2425,7 +2431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P483"/>
+  <dimension ref="A1:P484"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
@@ -3904,10 +3910,10 @@
         <v>208</v>
       </c>
       <c r="N51" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="O51" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="P51" t="s">
         <v>6</v>
@@ -3915,10 +3921,10 @@
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K52" t="s">
         <v>73</v>
@@ -3927,24 +3933,24 @@
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N52" t="s">
         <v>69</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="P52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K53" t="s">
         <v>84</v>
@@ -3953,13 +3959,13 @@
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N53" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P53" t="s">
         <v>5</v>
@@ -3988,7 +3994,7 @@
         <v>63</v>
       </c>
       <c r="P54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.25">
@@ -4057,24 +4063,24 @@
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="N57" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="O57" t="s">
         <v>63</v>
       </c>
       <c r="P57" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K58" t="s">
         <v>84</v>
@@ -4083,24 +4089,24 @@
         <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="N58" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="O58" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P58" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K59" t="s">
         <v>84</v>
@@ -4109,16 +4115,16 @@
         <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N59" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="O59" t="s">
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="9:16" x14ac:dyDescent="0.25">
@@ -4138,21 +4144,21 @@
         <v>239</v>
       </c>
       <c r="N60" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O60" t="s">
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K61" t="s">
         <v>73</v>
@@ -4161,10 +4167,10 @@
         <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N61" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="O61" t="s">
         <v>84</v>
@@ -4187,24 +4193,24 @@
         <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="N62" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="O62" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P62" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K63" t="s">
         <v>84</v>
@@ -4213,16 +4219,16 @@
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="N63" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="O63" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="P63" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="9:16" x14ac:dyDescent="0.25">
@@ -4245,7 +4251,7 @@
         <v>253</v>
       </c>
       <c r="O64" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="P64" t="s">
         <v>4</v>
@@ -4268,21 +4274,21 @@
         <v>256</v>
       </c>
       <c r="N65" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O65" t="s">
         <v>75</v>
       </c>
       <c r="P65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K66" t="s">
         <v>35</v>
@@ -4291,13 +4297,13 @@
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N66" t="s">
         <v>253</v>
       </c>
       <c r="O66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P66" t="s">
         <v>7</v>
@@ -4305,10 +4311,10 @@
     </row>
     <row r="67" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K67" t="s">
         <v>84</v>
@@ -4317,24 +4323,24 @@
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N67" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P67" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K68" t="s">
         <v>84</v>
@@ -4343,16 +4349,16 @@
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N68" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O68" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="P68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="9:16" x14ac:dyDescent="0.25">
@@ -4372,39 +4378,39 @@
         <v>269</v>
       </c>
       <c r="N69" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O69" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
+        <v>271</v>
+      </c>
+      <c r="J70" t="s">
+        <v>272</v>
+      </c>
+      <c r="K70" t="s">
+        <v>84</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" t="s">
+        <v>273</v>
+      </c>
+      <c r="N70" t="s">
         <v>270</v>
       </c>
-      <c r="J70" t="s">
-        <v>271</v>
-      </c>
-      <c r="K70" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70" t="s">
-        <v>272</v>
-      </c>
-      <c r="N70" t="s">
-        <v>273</v>
-      </c>
       <c r="O70" t="s">
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="9:16" x14ac:dyDescent="0.25">
@@ -4447,24 +4453,24 @@
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="N72" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="O72" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J73" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K73" t="s">
         <v>84</v>
@@ -4473,16 +4479,16 @@
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="N73" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="O73" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="9:16" x14ac:dyDescent="0.25">
@@ -4586,7 +4592,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="9:16" x14ac:dyDescent="0.25">
@@ -4612,7 +4618,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="9:16" x14ac:dyDescent="0.25">
@@ -4638,7 +4644,7 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="9:16" x14ac:dyDescent="0.25">
@@ -4655,24 +4661,24 @@
         <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="N80" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="O80" t="s">
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J81" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K81" t="s">
         <v>84</v>
@@ -4681,10 +4687,10 @@
         <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N81" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O81" t="s">
         <v>84</v>
@@ -4695,10 +4701,10 @@
     </row>
     <row r="82" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J82" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K82" t="s">
         <v>84</v>
@@ -4707,16 +4713,16 @@
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="N82" t="s">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="O82" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.25">
@@ -4739,7 +4745,7 @@
         <v>319</v>
       </c>
       <c r="O83" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P83" t="s">
         <v>5</v>
@@ -4759,24 +4765,24 @@
         <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="N84" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="O84" t="s">
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J85" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K85" t="s">
         <v>84</v>
@@ -4785,16 +4791,16 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="N85" t="s">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="O85" t="s">
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="9:16" x14ac:dyDescent="0.25">
@@ -4843,10 +4849,10 @@
         <v>333</v>
       </c>
       <c r="O87" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="9:16" x14ac:dyDescent="0.25">
@@ -4869,10 +4875,10 @@
         <v>336</v>
       </c>
       <c r="O88" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="9:16" x14ac:dyDescent="0.25">
@@ -4921,7 +4927,7 @@
         <v>344</v>
       </c>
       <c r="O90" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P90" t="s">
         <v>5</v>
@@ -4941,16 +4947,16 @@
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="N91" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="O91" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P91" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="9:16" x14ac:dyDescent="0.25">
@@ -4967,16 +4973,16 @@
         <v>4</v>
       </c>
       <c r="M92" t="s">
-        <v>347</v>
+        <v>95</v>
       </c>
       <c r="N92" t="s">
-        <v>348</v>
+        <v>96</v>
       </c>
       <c r="O92" t="s">
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="9:16" x14ac:dyDescent="0.25">
@@ -5002,7 +5008,7 @@
         <v>84</v>
       </c>
       <c r="P93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="9:16" x14ac:dyDescent="0.25">
@@ -5028,7 +5034,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="9:16" x14ac:dyDescent="0.25">
@@ -5080,7 +5086,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="9:16" x14ac:dyDescent="0.25">
@@ -5103,10 +5109,10 @@
         <v>358</v>
       </c>
       <c r="O97" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="9:16" x14ac:dyDescent="0.25">
@@ -5123,16 +5129,16 @@
         <v>4</v>
       </c>
       <c r="M98" t="s">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="N98" t="s">
-        <v>99</v>
+        <v>360</v>
       </c>
       <c r="O98" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P98" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="9:16" x14ac:dyDescent="0.25">
@@ -5149,16 +5155,16 @@
         <v>4</v>
       </c>
       <c r="M99" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="N99" t="s">
-        <v>360</v>
+        <v>99</v>
       </c>
       <c r="O99" t="s">
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="9:16" x14ac:dyDescent="0.25">
@@ -5181,10 +5187,10 @@
         <v>362</v>
       </c>
       <c r="O100" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="9:16" x14ac:dyDescent="0.25">
@@ -5207,7 +5213,7 @@
         <v>364</v>
       </c>
       <c r="O101" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P101" t="s">
         <v>4</v>
@@ -5236,7 +5242,7 @@
         <v>84</v>
       </c>
       <c r="P102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="9:16" x14ac:dyDescent="0.25">
@@ -5253,24 +5259,24 @@
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="N103" t="s">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="O103" t="s">
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J104" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K104" t="s">
         <v>35</v>
@@ -5279,13 +5285,13 @@
         <v>4</v>
       </c>
       <c r="M104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O104" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P104" t="s">
         <v>17</v>
@@ -5293,10 +5299,10 @@
     </row>
     <row r="105" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J105" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K105" t="s">
         <v>75</v>
@@ -5305,24 +5311,24 @@
         <v>4</v>
       </c>
       <c r="M105" t="s">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="N105" t="s">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="O105" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P105" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J106" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K106" t="s">
         <v>63</v>
@@ -5331,24 +5337,24 @@
         <v>4</v>
       </c>
       <c r="M106" t="s">
-        <v>111</v>
+        <v>369</v>
       </c>
       <c r="N106" t="s">
-        <v>109</v>
+        <v>370</v>
       </c>
       <c r="O106" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I107" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J107" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K107" t="s">
         <v>84</v>
@@ -5357,13 +5363,13 @@
         <v>4</v>
       </c>
       <c r="M107" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N107" t="s">
         <v>109</v>
       </c>
       <c r="O107" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P107" t="s">
         <v>17</v>
@@ -5371,10 +5377,10 @@
     </row>
     <row r="108" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J108" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K108" t="s">
         <v>84</v>
@@ -5383,24 +5389,24 @@
         <v>4</v>
       </c>
       <c r="M108" t="s">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="N108" t="s">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="O108" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J109" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K109" t="s">
         <v>84</v>
@@ -5415,7 +5421,7 @@
         <v>372</v>
       </c>
       <c r="O109" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P109" t="s">
         <v>5</v>
@@ -5423,10 +5429,10 @@
     </row>
     <row r="110" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J110" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K110" t="s">
         <v>84</v>
@@ -5444,15 +5450,15 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J111" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K111" t="s">
         <v>84</v>
@@ -5461,24 +5467,24 @@
         <v>4</v>
       </c>
       <c r="M111" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
       <c r="N111" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="O111" t="s">
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J112" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K112" t="s">
         <v>84</v>
@@ -5487,24 +5493,24 @@
         <v>4</v>
       </c>
       <c r="M112" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="N112" t="s">
-        <v>376</v>
+        <v>114</v>
       </c>
       <c r="O112" t="s">
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J113" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K113" t="s">
         <v>84</v>
@@ -5527,10 +5533,10 @@
     </row>
     <row r="114" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J114" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K114" t="s">
         <v>84</v>
@@ -5545,7 +5551,7 @@
         <v>380</v>
       </c>
       <c r="O114" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P114" t="s">
         <v>4</v>
@@ -5553,10 +5559,10 @@
     </row>
     <row r="115" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J115" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K115" t="s">
         <v>84</v>
@@ -5568,10 +5574,10 @@
         <v>381</v>
       </c>
       <c r="N115" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O115" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P115" t="s">
         <v>4</v>
@@ -5591,16 +5597,16 @@
         <v>4</v>
       </c>
       <c r="M116" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="N116" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="O116" t="s">
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="9:16" x14ac:dyDescent="0.25">
@@ -5617,10 +5623,10 @@
         <v>4</v>
       </c>
       <c r="M117" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N117" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O117" t="s">
         <v>84</v>
@@ -5643,10 +5649,10 @@
         <v>4</v>
       </c>
       <c r="M118" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N118" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O118" t="s">
         <v>84</v>
@@ -5657,10 +5663,10 @@
     </row>
     <row r="119" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J119" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K119" t="s">
         <v>106</v>
@@ -5669,24 +5675,24 @@
         <v>4</v>
       </c>
       <c r="M119" t="s">
-        <v>382</v>
+        <v>122</v>
       </c>
       <c r="N119" t="s">
-        <v>383</v>
+        <v>123</v>
       </c>
       <c r="O119" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J120" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K120" t="s">
         <v>84</v>
@@ -5701,10 +5707,10 @@
         <v>385</v>
       </c>
       <c r="O120" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="P120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="9:16" x14ac:dyDescent="0.25">
@@ -5721,24 +5727,24 @@
         <v>4</v>
       </c>
       <c r="M121" t="s">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="N121" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="O121" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P121" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J122" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K122" t="s">
         <v>84</v>
@@ -5747,24 +5753,24 @@
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="N122" t="s">
-        <v>387</v>
+        <v>126</v>
       </c>
       <c r="O122" t="s">
         <v>84</v>
       </c>
       <c r="P122" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J123" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K123" t="s">
         <v>84</v>
@@ -5782,15 +5788,15 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J124" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K124" t="s">
         <v>84</v>
@@ -5808,15 +5814,15 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J125" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K125" t="s">
         <v>35</v>
@@ -5834,7 +5840,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="9:16" x14ac:dyDescent="0.25">
@@ -5857,18 +5863,18 @@
         <v>395</v>
       </c>
       <c r="O126" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J127" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K127" t="s">
         <v>35</v>
@@ -5883,18 +5889,18 @@
         <v>397</v>
       </c>
       <c r="O127" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P127" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J128" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K128" t="s">
         <v>84</v>
@@ -5909,10 +5915,10 @@
         <v>399</v>
       </c>
       <c r="O128" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="9:16" x14ac:dyDescent="0.25">
@@ -5938,7 +5944,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="9:16" x14ac:dyDescent="0.25">
@@ -5955,24 +5961,24 @@
         <v>4</v>
       </c>
       <c r="M130" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="N130" t="s">
-        <v>129</v>
+        <v>403</v>
       </c>
       <c r="O130" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J131" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K131" t="s">
         <v>84</v>
@@ -5981,24 +5987,24 @@
         <v>4</v>
       </c>
       <c r="M131" t="s">
-        <v>402</v>
+        <v>128</v>
       </c>
       <c r="N131" t="s">
-        <v>403</v>
+        <v>129</v>
       </c>
       <c r="O131" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P131" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J132" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K132" t="s">
         <v>84</v>
@@ -6021,10 +6027,10 @@
     </row>
     <row r="133" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J133" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K133" t="s">
         <v>84</v>
@@ -6042,15 +6048,15 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J134" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K134" t="s">
         <v>84</v>
@@ -6073,10 +6079,10 @@
     </row>
     <row r="135" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J135" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K135" t="s">
         <v>84</v>
@@ -6085,24 +6091,24 @@
         <v>4</v>
       </c>
       <c r="M135" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="N135" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="O135" t="s">
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I136" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J136" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K136" t="s">
         <v>106</v>
@@ -6111,16 +6117,16 @@
         <v>4</v>
       </c>
       <c r="M136" t="s">
-        <v>410</v>
+        <v>130</v>
       </c>
       <c r="N136" t="s">
-        <v>411</v>
+        <v>131</v>
       </c>
       <c r="O136" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P136" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="9:16" x14ac:dyDescent="0.25">
@@ -6137,16 +6143,16 @@
         <v>4</v>
       </c>
       <c r="M137" t="s">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="N137" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="O137" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P137" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="9:16" x14ac:dyDescent="0.25">
@@ -6163,24 +6169,24 @@
         <v>4</v>
       </c>
       <c r="M138" t="s">
-        <v>412</v>
+        <v>133</v>
       </c>
       <c r="N138" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="O138" t="s">
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J139" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K139" t="s">
         <v>35</v>
@@ -6189,16 +6195,16 @@
         <v>4</v>
       </c>
       <c r="M139" t="s">
-        <v>137</v>
+        <v>414</v>
       </c>
       <c r="N139" t="s">
-        <v>138</v>
+        <v>415</v>
       </c>
       <c r="O139" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P139" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="9:16" x14ac:dyDescent="0.25">
@@ -6215,13 +6221,13 @@
         <v>4</v>
       </c>
       <c r="M140" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O140" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P140" t="s">
         <v>17</v>
@@ -6229,10 +6235,10 @@
     </row>
     <row r="141" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J141" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K141" t="s">
         <v>84</v>
@@ -6241,13 +6247,13 @@
         <v>4</v>
       </c>
       <c r="M141" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O141" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P141" t="s">
         <v>17</v>
@@ -6255,10 +6261,10 @@
     </row>
     <row r="142" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J142" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K142" t="s">
         <v>84</v>
@@ -6267,24 +6273,24 @@
         <v>4</v>
       </c>
       <c r="M142" t="s">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="N142" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="O142" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="P142" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J143" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K143" t="s">
         <v>79</v>
@@ -6299,7 +6305,7 @@
         <v>417</v>
       </c>
       <c r="O143" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P143" t="s">
         <v>5</v>
@@ -6307,10 +6313,10 @@
     </row>
     <row r="144" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J144" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K144" t="s">
         <v>84</v>
@@ -6319,24 +6325,24 @@
         <v>4</v>
       </c>
       <c r="M144" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="N144" t="s">
-        <v>148</v>
+        <v>419</v>
       </c>
       <c r="O144" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J145" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K145" t="s">
         <v>84</v>
@@ -6345,13 +6351,13 @@
         <v>4</v>
       </c>
       <c r="M145" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N145" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O145" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P145" t="s">
         <v>17</v>
@@ -6359,10 +6365,10 @@
     </row>
     <row r="146" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J146" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K146" t="s">
         <v>84</v>
@@ -6371,24 +6377,24 @@
         <v>4</v>
       </c>
       <c r="M146" t="s">
-        <v>418</v>
+        <v>150</v>
       </c>
       <c r="N146" t="s">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="O146" t="s">
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J147" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K147" t="s">
         <v>84</v>
@@ -6411,10 +6417,10 @@
     </row>
     <row r="148" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J148" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K148" t="s">
         <v>73</v>
@@ -6449,24 +6455,24 @@
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>153</v>
+        <v>424</v>
       </c>
       <c r="N149" t="s">
-        <v>154</v>
+        <v>425</v>
       </c>
       <c r="O149" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J150" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K150" t="s">
         <v>84</v>
@@ -6475,13 +6481,13 @@
         <v>4</v>
       </c>
       <c r="M150" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N150" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O150" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P150" t="s">
         <v>17</v>
@@ -6501,16 +6507,16 @@
         <v>4</v>
       </c>
       <c r="M151" t="s">
-        <v>424</v>
+        <v>156</v>
       </c>
       <c r="N151" t="s">
-        <v>425</v>
+        <v>157</v>
       </c>
       <c r="O151" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P151" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="9:16" x14ac:dyDescent="0.25">
@@ -6527,16 +6533,16 @@
         <v>4</v>
       </c>
       <c r="M152" t="s">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="N152" t="s">
-        <v>160</v>
+        <v>427</v>
       </c>
       <c r="O152" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="9:16" x14ac:dyDescent="0.25">
@@ -6553,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="M153" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N153" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O153" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P153" t="s">
         <v>17</v>
@@ -6567,10 +6573,10 @@
     </row>
     <row r="154" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I154" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J154" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K154" t="s">
         <v>35</v>
@@ -6579,24 +6585,24 @@
         <v>4</v>
       </c>
       <c r="M154" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="N154" t="s">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="O154" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J155" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K155" t="s">
         <v>84</v>
@@ -6611,10 +6617,10 @@
         <v>429</v>
       </c>
       <c r="O155" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P155" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="9:16" x14ac:dyDescent="0.25">
@@ -6631,16 +6637,16 @@
         <v>4</v>
       </c>
       <c r="M156" t="s">
-        <v>165</v>
+        <v>430</v>
       </c>
       <c r="N156" t="s">
-        <v>166</v>
+        <v>431</v>
       </c>
       <c r="O156" t="s">
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="9:16" x14ac:dyDescent="0.25">
@@ -6657,24 +6663,24 @@
         <v>4</v>
       </c>
       <c r="M157" t="s">
-        <v>430</v>
+        <v>165</v>
       </c>
       <c r="N157" t="s">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="O157" t="s">
         <v>84</v>
       </c>
       <c r="P157" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J158" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K158" t="s">
         <v>84</v>
@@ -6692,15 +6698,15 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I159" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J159" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K159" t="s">
         <v>84</v>
@@ -6709,24 +6715,24 @@
         <v>4</v>
       </c>
       <c r="M159" t="s">
-        <v>168</v>
+        <v>434</v>
       </c>
       <c r="N159" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="O159" t="s">
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J160" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K160" t="s">
         <v>84</v>
@@ -6735,16 +6741,16 @@
         <v>4</v>
       </c>
       <c r="M160" t="s">
-        <v>434</v>
+        <v>168</v>
       </c>
       <c r="N160" t="s">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="O160" t="s">
         <v>84</v>
       </c>
       <c r="P160" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="9:16" x14ac:dyDescent="0.25">
@@ -6761,24 +6767,24 @@
         <v>4</v>
       </c>
       <c r="M161" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="N161" t="s">
-        <v>173</v>
+        <v>437</v>
       </c>
       <c r="O161" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I162" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J162" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K162" t="s">
         <v>84</v>
@@ -6787,13 +6793,13 @@
         <v>4</v>
       </c>
       <c r="M162" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N162" t="s">
         <v>173</v>
       </c>
       <c r="O162" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P162" t="s">
         <v>17</v>
@@ -6813,16 +6819,16 @@
         <v>4</v>
       </c>
       <c r="M163" t="s">
-        <v>436</v>
+        <v>172</v>
       </c>
       <c r="N163" t="s">
-        <v>437</v>
+        <v>173</v>
       </c>
       <c r="O163" t="s">
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="9:16" x14ac:dyDescent="0.25">
@@ -6848,15 +6854,15 @@
         <v>84</v>
       </c>
       <c r="P164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I165" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J165" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K165" t="s">
         <v>84</v>
@@ -6879,10 +6885,10 @@
     </row>
     <row r="166" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I166" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J166" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K166" t="s">
         <v>84</v>
@@ -6897,7 +6903,7 @@
         <v>443</v>
       </c>
       <c r="O166" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P166" t="s">
         <v>5</v>
@@ -6917,16 +6923,16 @@
         <v>4</v>
       </c>
       <c r="M167" t="s">
-        <v>177</v>
+        <v>444</v>
       </c>
       <c r="N167" t="s">
-        <v>178</v>
+        <v>445</v>
       </c>
       <c r="O167" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="P167" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="9:16" x14ac:dyDescent="0.25">
@@ -6943,13 +6949,13 @@
         <v>4</v>
       </c>
       <c r="M168" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N168" t="s">
         <v>178</v>
       </c>
       <c r="O168" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P168" t="s">
         <v>17</v>
@@ -6969,13 +6975,13 @@
         <v>4</v>
       </c>
       <c r="M169" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N169" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O169" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="P169" t="s">
         <v>17</v>
@@ -6983,10 +6989,10 @@
     </row>
     <row r="170" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I170" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J170" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K170" t="s">
         <v>84</v>
@@ -6995,16 +7001,16 @@
         <v>4</v>
       </c>
       <c r="M170" t="s">
-        <v>444</v>
+        <v>182</v>
       </c>
       <c r="N170" t="s">
         <v>183</v>
       </c>
       <c r="O170" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="P170" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="9:16" x14ac:dyDescent="0.25">
@@ -7021,13 +7027,13 @@
         <v>4</v>
       </c>
       <c r="M171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N171" t="s">
-        <v>446</v>
+        <v>183</v>
       </c>
       <c r="O171" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="P171" t="s">
         <v>5</v>
@@ -7099,24 +7105,24 @@
         <v>4</v>
       </c>
       <c r="M174" t="s">
-        <v>185</v>
+        <v>453</v>
       </c>
       <c r="N174" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
       <c r="O174" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I175" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J175" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K175" t="s">
         <v>84</v>
@@ -7125,16 +7131,16 @@
         <v>4</v>
       </c>
       <c r="M175" t="s">
-        <v>455</v>
+        <v>185</v>
       </c>
       <c r="N175" t="s">
-        <v>456</v>
+        <v>186</v>
       </c>
       <c r="O175" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="P175" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="9:16" x14ac:dyDescent="0.25">
@@ -7151,24 +7157,24 @@
         <v>4</v>
       </c>
       <c r="M176" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="N176" t="s">
-        <v>189</v>
+        <v>460</v>
       </c>
       <c r="O176" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P176" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I177" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J177" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K177" t="s">
         <v>84</v>
@@ -7177,10 +7183,10 @@
         <v>4</v>
       </c>
       <c r="M177" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N177" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O177" t="s">
         <v>84</v>
@@ -7203,16 +7209,16 @@
         <v>4</v>
       </c>
       <c r="M178" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="N178" t="s">
-        <v>462</v>
+        <v>193</v>
       </c>
       <c r="O178" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P178" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="9:16" x14ac:dyDescent="0.25">
@@ -7229,24 +7235,24 @@
         <v>4</v>
       </c>
       <c r="M179" t="s">
-        <v>196</v>
+        <v>465</v>
       </c>
       <c r="N179" t="s">
-        <v>197</v>
+        <v>466</v>
       </c>
       <c r="O179" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P179" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I180" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J180" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K180" t="s">
         <v>79</v>
@@ -7255,24 +7261,24 @@
         <v>4</v>
       </c>
       <c r="M180" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
       <c r="N180" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
       <c r="O180" t="s">
         <v>84</v>
       </c>
       <c r="P180" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I181" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J181" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K181" t="s">
         <v>84</v>
@@ -7281,24 +7287,24 @@
         <v>4</v>
       </c>
       <c r="M181" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N181" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O181" t="s">
         <v>84</v>
       </c>
       <c r="P181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I182" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J182" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K182" t="s">
         <v>106</v>
@@ -7307,10 +7313,10 @@
         <v>4</v>
       </c>
       <c r="M182" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="N182" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="O182" t="s">
         <v>84</v>
@@ -7321,10 +7327,10 @@
     </row>
     <row r="183" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J183" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K183" t="s">
         <v>84</v>
@@ -7333,16 +7339,16 @@
         <v>4</v>
       </c>
       <c r="M183" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="N183" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="O183" t="s">
         <v>84</v>
       </c>
       <c r="P183" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="9:16" x14ac:dyDescent="0.25">
@@ -7359,10 +7365,10 @@
         <v>4</v>
       </c>
       <c r="M184" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N184" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O184" t="s">
         <v>84</v>
@@ -7385,24 +7391,24 @@
         <v>4</v>
       </c>
       <c r="M185" t="s">
-        <v>199</v>
+        <v>461</v>
       </c>
       <c r="N185" t="s">
-        <v>200</v>
+        <v>462</v>
       </c>
       <c r="O185" t="s">
         <v>84</v>
       </c>
       <c r="P185" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I186" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J186" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K186" t="s">
         <v>84</v>
@@ -7411,24 +7417,24 @@
         <v>4</v>
       </c>
       <c r="M186" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
       <c r="N186" t="s">
-        <v>475</v>
+        <v>200</v>
       </c>
       <c r="O186" t="s">
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I187" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J187" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K187" t="s">
         <v>84</v>
@@ -7463,24 +7469,24 @@
         <v>4</v>
       </c>
       <c r="M188" t="s">
-        <v>203</v>
+        <v>480</v>
       </c>
       <c r="N188" t="s">
-        <v>204</v>
+        <v>481</v>
       </c>
       <c r="O188" t="s">
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I189" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J189" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K189" t="s">
         <v>84</v>
@@ -7489,10 +7495,10 @@
         <v>4</v>
       </c>
       <c r="M189" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N189" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O189" t="s">
         <v>84</v>
@@ -7503,10 +7509,10 @@
     </row>
     <row r="190" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I190" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J190" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K190" t="s">
         <v>84</v>
@@ -7515,24 +7521,24 @@
         <v>4</v>
       </c>
       <c r="M190" t="s">
-        <v>463</v>
+        <v>206</v>
       </c>
       <c r="N190" t="s">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="O190" t="s">
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I191" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J191" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K191" t="s">
         <v>84</v>
@@ -7541,24 +7547,24 @@
         <v>4</v>
       </c>
       <c r="M191" t="s">
-        <v>209</v>
+        <v>463</v>
       </c>
       <c r="N191" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
       <c r="O191" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I192" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J192" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K192" t="s">
         <v>84</v>
@@ -7567,16 +7573,16 @@
         <v>4</v>
       </c>
       <c r="M192" t="s">
-        <v>488</v>
+        <v>210</v>
       </c>
       <c r="N192" t="s">
-        <v>489</v>
+        <v>211</v>
       </c>
       <c r="O192" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P192" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="9:16" x14ac:dyDescent="0.25">
@@ -7593,13 +7599,13 @@
         <v>4</v>
       </c>
       <c r="M193" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="N193" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="O193" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P193" t="s">
         <v>5</v>
@@ -7607,10 +7613,10 @@
     </row>
     <row r="194" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I194" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="J194" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K194" t="s">
         <v>84</v>
@@ -7619,13 +7625,13 @@
         <v>4</v>
       </c>
       <c r="M194" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N194" t="s">
         <v>468</v>
       </c>
       <c r="O194" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="P194" t="s">
         <v>5</v>
@@ -7645,13 +7651,13 @@
         <v>4</v>
       </c>
       <c r="M195" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="N195" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O195" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P195" t="s">
         <v>5</v>
@@ -7659,10 +7665,10 @@
     </row>
     <row r="196" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I196" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J196" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K196" t="s">
         <v>84</v>
@@ -7671,10 +7677,10 @@
         <v>4</v>
       </c>
       <c r="M196" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="N196" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="O196" t="s">
         <v>84</v>
@@ -7697,24 +7703,24 @@
         <v>4</v>
       </c>
       <c r="M197" t="s">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="N197" t="s">
-        <v>213</v>
+        <v>501</v>
       </c>
       <c r="O197" t="s">
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I198" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J198" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K198" t="s">
         <v>73</v>
@@ -7723,13 +7729,13 @@
         <v>4</v>
       </c>
       <c r="M198" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N198" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O198" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P198" t="s">
         <v>17</v>
@@ -7737,10 +7743,10 @@
     </row>
     <row r="199" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I199" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J199" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K199" t="s">
         <v>84</v>
@@ -7749,13 +7755,13 @@
         <v>4</v>
       </c>
       <c r="M199" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N199" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O199" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P199" t="s">
         <v>17</v>
@@ -7763,10 +7769,10 @@
     </row>
     <row r="200" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I200" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J200" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K200" t="s">
         <v>84</v>
@@ -7775,16 +7781,16 @@
         <v>4</v>
       </c>
       <c r="M200" t="s">
-        <v>504</v>
+        <v>220</v>
       </c>
       <c r="N200" t="s">
-        <v>505</v>
+        <v>221</v>
       </c>
       <c r="O200" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P200" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="9:16" x14ac:dyDescent="0.25">
@@ -7801,24 +7807,24 @@
         <v>4</v>
       </c>
       <c r="M201" t="s">
-        <v>224</v>
+        <v>506</v>
       </c>
       <c r="N201" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
       <c r="O201" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P201" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I202" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J202" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K202" t="s">
         <v>84</v>
@@ -7827,13 +7833,13 @@
         <v>4</v>
       </c>
       <c r="M202" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N202" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O202" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P202" t="s">
         <v>17</v>
@@ -7841,10 +7847,10 @@
     </row>
     <row r="203" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I203" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J203" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K203" t="s">
         <v>84</v>
@@ -7853,24 +7859,24 @@
         <v>4</v>
       </c>
       <c r="M203" t="s">
-        <v>472</v>
+        <v>228</v>
       </c>
       <c r="N203" t="s">
-        <v>473</v>
+        <v>229</v>
       </c>
       <c r="O203" t="s">
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I204" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J204" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K204" t="s">
         <v>84</v>
@@ -7879,24 +7885,24 @@
         <v>4</v>
       </c>
       <c r="M204" t="s">
-        <v>230</v>
+        <v>474</v>
       </c>
       <c r="N204" t="s">
-        <v>231</v>
+        <v>475</v>
       </c>
       <c r="O204" t="s">
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I205" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J205" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K205" t="s">
         <v>84</v>
@@ -7905,24 +7911,24 @@
         <v>4</v>
       </c>
       <c r="M205" t="s">
-        <v>478</v>
+        <v>232</v>
       </c>
       <c r="N205" t="s">
-        <v>479</v>
+        <v>233</v>
       </c>
       <c r="O205" t="s">
         <v>84</v>
       </c>
       <c r="P205" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I206" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J206" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K206" t="s">
         <v>84</v>
@@ -7931,10 +7937,10 @@
         <v>4</v>
       </c>
       <c r="M206" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="N206" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="O206" t="s">
         <v>84</v>
@@ -7963,7 +7969,7 @@
         <v>519</v>
       </c>
       <c r="O207" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P207" t="s">
         <v>5</v>
@@ -7986,10 +7992,10 @@
         <v>520</v>
       </c>
       <c r="N208" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O208" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P208" t="s">
         <v>5</v>
@@ -7997,10 +8003,10 @@
     </row>
     <row r="209" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I209" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J209" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K209" t="s">
         <v>35</v>
@@ -8009,10 +8015,10 @@
         <v>4</v>
       </c>
       <c r="M209" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="N209" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="O209" t="s">
         <v>84</v>
@@ -8023,10 +8029,10 @@
     </row>
     <row r="210" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I210" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J210" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K210" t="s">
         <v>106</v>
@@ -8035,24 +8041,24 @@
         <v>4</v>
       </c>
       <c r="M210" t="s">
-        <v>233</v>
+        <v>482</v>
       </c>
       <c r="N210" t="s">
-        <v>234</v>
+        <v>483</v>
       </c>
       <c r="O210" t="s">
         <v>84</v>
       </c>
       <c r="P210" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I211" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J211" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K211" t="s">
         <v>84</v>
@@ -8061,24 +8067,24 @@
         <v>4</v>
       </c>
       <c r="M211" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="N211" t="s">
-        <v>483</v>
+        <v>235</v>
       </c>
       <c r="O211" t="s">
         <v>84</v>
       </c>
       <c r="P211" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I212" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J212" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K212" t="s">
         <v>84</v>
@@ -8096,15 +8102,15 @@
         <v>84</v>
       </c>
       <c r="P212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I213" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J213" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K213" t="s">
         <v>35</v>
@@ -8122,15 +8128,15 @@
         <v>84</v>
       </c>
       <c r="P213" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I214" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J214" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K214" t="s">
         <v>84</v>
@@ -8139,10 +8145,10 @@
         <v>4</v>
       </c>
       <c r="M214" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N214" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O214" t="s">
         <v>84</v>
@@ -8153,10 +8159,10 @@
     </row>
     <row r="215" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I215" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J215" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K215" t="s">
         <v>106</v>
@@ -8165,10 +8171,10 @@
         <v>4</v>
       </c>
       <c r="M215" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N215" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O215" t="s">
         <v>84</v>
@@ -8179,10 +8185,10 @@
     </row>
     <row r="216" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I216" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J216" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K216" t="s">
         <v>84</v>
@@ -8191,24 +8197,24 @@
         <v>4</v>
       </c>
       <c r="M216" t="s">
-        <v>237</v>
+        <v>494</v>
       </c>
       <c r="N216" t="s">
-        <v>238</v>
+        <v>495</v>
       </c>
       <c r="O216" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P216" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I217" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J217" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K217" t="s">
         <v>84</v>
@@ -8217,24 +8223,24 @@
         <v>4</v>
       </c>
       <c r="M217" t="s">
-        <v>494</v>
+        <v>237</v>
       </c>
       <c r="N217" t="s">
-        <v>495</v>
+        <v>238</v>
       </c>
       <c r="O217" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P217" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I218" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J218" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K218" t="s">
         <v>84</v>
@@ -8243,10 +8249,10 @@
         <v>4</v>
       </c>
       <c r="M218" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N218" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O218" t="s">
         <v>84</v>
@@ -8257,10 +8263,10 @@
     </row>
     <row r="219" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I219" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J219" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K219" t="s">
         <v>84</v>
@@ -8269,24 +8275,24 @@
         <v>4</v>
       </c>
       <c r="M219" t="s">
-        <v>240</v>
+        <v>498</v>
       </c>
       <c r="N219" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="O219" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I220" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J220" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K220" t="s">
         <v>84</v>
@@ -8295,24 +8301,24 @@
         <v>4</v>
       </c>
       <c r="M220" t="s">
-        <v>500</v>
+        <v>241</v>
       </c>
       <c r="N220" t="s">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="O220" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P220" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I221" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J221" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K221" t="s">
         <v>84</v>
@@ -8335,10 +8341,10 @@
     </row>
     <row r="222" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I222" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J222" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K222" t="s">
         <v>84</v>
@@ -8347,24 +8353,24 @@
         <v>4</v>
       </c>
       <c r="M222" t="s">
-        <v>244</v>
+        <v>504</v>
       </c>
       <c r="N222" t="s">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="O222" t="s">
         <v>84</v>
       </c>
       <c r="P222" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I223" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J223" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K223" t="s">
         <v>84</v>
@@ -8373,24 +8379,24 @@
         <v>4</v>
       </c>
       <c r="M223" t="s">
-        <v>506</v>
+        <v>244</v>
       </c>
       <c r="N223" t="s">
-        <v>507</v>
+        <v>245</v>
       </c>
       <c r="O223" t="s">
         <v>84</v>
       </c>
       <c r="P223" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I224" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J224" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K224" t="s">
         <v>84</v>
@@ -8413,10 +8419,10 @@
     </row>
     <row r="225" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I225" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J225" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K225" t="s">
         <v>84</v>
@@ -8425,24 +8431,24 @@
         <v>4</v>
       </c>
       <c r="M225" t="s">
-        <v>246</v>
+        <v>510</v>
       </c>
       <c r="N225" t="s">
-        <v>247</v>
+        <v>511</v>
       </c>
       <c r="O225" t="s">
         <v>84</v>
       </c>
       <c r="P225" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I226" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J226" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K226" t="s">
         <v>84</v>
@@ -8451,24 +8457,24 @@
         <v>4</v>
       </c>
       <c r="M226" t="s">
-        <v>510</v>
+        <v>248</v>
       </c>
       <c r="N226" t="s">
-        <v>511</v>
+        <v>249</v>
       </c>
       <c r="O226" t="s">
         <v>84</v>
       </c>
       <c r="P226" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I227" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J227" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K227" t="s">
         <v>84</v>
@@ -8491,10 +8497,10 @@
     </row>
     <row r="228" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I228" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J228" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K228" t="s">
         <v>35</v>
@@ -8503,16 +8509,16 @@
         <v>4</v>
       </c>
       <c r="M228" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="N228" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="O228" t="s">
         <v>84</v>
       </c>
       <c r="P228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="9:16" x14ac:dyDescent="0.25">
@@ -8529,24 +8535,24 @@
         <v>4</v>
       </c>
       <c r="M229" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="N229" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="O229" t="s">
         <v>84</v>
       </c>
       <c r="P229" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I230" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J230" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K230" t="s">
         <v>84</v>
@@ -8555,24 +8561,24 @@
         <v>4</v>
       </c>
       <c r="M230" t="s">
-        <v>250</v>
+        <v>516</v>
       </c>
       <c r="N230" t="s">
-        <v>251</v>
+        <v>517</v>
       </c>
       <c r="O230" t="s">
         <v>84</v>
       </c>
       <c r="P230" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I231" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J231" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K231" t="s">
         <v>84</v>
@@ -8581,16 +8587,16 @@
         <v>4</v>
       </c>
       <c r="M231" t="s">
-        <v>521</v>
+        <v>250</v>
       </c>
       <c r="N231" t="s">
-        <v>522</v>
+        <v>251</v>
       </c>
       <c r="O231" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P231" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="9:16" x14ac:dyDescent="0.25">
@@ -8607,24 +8613,24 @@
         <v>4</v>
       </c>
       <c r="M232" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="N232" t="s">
-        <v>258</v>
+        <v>523</v>
       </c>
       <c r="O232" t="s">
         <v>35</v>
       </c>
       <c r="P232" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I233" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J233" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K233" t="s">
         <v>106</v>
@@ -8633,13 +8639,13 @@
         <v>4</v>
       </c>
       <c r="M233" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N233" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O233" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P233" t="s">
         <v>17</v>
@@ -8659,16 +8665,16 @@
         <v>4</v>
       </c>
       <c r="M234" t="s">
-        <v>566</v>
+        <v>254</v>
       </c>
       <c r="N234" t="s">
-        <v>567</v>
+        <v>255</v>
       </c>
       <c r="O234" t="s">
         <v>84</v>
       </c>
       <c r="P234" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="9:16" x14ac:dyDescent="0.25">
@@ -8685,24 +8691,24 @@
         <v>4</v>
       </c>
       <c r="M235" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="N235" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="O235" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P235" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I236" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K236" t="s">
         <v>84</v>
@@ -8717,7 +8723,7 @@
         <v>526</v>
       </c>
       <c r="O236" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P236" t="s">
         <v>4</v>
@@ -8725,10 +8731,10 @@
     </row>
     <row r="237" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I237" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K237" t="s">
         <v>84</v>
@@ -8737,24 +8743,24 @@
         <v>4</v>
       </c>
       <c r="M237" t="s">
-        <v>260</v>
+        <v>527</v>
       </c>
       <c r="N237" t="s">
-        <v>261</v>
+        <v>528</v>
       </c>
       <c r="O237" t="s">
         <v>84</v>
       </c>
       <c r="P237" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I238" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J238" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K238" t="s">
         <v>84</v>
@@ -8763,16 +8769,16 @@
         <v>4</v>
       </c>
       <c r="M238" t="s">
-        <v>527</v>
+        <v>261</v>
       </c>
       <c r="N238" t="s">
-        <v>528</v>
+        <v>262</v>
       </c>
       <c r="O238" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P238" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="9:16" x14ac:dyDescent="0.25">
@@ -8789,16 +8795,16 @@
         <v>4</v>
       </c>
       <c r="M239" t="s">
-        <v>263</v>
+        <v>529</v>
       </c>
       <c r="N239" t="s">
-        <v>264</v>
+        <v>530</v>
       </c>
       <c r="O239" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P239" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="9:16" x14ac:dyDescent="0.25">
@@ -8815,24 +8821,24 @@
         <v>4</v>
       </c>
       <c r="M240" t="s">
-        <v>574</v>
+        <v>264</v>
       </c>
       <c r="N240" t="s">
-        <v>575</v>
+        <v>265</v>
       </c>
       <c r="O240" t="s">
         <v>84</v>
       </c>
       <c r="P240" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I241" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J241" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K241" t="s">
         <v>84</v>
@@ -8841,16 +8847,16 @@
         <v>4</v>
       </c>
       <c r="M241" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="N241" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="O241" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P241" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="9:16" x14ac:dyDescent="0.25">
@@ -8867,16 +8873,16 @@
         <v>4</v>
       </c>
       <c r="M242" t="s">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="N242" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="O242" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="9:16" x14ac:dyDescent="0.25">
@@ -8893,24 +8899,24 @@
         <v>4</v>
       </c>
       <c r="M243" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="N243" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="O243" t="s">
         <v>84</v>
       </c>
       <c r="P243" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I244" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J244" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K244" t="s">
         <v>84</v>
@@ -8928,15 +8934,15 @@
         <v>84</v>
       </c>
       <c r="P244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I245" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J245" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K245" t="s">
         <v>84</v>
@@ -8945,13 +8951,13 @@
         <v>4</v>
       </c>
       <c r="M245" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="N245" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="O245" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P245" t="s">
         <v>5</v>
@@ -8977,7 +8983,7 @@
         <v>589</v>
       </c>
       <c r="O246" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P246" t="s">
         <v>5</v>
@@ -8985,10 +8991,10 @@
     </row>
     <row r="247" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I247" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J247" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K247" t="s">
         <v>84</v>
@@ -8997,16 +9003,16 @@
         <v>4</v>
       </c>
       <c r="M247" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="N247" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="O247" t="s">
         <v>84</v>
       </c>
       <c r="P247" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="9:16" x14ac:dyDescent="0.25">
@@ -9037,10 +9043,10 @@
     </row>
     <row r="249" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I249" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J249" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K249" t="s">
         <v>84</v>
@@ -9063,10 +9069,10 @@
     </row>
     <row r="250" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I250" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J250" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K250" t="s">
         <v>79</v>
@@ -9075,16 +9081,16 @@
         <v>4</v>
       </c>
       <c r="M250" t="s">
-        <v>267</v>
+        <v>541</v>
       </c>
       <c r="N250" t="s">
-        <v>268</v>
+        <v>542</v>
       </c>
       <c r="O250" t="s">
         <v>84</v>
       </c>
       <c r="P250" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="9:16" x14ac:dyDescent="0.25">
@@ -9101,16 +9107,16 @@
         <v>4</v>
       </c>
       <c r="M251" t="s">
-        <v>541</v>
+        <v>267</v>
       </c>
       <c r="N251" t="s">
-        <v>542</v>
+        <v>268</v>
       </c>
       <c r="O251" t="s">
         <v>84</v>
       </c>
       <c r="P251" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="9:16" x14ac:dyDescent="0.25">
@@ -9136,7 +9142,7 @@
         <v>84</v>
       </c>
       <c r="P252" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="9:16" x14ac:dyDescent="0.25">
@@ -9153,10 +9159,10 @@
         <v>4</v>
       </c>
       <c r="M253" t="s">
+        <v>545</v>
+      </c>
+      <c r="N253" t="s">
         <v>546</v>
-      </c>
-      <c r="N253" t="s">
-        <v>547</v>
       </c>
       <c r="O253" t="s">
         <v>84</v>
@@ -9179,24 +9185,24 @@
         <v>4</v>
       </c>
       <c r="M254" t="s">
-        <v>270</v>
+        <v>548</v>
       </c>
       <c r="N254" t="s">
-        <v>271</v>
+        <v>549</v>
       </c>
       <c r="O254" t="s">
         <v>84</v>
       </c>
       <c r="P254" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I255" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J255" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K255" t="s">
         <v>73</v>
@@ -9205,16 +9211,16 @@
         <v>4</v>
       </c>
       <c r="M255" t="s">
-        <v>548</v>
+        <v>271</v>
       </c>
       <c r="N255" t="s">
-        <v>549</v>
+        <v>272</v>
       </c>
       <c r="O255" t="s">
         <v>84</v>
       </c>
       <c r="P255" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="9:16" x14ac:dyDescent="0.25">
@@ -9231,16 +9237,16 @@
         <v>5</v>
       </c>
       <c r="M256" t="s">
-        <v>274</v>
+        <v>550</v>
       </c>
       <c r="N256" t="s">
-        <v>275</v>
+        <v>551</v>
       </c>
       <c r="O256" t="s">
         <v>84</v>
       </c>
       <c r="P256" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="9:16" x14ac:dyDescent="0.25">
@@ -9257,16 +9263,16 @@
         <v>5</v>
       </c>
       <c r="M257" t="s">
-        <v>550</v>
+        <v>274</v>
       </c>
       <c r="N257" t="s">
-        <v>551</v>
+        <v>275</v>
       </c>
       <c r="O257" t="s">
         <v>84</v>
       </c>
       <c r="P257" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="9:16" x14ac:dyDescent="0.25">
@@ -9315,7 +9321,7 @@
         <v>555</v>
       </c>
       <c r="O259" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="P259" t="s">
         <v>4</v>
@@ -9335,16 +9341,16 @@
         <v>5</v>
       </c>
       <c r="M260" t="s">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="N260" t="s">
-        <v>279</v>
+        <v>557</v>
       </c>
       <c r="O260" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="P260" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="9:16" x14ac:dyDescent="0.25">
@@ -9361,10 +9367,10 @@
         <v>5</v>
       </c>
       <c r="M261" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N261" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O261" t="s">
         <v>84</v>
@@ -9387,13 +9393,13 @@
         <v>5</v>
       </c>
       <c r="M262" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N262" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O262" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P262" t="s">
         <v>17</v>
@@ -9413,13 +9419,13 @@
         <v>5</v>
       </c>
       <c r="M263" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N263" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O263" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P263" t="s">
         <v>17</v>
@@ -9439,16 +9445,16 @@
         <v>5</v>
       </c>
       <c r="M264" t="s">
-        <v>558</v>
+        <v>288</v>
       </c>
       <c r="N264" t="s">
-        <v>559</v>
+        <v>289</v>
       </c>
       <c r="O264" t="s">
         <v>84</v>
       </c>
       <c r="P264" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="9:16" x14ac:dyDescent="0.25">
@@ -9465,16 +9471,16 @@
         <v>5</v>
       </c>
       <c r="M265" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N265" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O265" t="s">
         <v>84</v>
       </c>
       <c r="P265" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="9:16" x14ac:dyDescent="0.25">
@@ -9517,16 +9523,16 @@
         <v>5</v>
       </c>
       <c r="M267" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="N267" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="O267" t="s">
         <v>84</v>
       </c>
       <c r="P267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="9:16" x14ac:dyDescent="0.25">
@@ -9543,21 +9549,21 @@
         <v>5</v>
       </c>
       <c r="M268" t="s">
-        <v>292</v>
+        <v>598</v>
       </c>
       <c r="N268" t="s">
-        <v>293</v>
+        <v>599</v>
       </c>
       <c r="O268" t="s">
         <v>84</v>
       </c>
       <c r="P268" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I269" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J269" t="s">
         <v>69</v>
@@ -9569,24 +9575,24 @@
         <v>5</v>
       </c>
       <c r="M269" t="s">
-        <v>564</v>
+        <v>292</v>
       </c>
       <c r="N269" t="s">
-        <v>565</v>
+        <v>293</v>
       </c>
       <c r="O269" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P269" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I270" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J270" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K270" t="s">
         <v>63</v>
@@ -9595,16 +9601,16 @@
         <v>5</v>
       </c>
       <c r="M270" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="N270" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="O270" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="9:16" x14ac:dyDescent="0.25">
@@ -9635,10 +9641,10 @@
     </row>
     <row r="272" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I272" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J272" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K272" t="s">
         <v>35</v>
@@ -9647,24 +9653,24 @@
         <v>5</v>
       </c>
       <c r="M272" t="s">
-        <v>296</v>
+        <v>602</v>
       </c>
       <c r="N272" t="s">
-        <v>297</v>
+        <v>603</v>
       </c>
       <c r="O272" t="s">
         <v>84</v>
       </c>
       <c r="P272" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I273" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J273" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K273" t="s">
         <v>90</v>
@@ -9673,10 +9679,10 @@
         <v>5</v>
       </c>
       <c r="M273" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N273" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O273" t="s">
         <v>84</v>
@@ -9687,10 +9693,10 @@
     </row>
     <row r="274" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I274" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J274" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K274" t="s">
         <v>84</v>
@@ -9699,24 +9705,24 @@
         <v>5</v>
       </c>
       <c r="M274" t="s">
-        <v>568</v>
+        <v>300</v>
       </c>
       <c r="N274" t="s">
-        <v>569</v>
+        <v>301</v>
       </c>
       <c r="O274" t="s">
         <v>84</v>
       </c>
       <c r="P274" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I275" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J275" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K275" t="s">
         <v>84</v>
@@ -9725,16 +9731,16 @@
         <v>5</v>
       </c>
       <c r="M275" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="N275" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="O275" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="P275" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="9:16" x14ac:dyDescent="0.25">
@@ -9751,16 +9757,16 @@
         <v>5</v>
       </c>
       <c r="M276" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="N276" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="O276" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="P276" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="9:16" x14ac:dyDescent="0.25">
@@ -9791,10 +9797,10 @@
     </row>
     <row r="278" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I278" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J278" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K278" t="s">
         <v>73</v>
@@ -9803,24 +9809,24 @@
         <v>5</v>
       </c>
       <c r="M278" t="s">
-        <v>304</v>
+        <v>574</v>
       </c>
       <c r="N278" t="s">
-        <v>305</v>
+        <v>575</v>
       </c>
       <c r="O278" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P278" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I279" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J279" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K279" t="s">
         <v>84</v>
@@ -9829,13 +9835,13 @@
         <v>5</v>
       </c>
       <c r="M279" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N279" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O279" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P279" t="s">
         <v>17</v>
@@ -9855,24 +9861,24 @@
         <v>5</v>
       </c>
       <c r="M280" t="s">
-        <v>604</v>
+        <v>308</v>
       </c>
       <c r="N280" t="s">
-        <v>605</v>
+        <v>309</v>
       </c>
       <c r="O280" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P280" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I281" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J281" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K281" t="s">
         <v>84</v>
@@ -9881,24 +9887,24 @@
         <v>5</v>
       </c>
       <c r="M281" t="s">
-        <v>310</v>
+        <v>606</v>
       </c>
       <c r="N281" t="s">
-        <v>311</v>
+        <v>607</v>
       </c>
       <c r="O281" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P281" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I282" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J282" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K282" t="s">
         <v>84</v>
@@ -9921,10 +9927,10 @@
     </row>
     <row r="283" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I283" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J283" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K283" t="s">
         <v>84</v>
@@ -9933,10 +9939,10 @@
         <v>5</v>
       </c>
       <c r="M283" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N283" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O283" t="s">
         <v>84</v>
@@ -9947,10 +9953,10 @@
     </row>
     <row r="284" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I284" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J284" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K284" t="s">
         <v>84</v>
@@ -9959,24 +9965,24 @@
         <v>5</v>
       </c>
       <c r="M284" t="s">
-        <v>578</v>
+        <v>316</v>
       </c>
       <c r="N284" t="s">
-        <v>579</v>
+        <v>317</v>
       </c>
       <c r="O284" t="s">
         <v>84</v>
       </c>
       <c r="P284" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I285" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J285" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K285" t="s">
         <v>73</v>
@@ -9985,10 +9991,10 @@
         <v>5</v>
       </c>
       <c r="M285" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N285" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O285" t="s">
         <v>84</v>
@@ -9999,10 +10005,10 @@
     </row>
     <row r="286" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I286" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J286" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K286" t="s">
         <v>84</v>
@@ -10025,10 +10031,10 @@
     </row>
     <row r="287" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I287" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J287" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K287" t="s">
         <v>84</v>
@@ -10037,10 +10043,10 @@
         <v>5</v>
       </c>
       <c r="M287" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N287" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O287" t="s">
         <v>84</v>
@@ -10063,24 +10069,24 @@
         <v>5</v>
       </c>
       <c r="M288" t="s">
-        <v>320</v>
+        <v>586</v>
       </c>
       <c r="N288" t="s">
-        <v>321</v>
+        <v>587</v>
       </c>
       <c r="O288" t="s">
         <v>84</v>
       </c>
       <c r="P288" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I289" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J289" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K289" t="s">
         <v>84</v>
@@ -10089,24 +10095,24 @@
         <v>5</v>
       </c>
       <c r="M289" t="s">
-        <v>606</v>
+        <v>320</v>
       </c>
       <c r="N289" t="s">
-        <v>607</v>
+        <v>321</v>
       </c>
       <c r="O289" t="s">
         <v>84</v>
       </c>
       <c r="P289" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I290" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J290" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K290" t="s">
         <v>84</v>
@@ -10115,16 +10121,16 @@
         <v>5</v>
       </c>
       <c r="M290" t="s">
-        <v>322</v>
+        <v>608</v>
       </c>
       <c r="N290" t="s">
-        <v>323</v>
+        <v>609</v>
       </c>
       <c r="O290" t="s">
         <v>84</v>
       </c>
       <c r="P290" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="9:16" x14ac:dyDescent="0.25">
@@ -10141,13 +10147,13 @@
         <v>5</v>
       </c>
       <c r="M291" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N291" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O291" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P291" t="s">
         <v>17</v>
@@ -10167,16 +10173,16 @@
         <v>5</v>
       </c>
       <c r="M292" t="s">
-        <v>590</v>
+        <v>326</v>
       </c>
       <c r="N292" t="s">
-        <v>591</v>
+        <v>327</v>
       </c>
       <c r="O292" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P292" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="9:16" x14ac:dyDescent="0.25">
@@ -10199,7 +10205,7 @@
         <v>593</v>
       </c>
       <c r="O293" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P293" t="s">
         <v>4</v>
@@ -10219,24 +10225,24 @@
         <v>5</v>
       </c>
       <c r="M294" t="s">
-        <v>334</v>
+        <v>594</v>
       </c>
       <c r="N294" t="s">
-        <v>331</v>
+        <v>595</v>
       </c>
       <c r="O294" t="s">
         <v>79</v>
       </c>
       <c r="P294" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I295" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J295" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K295" t="s">
         <v>90</v>
@@ -10245,13 +10251,13 @@
         <v>5</v>
       </c>
       <c r="M295" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N295" t="s">
         <v>331</v>
       </c>
       <c r="O295" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P295" t="s">
         <v>17</v>
@@ -10259,10 +10265,10 @@
     </row>
     <row r="296" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I296" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J296" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K296" t="s">
         <v>84</v>
@@ -10271,13 +10277,13 @@
         <v>5</v>
       </c>
       <c r="M296" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N296" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O296" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P296" t="s">
         <v>17</v>
@@ -10297,10 +10303,10 @@
         <v>5</v>
       </c>
       <c r="M297" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N297" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O297" t="s">
         <v>106</v>
@@ -10323,13 +10329,13 @@
         <v>5</v>
       </c>
       <c r="M298" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N298" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O298" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P298" t="s">
         <v>17</v>
@@ -10349,24 +10355,24 @@
         <v>5</v>
       </c>
       <c r="M299" t="s">
-        <v>594</v>
+        <v>345</v>
       </c>
       <c r="N299" t="s">
-        <v>595</v>
+        <v>346</v>
       </c>
       <c r="O299" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P299" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I300" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J300" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K300" t="s">
         <v>73</v>
@@ -10375,16 +10381,16 @@
         <v>5</v>
       </c>
       <c r="M300" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="N300" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="O300" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="9:16" x14ac:dyDescent="0.25">
@@ -10413,26 +10419,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I302" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J302" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K302" t="s">
         <v>84</v>
       </c>
       <c r="L302" t="s">
+        <v>5</v>
+      </c>
+      <c r="M302" t="s">
+        <v>612</v>
+      </c>
+      <c r="N302" t="s">
+        <v>613</v>
+      </c>
+      <c r="O302" t="s">
+        <v>84</v>
+      </c>
+      <c r="P302" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="303" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I303" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J303" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K303" t="s">
         <v>84</v>
@@ -10443,10 +10461,10 @@
     </row>
     <row r="304" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I304" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J304" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K304" t="s">
         <v>73</v>
@@ -10457,10 +10475,10 @@
     </row>
     <row r="305" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I305" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J305" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K305" t="s">
         <v>84</v>
@@ -10471,10 +10489,10 @@
     </row>
     <row r="306" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I306" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J306" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K306" t="s">
         <v>84</v>
@@ -10485,10 +10503,10 @@
     </row>
     <row r="307" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I307" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J307" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K307" t="s">
         <v>84</v>
@@ -10555,10 +10573,10 @@
     </row>
     <row r="312" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I312" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J312" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K312" t="s">
         <v>35</v>
@@ -10569,10 +10587,10 @@
     </row>
     <row r="313" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I313" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J313" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K313" t="s">
         <v>84</v>
@@ -10639,10 +10657,10 @@
     </row>
     <row r="318" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I318" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J318" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K318" t="s">
         <v>73</v>
@@ -10653,10 +10671,10 @@
     </row>
     <row r="319" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I319" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J319" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K319" t="s">
         <v>84</v>
@@ -10681,10 +10699,10 @@
     </row>
     <row r="321" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I321" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J321" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K321" t="s">
         <v>84</v>
@@ -10723,10 +10741,10 @@
     </row>
     <row r="324" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I324" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J324" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K324" t="s">
         <v>84</v>
@@ -10737,10 +10755,10 @@
     </row>
     <row r="325" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I325" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J325" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K325" t="s">
         <v>84</v>
@@ -10751,10 +10769,10 @@
     </row>
     <row r="326" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I326" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J326" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K326" t="s">
         <v>73</v>
@@ -10793,7 +10811,7 @@
     </row>
     <row r="329" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I329" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J329" t="s">
         <v>183</v>
@@ -10807,10 +10825,10 @@
     </row>
     <row r="330" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I330" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J330" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K330" t="s">
         <v>84</v>
@@ -10821,10 +10839,10 @@
     </row>
     <row r="331" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I331" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J331" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K331" t="s">
         <v>84</v>
@@ -10835,10 +10853,10 @@
     </row>
     <row r="332" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I332" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J332" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K332" t="s">
         <v>84</v>
@@ -10863,10 +10881,10 @@
     </row>
     <row r="334" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I334" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="J334" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K334" t="s">
         <v>73</v>
@@ -10877,10 +10895,10 @@
     </row>
     <row r="335" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I335" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="J335" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K335" t="s">
         <v>73</v>
@@ -10905,10 +10923,10 @@
     </row>
     <row r="337" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I337" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J337" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K337" t="s">
         <v>84</v>
@@ -10919,10 +10937,10 @@
     </row>
     <row r="338" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I338" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J338" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K338" t="s">
         <v>84</v>
@@ -10947,10 +10965,10 @@
     </row>
     <row r="340" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I340" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J340" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K340" t="s">
         <v>84</v>
@@ -10961,10 +10979,10 @@
     </row>
     <row r="341" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I341" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J341" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K341" t="s">
         <v>84</v>
@@ -11003,10 +11021,10 @@
     </row>
     <row r="344" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I344" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J344" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K344" t="s">
         <v>73</v>
@@ -11017,10 +11035,10 @@
     </row>
     <row r="345" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I345" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J345" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K345" t="s">
         <v>84</v>
@@ -11031,10 +11049,10 @@
     </row>
     <row r="346" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I346" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J346" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K346" t="s">
         <v>79</v>
@@ -11045,10 +11063,10 @@
     </row>
     <row r="347" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I347" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J347" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K347" t="s">
         <v>84</v>
@@ -11059,10 +11077,10 @@
     </row>
     <row r="348" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I348" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J348" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K348" t="s">
         <v>106</v>
@@ -11073,10 +11091,10 @@
     </row>
     <row r="349" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I349" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J349" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K349" t="s">
         <v>84</v>
@@ -11087,10 +11105,10 @@
     </row>
     <row r="350" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I350" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J350" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K350" t="s">
         <v>84</v>
@@ -11129,10 +11147,10 @@
     </row>
     <row r="353" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I353" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J353" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K353" t="s">
         <v>73</v>
@@ -11157,10 +11175,10 @@
     </row>
     <row r="355" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I355" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J355" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K355" t="s">
         <v>84</v>
@@ -11171,10 +11189,10 @@
     </row>
     <row r="356" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I356" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J356" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K356" t="s">
         <v>84</v>
@@ -11199,10 +11217,10 @@
     </row>
     <row r="358" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I358" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J358" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K358" t="s">
         <v>84</v>
@@ -11213,10 +11231,10 @@
     </row>
     <row r="359" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I359" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J359" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K359" t="s">
         <v>84</v>
@@ -11227,10 +11245,10 @@
     </row>
     <row r="360" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I360" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J360" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K360" t="s">
         <v>35</v>
@@ -11241,10 +11259,10 @@
     </row>
     <row r="361" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I361" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J361" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K361" t="s">
         <v>84</v>
@@ -11255,10 +11273,10 @@
     </row>
     <row r="362" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I362" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J362" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K362" t="s">
         <v>84</v>
@@ -11283,10 +11301,10 @@
     </row>
     <row r="364" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I364" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J364" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K364" t="s">
         <v>73</v>
@@ -11311,10 +11329,10 @@
     </row>
     <row r="366" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I366" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J366" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K366" t="s">
         <v>84</v>
@@ -11325,10 +11343,10 @@
     </row>
     <row r="367" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I367" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="J367" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K367" t="s">
         <v>84</v>
@@ -11353,10 +11371,10 @@
     </row>
     <row r="369" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I369" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J369" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K369" t="s">
         <v>84</v>
@@ -11367,10 +11385,10 @@
     </row>
     <row r="370" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I370" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J370" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K370" t="s">
         <v>84</v>
@@ -11381,10 +11399,10 @@
     </row>
     <row r="371" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I371" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J371" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K371" t="s">
         <v>84</v>
@@ -11395,10 +11413,10 @@
     </row>
     <row r="372" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I372" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J372" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K372" t="s">
         <v>84</v>
@@ -11409,10 +11427,10 @@
     </row>
     <row r="373" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I373" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J373" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K373" t="s">
         <v>84</v>
@@ -11423,10 +11441,10 @@
     </row>
     <row r="374" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I374" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J374" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K374" t="s">
         <v>84</v>
@@ -11437,10 +11455,10 @@
     </row>
     <row r="375" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I375" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J375" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K375" t="s">
         <v>84</v>
@@ -11451,10 +11469,10 @@
     </row>
     <row r="376" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I376" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="J376" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K376" t="s">
         <v>63</v>
@@ -11465,10 +11483,10 @@
     </row>
     <row r="377" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I377" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J377" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K377" t="s">
         <v>84</v>
@@ -11507,10 +11525,10 @@
     </row>
     <row r="380" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I380" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J380" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K380" t="s">
         <v>84</v>
@@ -11535,10 +11553,10 @@
     </row>
     <row r="382" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I382" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J382" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K382" t="s">
         <v>84</v>
@@ -11549,10 +11567,10 @@
     </row>
     <row r="383" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I383" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="J383" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K383" t="s">
         <v>84</v>
@@ -11647,10 +11665,10 @@
     </row>
     <row r="390" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I390" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J390" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K390" t="s">
         <v>84</v>
@@ -11661,10 +11679,10 @@
     </row>
     <row r="391" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I391" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J391" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K391" t="s">
         <v>84</v>
@@ -11759,10 +11777,10 @@
     </row>
     <row r="398" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I398" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J398" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K398" t="s">
         <v>84</v>
@@ -11773,10 +11791,10 @@
     </row>
     <row r="399" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I399" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J399" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K399" t="s">
         <v>84</v>
@@ -12039,10 +12057,10 @@
     </row>
     <row r="418" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I418" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J418" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K418" t="s">
         <v>84</v>
@@ -12053,10 +12071,10 @@
     </row>
     <row r="419" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I419" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J419" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K419" t="s">
         <v>84</v>
@@ -12067,10 +12085,10 @@
     </row>
     <row r="420" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I420" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J420" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K420" t="s">
         <v>84</v>
@@ -12112,10 +12130,10 @@
         <v>208</v>
       </c>
       <c r="J423" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="K423" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L423" t="s">
         <v>6</v>
@@ -12123,13 +12141,13 @@
     </row>
     <row r="424" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I424" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J424" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="K424" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L424" t="s">
         <v>6</v>
@@ -12165,10 +12183,10 @@
     </row>
     <row r="427" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I427" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="J427" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="K427" t="s">
         <v>63</v>
@@ -12179,13 +12197,13 @@
     </row>
     <row r="428" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I428" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J428" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K428" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L428" t="s">
         <v>6</v>
@@ -12193,13 +12211,13 @@
     </row>
     <row r="429" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I429" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="J429" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="K429" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L429" t="s">
         <v>6</v>
@@ -12207,13 +12225,13 @@
     </row>
     <row r="430" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I430" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="J430" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="K430" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L430" t="s">
         <v>6</v>
@@ -12221,13 +12239,13 @@
     </row>
     <row r="431" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I431" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J431" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K431" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L431" t="s">
         <v>6</v>
@@ -12235,13 +12253,13 @@
     </row>
     <row r="432" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I432" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J432" t="s">
         <v>109</v>
       </c>
       <c r="K432" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="L432" t="s">
         <v>6</v>
@@ -12249,13 +12267,13 @@
     </row>
     <row r="433" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I433" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J433" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K433" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L433" t="s">
         <v>6</v>
@@ -12263,13 +12281,13 @@
     </row>
     <row r="434" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I434" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J434" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K434" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L434" t="s">
         <v>6</v>
@@ -12277,13 +12295,13 @@
     </row>
     <row r="435" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I435" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J435" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K435" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L435" t="s">
         <v>6</v>
@@ -12291,13 +12309,13 @@
     </row>
     <row r="436" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I436" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J436" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K436" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L436" t="s">
         <v>6</v>
@@ -12305,13 +12323,13 @@
     </row>
     <row r="437" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I437" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J437" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K437" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L437" t="s">
         <v>6</v>
@@ -12319,13 +12337,13 @@
     </row>
     <row r="438" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I438" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J438" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K438" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L438" t="s">
         <v>6</v>
@@ -12333,10 +12351,10 @@
     </row>
     <row r="439" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I439" t="s">
-        <v>424</v>
+        <v>150</v>
       </c>
       <c r="J439" t="s">
-        <v>425</v>
+        <v>151</v>
       </c>
       <c r="K439" t="s">
         <v>84</v>
@@ -12347,10 +12365,10 @@
     </row>
     <row r="440" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I440" t="s">
-        <v>172</v>
+        <v>426</v>
       </c>
       <c r="J440" t="s">
-        <v>173</v>
+        <v>427</v>
       </c>
       <c r="K440" t="s">
         <v>84</v>
@@ -12361,13 +12379,13 @@
     </row>
     <row r="441" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I441" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J441" t="s">
         <v>173</v>
       </c>
       <c r="K441" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="L441" t="s">
         <v>6</v>
@@ -12375,13 +12393,13 @@
     </row>
     <row r="442" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I442" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J442" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K442" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="L442" t="s">
         <v>6</v>
@@ -12389,13 +12407,13 @@
     </row>
     <row r="443" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I443" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J443" t="s">
         <v>178</v>
       </c>
       <c r="K443" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L443" t="s">
         <v>6</v>
@@ -12403,13 +12421,13 @@
     </row>
     <row r="444" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I444" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J444" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K444" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="L444" t="s">
         <v>6</v>
@@ -12417,13 +12435,13 @@
     </row>
     <row r="445" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I445" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J445" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K445" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="L445" t="s">
         <v>6</v>
@@ -12431,10 +12449,10 @@
     </row>
     <row r="446" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I446" t="s">
-        <v>467</v>
+        <v>192</v>
       </c>
       <c r="J446" t="s">
-        <v>468</v>
+        <v>193</v>
       </c>
       <c r="K446" t="s">
         <v>84</v>
@@ -12445,13 +12463,13 @@
     </row>
     <row r="447" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I447" t="s">
-        <v>216</v>
+        <v>469</v>
       </c>
       <c r="J447" t="s">
-        <v>217</v>
+        <v>470</v>
       </c>
       <c r="K447" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L447" t="s">
         <v>6</v>
@@ -12459,13 +12477,13 @@
     </row>
     <row r="448" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I448" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J448" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K448" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L448" t="s">
         <v>6</v>
@@ -12473,13 +12491,13 @@
     </row>
     <row r="449" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I449" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J449" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K449" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L449" t="s">
         <v>6</v>
@@ -12487,10 +12505,10 @@
     </row>
     <row r="450" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I450" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J450" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K450" t="s">
         <v>84</v>
@@ -12501,10 +12519,10 @@
     </row>
     <row r="451" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I451" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J451" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K451" t="s">
         <v>84</v>
@@ -12515,10 +12533,10 @@
     </row>
     <row r="452" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I452" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J452" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K452" t="s">
         <v>84</v>
@@ -12529,10 +12547,10 @@
     </row>
     <row r="453" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I453" t="s">
-        <v>516</v>
+        <v>248</v>
       </c>
       <c r="J453" t="s">
-        <v>517</v>
+        <v>249</v>
       </c>
       <c r="K453" t="s">
         <v>84</v>
@@ -12543,10 +12561,10 @@
     </row>
     <row r="454" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I454" t="s">
-        <v>274</v>
+        <v>516</v>
       </c>
       <c r="J454" t="s">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="K454" t="s">
         <v>84</v>
@@ -12557,10 +12575,10 @@
     </row>
     <row r="455" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I455" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="J455" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="K455" t="s">
         <v>84</v>
@@ -12571,10 +12589,10 @@
     </row>
     <row r="456" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I456" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J456" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K456" t="s">
         <v>84</v>
@@ -12585,10 +12603,10 @@
     </row>
     <row r="457" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I457" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J457" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K457" t="s">
         <v>84</v>
@@ -12599,13 +12617,13 @@
     </row>
     <row r="458" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I458" t="s">
-        <v>602</v>
+        <v>300</v>
       </c>
       <c r="J458" t="s">
-        <v>603</v>
+        <v>301</v>
       </c>
       <c r="K458" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="L458" t="s">
         <v>6</v>
@@ -12613,13 +12631,13 @@
     </row>
     <row r="459" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I459" t="s">
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="J459" t="s">
-        <v>305</v>
+        <v>605</v>
       </c>
       <c r="K459" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L459" t="s">
         <v>6</v>
@@ -12627,13 +12645,13 @@
     </row>
     <row r="460" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I460" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J460" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K460" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L460" t="s">
         <v>6</v>
@@ -12641,13 +12659,13 @@
     </row>
     <row r="461" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I461" t="s">
-        <v>604</v>
+        <v>308</v>
       </c>
       <c r="J461" t="s">
-        <v>605</v>
+        <v>309</v>
       </c>
       <c r="K461" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L461" t="s">
         <v>6</v>
@@ -12655,13 +12673,13 @@
     </row>
     <row r="462" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I462" t="s">
-        <v>310</v>
+        <v>606</v>
       </c>
       <c r="J462" t="s">
-        <v>311</v>
+        <v>607</v>
       </c>
       <c r="K462" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L462" t="s">
         <v>6</v>
@@ -12669,10 +12687,10 @@
     </row>
     <row r="463" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I463" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J463" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K463" t="s">
         <v>84</v>
@@ -12683,13 +12701,13 @@
     </row>
     <row r="464" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I464" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J464" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K464" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L464" t="s">
         <v>6</v>
@@ -12697,13 +12715,13 @@
     </row>
     <row r="465" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I465" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J465" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K465" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L465" t="s">
         <v>6</v>
@@ -12711,13 +12729,13 @@
     </row>
     <row r="466" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I466" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J466" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K466" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="L466" t="s">
         <v>6</v>
@@ -12725,10 +12743,10 @@
     </row>
     <row r="467" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I467" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J467" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K467" t="s">
         <v>106</v>
@@ -12739,27 +12757,27 @@
     </row>
     <row r="468" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I468" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="J468" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="K468" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="L468" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I469" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="J469" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K469" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="L469" t="s">
         <v>7</v>
@@ -12767,10 +12785,10 @@
     </row>
     <row r="470" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I470" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J470" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="K470" t="s">
         <v>84</v>
@@ -12781,13 +12799,13 @@
     </row>
     <row r="471" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I471" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="J471" t="s">
         <v>34</v>
       </c>
       <c r="K471" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="L471" t="s">
         <v>7</v>
@@ -12795,13 +12813,13 @@
     </row>
     <row r="472" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I472" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="J472" t="s">
         <v>34</v>
       </c>
       <c r="K472" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="L472" t="s">
         <v>7</v>
@@ -12809,13 +12827,13 @@
     </row>
     <row r="473" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I473" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J473" t="s">
         <v>34</v>
       </c>
       <c r="K473" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L473" t="s">
         <v>7</v>
@@ -12823,13 +12841,13 @@
     </row>
     <row r="474" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I474" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="J474" t="s">
         <v>34</v>
       </c>
       <c r="K474" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L474" t="s">
         <v>7</v>
@@ -12837,13 +12855,13 @@
     </row>
     <row r="475" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I475" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J475" t="s">
         <v>34</v>
       </c>
       <c r="K475" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="L475" t="s">
         <v>7</v>
@@ -12851,13 +12869,13 @@
     </row>
     <row r="476" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I476" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="J476" t="s">
         <v>34</v>
       </c>
       <c r="K476" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="L476" t="s">
         <v>7</v>
@@ -12865,13 +12883,13 @@
     </row>
     <row r="477" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I477" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="J477" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="K477" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="L477" t="s">
         <v>7</v>
@@ -12879,13 +12897,13 @@
     </row>
     <row r="478" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I478" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="J478" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="K478" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L478" t="s">
         <v>7</v>
@@ -12893,13 +12911,13 @@
     </row>
     <row r="479" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I479" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="J479" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="K479" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L479" t="s">
         <v>7</v>
@@ -12907,13 +12925,13 @@
     </row>
     <row r="480" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I480" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J480" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="K480" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="L480" t="s">
         <v>7</v>
@@ -12921,10 +12939,10 @@
     </row>
     <row r="481" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I481" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J481" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K481" t="s">
         <v>63</v>
@@ -12935,13 +12953,13 @@
     </row>
     <row r="482" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I482" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J482" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="K482" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L482" t="s">
         <v>7</v>
@@ -12949,15 +12967,29 @@
     </row>
     <row r="483" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I483" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J483" t="s">
         <v>253</v>
       </c>
       <c r="K483" t="s">
+        <v>75</v>
+      </c>
+      <c r="L483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I484" t="s">
+        <v>263</v>
+      </c>
+      <c r="J484" t="s">
+        <v>257</v>
+      </c>
+      <c r="K484" t="s">
         <v>79</v>
       </c>
-      <c r="L483" t="s">
+      <c r="L484" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12988,48 +13020,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -14113,454 +14145,454 @@
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G10">
-      <formula1>=IF(OR(B10="", A10=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B10,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B10)))</formula1>
+      <formula1>=IF(OR(B10="", A10=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B10,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B10)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G100">
-      <formula1>=IF(OR(B100="", A100=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B100,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B100)))</formula1>
+      <formula1>=IF(OR(B100="", A100=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B100,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B100)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G101">
-      <formula1>=IF(OR(B101="", A101=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B101,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B101)))</formula1>
+      <formula1>=IF(OR(B101="", A101=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B101,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B101)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G102">
-      <formula1>=IF(OR(B102="", A102=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B102,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B102)))</formula1>
+      <formula1>=IF(OR(B102="", A102=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B102,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B102)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G103">
-      <formula1>=IF(OR(B103="", A103=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B103,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B103)))</formula1>
+      <formula1>=IF(OR(B103="", A103=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B103,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B103)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G104">
-      <formula1>=IF(OR(B104="", A104=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B104,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B104)))</formula1>
+      <formula1>=IF(OR(B104="", A104=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B104,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B104)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G105">
-      <formula1>=IF(OR(B105="", A105=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B105,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B105)))</formula1>
+      <formula1>=IF(OR(B105="", A105=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B105,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B105)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G106">
-      <formula1>=IF(OR(B106="", A106=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B106,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B106)))</formula1>
+      <formula1>=IF(OR(B106="", A106=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B106,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B106)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G107">
-      <formula1>=IF(OR(B107="", A107=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B107,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B107)))</formula1>
+      <formula1>=IF(OR(B107="", A107=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B107,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B107)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G108">
-      <formula1>=IF(OR(B108="", A108=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B108,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B108)))</formula1>
+      <formula1>=IF(OR(B108="", A108=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B108,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B108)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G109">
-      <formula1>=IF(OR(B109="", A109=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B109,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B109)))</formula1>
+      <formula1>=IF(OR(B109="", A109=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B109,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B109)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G11">
-      <formula1>=IF(OR(B11="", A11=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B11,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B11)))</formula1>
+      <formula1>=IF(OR(B11="", A11=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B11,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B11)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G110">
-      <formula1>=IF(OR(B110="", A110=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B110,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B110)))</formula1>
+      <formula1>=IF(OR(B110="", A110=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B110,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B110)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G111">
-      <formula1>=IF(OR(B111="", A111=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B111,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B111)))</formula1>
+      <formula1>=IF(OR(B111="", A111=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B111,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B111)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G112">
-      <formula1>=IF(OR(B112="", A112=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B112,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B112)))</formula1>
+      <formula1>=IF(OR(B112="", A112=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B112,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B112)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G113">
-      <formula1>=IF(OR(B113="", A113=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B113,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B113)))</formula1>
+      <formula1>=IF(OR(B113="", A113=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B113,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B113)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G114">
-      <formula1>=IF(OR(B114="", A114=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B114,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B114)))</formula1>
+      <formula1>=IF(OR(B114="", A114=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B114,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B114)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G115">
-      <formula1>=IF(OR(B115="", A115=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B115,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B115)))</formula1>
+      <formula1>=IF(OR(B115="", A115=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B115,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B115)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G116">
-      <formula1>=IF(OR(B116="", A116=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B116,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B116)))</formula1>
+      <formula1>=IF(OR(B116="", A116=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B116,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B116)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G117">
-      <formula1>=IF(OR(B117="", A117=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B117,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B117)))</formula1>
+      <formula1>=IF(OR(B117="", A117=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B117,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B117)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G118">
-      <formula1>=IF(OR(B118="", A118=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B118,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B118)))</formula1>
+      <formula1>=IF(OR(B118="", A118=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B118,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B118)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G119">
-      <formula1>=IF(OR(B119="", A119=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B119,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B119)))</formula1>
+      <formula1>=IF(OR(B119="", A119=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B119,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B119)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G12">
-      <formula1>=IF(OR(B12="", A12=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B12,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B12)))</formula1>
+      <formula1>=IF(OR(B12="", A12=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B12,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B12)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G120">
-      <formula1>=IF(OR(B120="", A120=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B120,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B120)))</formula1>
+      <formula1>=IF(OR(B120="", A120=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B120,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B120)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G121">
-      <formula1>=IF(OR(B121="", A121=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B121,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B121)))</formula1>
+      <formula1>=IF(OR(B121="", A121=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B121,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B121)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G122">
-      <formula1>=IF(OR(B122="", A122=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B122,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B122)))</formula1>
+      <formula1>=IF(OR(B122="", A122=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B122,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B122)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G123">
-      <formula1>=IF(OR(B123="", A123=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B123,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B123)))</formula1>
+      <formula1>=IF(OR(B123="", A123=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B123,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B123)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G124">
-      <formula1>=IF(OR(B124="", A124=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B124,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B124)))</formula1>
+      <formula1>=IF(OR(B124="", A124=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B124,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B124)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G125">
-      <formula1>=IF(OR(B125="", A125=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B125,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B125)))</formula1>
+      <formula1>=IF(OR(B125="", A125=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B125,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B125)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G126">
-      <formula1>=IF(OR(B126="", A126=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B126,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B126)))</formula1>
+      <formula1>=IF(OR(B126="", A126=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B126,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B126)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G127">
-      <formula1>=IF(OR(B127="", A127=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B127,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B127)))</formula1>
+      <formula1>=IF(OR(B127="", A127=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B127,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B127)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G128">
-      <formula1>=IF(OR(B128="", A128=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B128,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B128)))</formula1>
+      <formula1>=IF(OR(B128="", A128=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B128,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B128)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G129">
-      <formula1>=IF(OR(B129="", A129=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B129,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B129)))</formula1>
+      <formula1>=IF(OR(B129="", A129=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B129,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B129)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G13">
-      <formula1>=IF(OR(B13="", A13=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B13,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B13)))</formula1>
+      <formula1>=IF(OR(B13="", A13=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B13,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B13)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G130">
-      <formula1>=IF(OR(B130="", A130=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B130,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B130)))</formula1>
+      <formula1>=IF(OR(B130="", A130=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B130,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B130)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G131">
-      <formula1>=IF(OR(B131="", A131=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B131,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B131)))</formula1>
+      <formula1>=IF(OR(B131="", A131=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B131,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B131)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G132">
-      <formula1>=IF(OR(B132="", A132=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B132,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B132)))</formula1>
+      <formula1>=IF(OR(B132="", A132=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B132,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B132)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G133">
-      <formula1>=IF(OR(B133="", A133=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B133,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B133)))</formula1>
+      <formula1>=IF(OR(B133="", A133=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B133,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B133)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G134">
-      <formula1>=IF(OR(B134="", A134=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B134,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B134)))</formula1>
+      <formula1>=IF(OR(B134="", A134=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B134,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B134)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G135">
-      <formula1>=IF(OR(B135="", A135=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B135,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B135)))</formula1>
+      <formula1>=IF(OR(B135="", A135=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B135,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B135)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G136">
-      <formula1>=IF(OR(B136="", A136=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B136,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B136)))</formula1>
+      <formula1>=IF(OR(B136="", A136=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B136,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B136)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G137">
-      <formula1>=IF(OR(B137="", A137=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B137,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B137)))</formula1>
+      <formula1>=IF(OR(B137="", A137=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B137,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B137)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G138">
-      <formula1>=IF(OR(B138="", A138=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B138,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B138)))</formula1>
+      <formula1>=IF(OR(B138="", A138=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B138,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B138)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G139">
-      <formula1>=IF(OR(B139="", A139=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B139,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B139)))</formula1>
+      <formula1>=IF(OR(B139="", A139=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B139,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B139)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G14">
-      <formula1>=IF(OR(B14="", A14=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B14,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B14)))</formula1>
+      <formula1>=IF(OR(B14="", A14=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B14,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B14)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G140">
-      <formula1>=IF(OR(B140="", A140=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B140,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B140)))</formula1>
+      <formula1>=IF(OR(B140="", A140=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B140,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B140)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G141">
-      <formula1>=IF(OR(B141="", A141=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B141,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B141)))</formula1>
+      <formula1>=IF(OR(B141="", A141=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B141,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B141)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G142">
-      <formula1>=IF(OR(B142="", A142=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B142,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B142)))</formula1>
+      <formula1>=IF(OR(B142="", A142=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B142,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B142)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G143">
-      <formula1>=IF(OR(B143="", A143=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B143,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B143)))</formula1>
+      <formula1>=IF(OR(B143="", A143=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B143,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B143)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G144">
-      <formula1>=IF(OR(B144="", A144=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B144,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B144)))</formula1>
+      <formula1>=IF(OR(B144="", A144=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B144,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B144)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G145">
-      <formula1>=IF(OR(B145="", A145=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B145,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B145)))</formula1>
+      <formula1>=IF(OR(B145="", A145=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B145,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B145)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G146">
-      <formula1>=IF(OR(B146="", A146=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B146,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B146)))</formula1>
+      <formula1>=IF(OR(B146="", A146=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B146,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B146)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G147">
-      <formula1>=IF(OR(B147="", A147=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B147,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B147)))</formula1>
+      <formula1>=IF(OR(B147="", A147=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B147,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B147)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G148">
-      <formula1>=IF(OR(B148="", A148=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B148,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B148)))</formula1>
+      <formula1>=IF(OR(B148="", A148=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B148,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B148)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G149">
-      <formula1>=IF(OR(B149="", A149=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B149,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B149)))</formula1>
+      <formula1>=IF(OR(B149="", A149=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B149,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B149)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G15">
-      <formula1>=IF(OR(B15="", A15=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B15,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B15)))</formula1>
+      <formula1>=IF(OR(B15="", A15=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B15,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B15)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G150">
-      <formula1>=IF(OR(B150="", A150=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B150,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B150)))</formula1>
+      <formula1>=IF(OR(B150="", A150=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B150,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B150)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G151">
-      <formula1>=IF(OR(B151="", A151=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B151,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B151)))</formula1>
+      <formula1>=IF(OR(B151="", A151=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B151,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B151)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G152">
-      <formula1>=IF(OR(B152="", A152=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B152,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B152)))</formula1>
+      <formula1>=IF(OR(B152="", A152=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B152,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B152)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G153">
-      <formula1>=IF(OR(B153="", A153=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B153,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B153)))</formula1>
+      <formula1>=IF(OR(B153="", A153=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B153,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B153)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G16">
-      <formula1>=IF(OR(B16="", A16=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B16,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B16)))</formula1>
+      <formula1>=IF(OR(B16="", A16=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B16,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B16)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G17">
-      <formula1>=IF(OR(B17="", A17=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B17,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B17)))</formula1>
+      <formula1>=IF(OR(B17="", A17=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B17,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B17)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G18">
-      <formula1>=IF(OR(B18="", A18=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B18,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B18)))</formula1>
+      <formula1>=IF(OR(B18="", A18=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B18,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B18)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G19">
-      <formula1>=IF(OR(B19="", A19=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B19,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B19)))</formula1>
+      <formula1>=IF(OR(B19="", A19=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B19,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B19)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G20">
-      <formula1>=IF(OR(B20="", A20=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B20,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B20)))</formula1>
+      <formula1>=IF(OR(B20="", A20=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B20,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B20)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G21">
-      <formula1>=IF(OR(B21="", A21=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B21,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B21)))</formula1>
+      <formula1>=IF(OR(B21="", A21=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B21,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B21)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G22">
-      <formula1>=IF(OR(B22="", A22=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B22,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B22)))</formula1>
+      <formula1>=IF(OR(B22="", A22=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B22,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B22)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G23">
-      <formula1>=IF(OR(B23="", A23=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B23,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B23)))</formula1>
+      <formula1>=IF(OR(B23="", A23=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B23,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B23)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G24">
-      <formula1>=IF(OR(B24="", A24=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B24,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B24)))</formula1>
+      <formula1>=IF(OR(B24="", A24=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B24,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B24)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G25">
-      <formula1>=IF(OR(B25="", A25=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B25,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B25)))</formula1>
+      <formula1>=IF(OR(B25="", A25=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B25,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B25)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G26">
-      <formula1>=IF(OR(B26="", A26=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B26,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B26)))</formula1>
+      <formula1>=IF(OR(B26="", A26=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B26,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B26)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G27">
-      <formula1>=IF(OR(B27="", A27=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B27,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B27)))</formula1>
+      <formula1>=IF(OR(B27="", A27=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B27,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B27)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G28">
-      <formula1>=IF(OR(B28="", A28=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B28,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B28)))</formula1>
+      <formula1>=IF(OR(B28="", A28=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B28,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B28)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G29">
-      <formula1>=IF(OR(B29="", A29=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B29,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B29)))</formula1>
+      <formula1>=IF(OR(B29="", A29=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B29,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B29)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G30">
-      <formula1>=IF(OR(B30="", A30=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B30,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B30)))</formula1>
+      <formula1>=IF(OR(B30="", A30=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B30,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B30)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G31">
-      <formula1>=IF(OR(B31="", A31=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B31,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B31)))</formula1>
+      <formula1>=IF(OR(B31="", A31=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B31,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B31)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G32">
-      <formula1>=IF(OR(B32="", A32=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B32,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B32)))</formula1>
+      <formula1>=IF(OR(B32="", A32=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B32,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B32)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G33">
-      <formula1>=IF(OR(B33="", A33=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B33,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B33)))</formula1>
+      <formula1>=IF(OR(B33="", A33=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B33,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B33)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G34">
-      <formula1>=IF(OR(B34="", A34=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B34,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B34)))</formula1>
+      <formula1>=IF(OR(B34="", A34=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B34,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B34)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G35">
-      <formula1>=IF(OR(B35="", A35=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B35,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B35)))</formula1>
+      <formula1>=IF(OR(B35="", A35=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B35,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B35)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G36">
-      <formula1>=IF(OR(B36="", A36=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B36,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B36)))</formula1>
+      <formula1>=IF(OR(B36="", A36=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B36,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B36)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G37">
-      <formula1>=IF(OR(B37="", A37=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B37,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B37)))</formula1>
+      <formula1>=IF(OR(B37="", A37=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B37,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B37)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G38">
-      <formula1>=IF(OR(B38="", A38=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B38,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B38)))</formula1>
+      <formula1>=IF(OR(B38="", A38=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B38,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B38)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G39">
-      <formula1>=IF(OR(B39="", A39=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B39,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B39)))</formula1>
+      <formula1>=IF(OR(B39="", A39=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B39,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B39)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G4">
-      <formula1>=IF(OR(B4="", A4=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B4,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B4)))</formula1>
+      <formula1>=IF(OR(B4="", A4=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B4,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B4)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G40">
-      <formula1>=IF(OR(B40="", A40=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B40,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B40)))</formula1>
+      <formula1>=IF(OR(B40="", A40=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B40,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B40)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G41">
-      <formula1>=IF(OR(B41="", A41=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B41,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B41)))</formula1>
+      <formula1>=IF(OR(B41="", A41=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B41,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B41)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G42">
-      <formula1>=IF(OR(B42="", A42=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B42,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B42)))</formula1>
+      <formula1>=IF(OR(B42="", A42=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B42,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B42)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G43">
-      <formula1>=IF(OR(B43="", A43=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B43,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B43)))</formula1>
+      <formula1>=IF(OR(B43="", A43=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B43,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B43)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G44">
-      <formula1>=IF(OR(B44="", A44=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B44,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B44)))</formula1>
+      <formula1>=IF(OR(B44="", A44=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B44,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B44)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G45">
-      <formula1>=IF(OR(B45="", A45=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B45,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B45)))</formula1>
+      <formula1>=IF(OR(B45="", A45=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B45,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B45)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G46">
-      <formula1>=IF(OR(B46="", A46=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B46,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B46)))</formula1>
+      <formula1>=IF(OR(B46="", A46=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B46,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B46)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G47">
-      <formula1>=IF(OR(B47="", A47=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B47,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B47)))</formula1>
+      <formula1>=IF(OR(B47="", A47=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B47,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B47)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G48">
-      <formula1>=IF(OR(B48="", A48=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B48,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B48)))</formula1>
+      <formula1>=IF(OR(B48="", A48=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B48,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B48)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G49">
-      <formula1>=IF(OR(B49="", A49=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B49,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B49)))</formula1>
+      <formula1>=IF(OR(B49="", A49=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B49,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B49)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G5">
-      <formula1>=IF(OR(B5="", A5=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B5,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B5)))</formula1>
+      <formula1>=IF(OR(B5="", A5=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B5,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B5)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G50">
-      <formula1>=IF(OR(B50="", A50=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B50,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B50)))</formula1>
+      <formula1>=IF(OR(B50="", A50=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B50,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B50)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G51">
-      <formula1>=IF(OR(B51="", A51=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B51,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B51)))</formula1>
+      <formula1>=IF(OR(B51="", A51=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B51,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B51)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G52">
-      <formula1>=IF(OR(B52="", A52=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B52,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B52)))</formula1>
+      <formula1>=IF(OR(B52="", A52=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B52,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B52)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G53">
-      <formula1>=IF(OR(B53="", A53=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B53,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B53)))</formula1>
+      <formula1>=IF(OR(B53="", A53=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B53,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B53)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G54">
-      <formula1>=IF(OR(B54="", A54=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B54,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B54)))</formula1>
+      <formula1>=IF(OR(B54="", A54=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B54,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B54)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G55">
-      <formula1>=IF(OR(B55="", A55=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B55,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B55)))</formula1>
+      <formula1>=IF(OR(B55="", A55=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B55,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B55)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G56">
-      <formula1>=IF(OR(B56="", A56=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B56,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B56)))</formula1>
+      <formula1>=IF(OR(B56="", A56=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B56,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B56)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G57">
-      <formula1>=IF(OR(B57="", A57=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B57,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B57)))</formula1>
+      <formula1>=IF(OR(B57="", A57=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B57,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B57)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G58">
-      <formula1>=IF(OR(B58="", A58=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B58,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B58)))</formula1>
+      <formula1>=IF(OR(B58="", A58=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B58,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B58)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G59">
-      <formula1>=IF(OR(B59="", A59=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B59,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B59)))</formula1>
+      <formula1>=IF(OR(B59="", A59=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B59,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B59)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G6">
-      <formula1>=IF(OR(B6="", A6=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B6,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B6)))</formula1>
+      <formula1>=IF(OR(B6="", A6=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B6,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B6)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G60">
-      <formula1>=IF(OR(B60="", A60=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B60,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B60)))</formula1>
+      <formula1>=IF(OR(B60="", A60=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B60,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B60)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G61">
-      <formula1>=IF(OR(B61="", A61=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B61,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B61)))</formula1>
+      <formula1>=IF(OR(B61="", A61=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B61,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B61)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G62">
-      <formula1>=IF(OR(B62="", A62=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B62,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B62)))</formula1>
+      <formula1>=IF(OR(B62="", A62=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B62,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B62)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G63">
-      <formula1>=IF(OR(B63="", A63=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B63,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B63)))</formula1>
+      <formula1>=IF(OR(B63="", A63=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B63,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B63)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G64">
-      <formula1>=IF(OR(B64="", A64=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B64,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B64)))</formula1>
+      <formula1>=IF(OR(B64="", A64=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B64,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B64)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G65">
-      <formula1>=IF(OR(B65="", A65=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B65,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B65)))</formula1>
+      <formula1>=IF(OR(B65="", A65=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B65,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B65)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G66">
-      <formula1>=IF(OR(B66="", A66=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B66,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B66)))</formula1>
+      <formula1>=IF(OR(B66="", A66=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B66,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B66)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G67">
-      <formula1>=IF(OR(B67="", A67=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B67,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B67)))</formula1>
+      <formula1>=IF(OR(B67="", A67=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B67,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B67)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G68">
-      <formula1>=IF(OR(B68="", A68=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B68,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B68)))</formula1>
+      <formula1>=IF(OR(B68="", A68=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B68,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B68)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G69">
-      <formula1>=IF(OR(B69="", A69=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B69,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B69)))</formula1>
+      <formula1>=IF(OR(B69="", A69=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B69,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B69)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G7">
-      <formula1>=IF(OR(B7="", A7=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B7,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B7)))</formula1>
+      <formula1>=IF(OR(B7="", A7=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B7,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B7)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G70">
-      <formula1>=IF(OR(B70="", A70=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B70,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B70)))</formula1>
+      <formula1>=IF(OR(B70="", A70=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B70,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B70)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G71">
-      <formula1>=IF(OR(B71="", A71=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B71,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B71)))</formula1>
+      <formula1>=IF(OR(B71="", A71=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B71,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B71)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G72">
-      <formula1>=IF(OR(B72="", A72=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B72,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B72)))</formula1>
+      <formula1>=IF(OR(B72="", A72=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B72,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B72)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G73">
-      <formula1>=IF(OR(B73="", A73=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B73,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B73)))</formula1>
+      <formula1>=IF(OR(B73="", A73=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B73,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B73)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G74">
-      <formula1>=IF(OR(B74="", A74=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B74,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B74)))</formula1>
+      <formula1>=IF(OR(B74="", A74=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B74,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B74)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G75">
-      <formula1>=IF(OR(B75="", A75=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B75,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B75)))</formula1>
+      <formula1>=IF(OR(B75="", A75=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B75,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B75)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G76">
-      <formula1>=IF(OR(B76="", A76=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B76,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B76)))</formula1>
+      <formula1>=IF(OR(B76="", A76=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B76,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B76)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G77">
-      <formula1>=IF(OR(B77="", A77=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B77,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B77)))</formula1>
+      <formula1>=IF(OR(B77="", A77=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B77,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B77)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G78">
-      <formula1>=IF(OR(B78="", A78=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B78,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B78)))</formula1>
+      <formula1>=IF(OR(B78="", A78=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B78,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B78)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G79">
-      <formula1>=IF(OR(B79="", A79=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B79,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B79)))</formula1>
+      <formula1>=IF(OR(B79="", A79=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B79,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B79)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G8">
-      <formula1>=IF(OR(B8="", A8=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B8,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B8)))</formula1>
+      <formula1>=IF(OR(B8="", A8=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B8,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B8)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G80">
-      <formula1>=IF(OR(B80="", A80=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B80,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B80)))</formula1>
+      <formula1>=IF(OR(B80="", A80=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B80,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B80)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G81">
-      <formula1>=IF(OR(B81="", A81=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B81,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B81)))</formula1>
+      <formula1>=IF(OR(B81="", A81=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B81,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B81)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G82">
-      <formula1>=IF(OR(B82="", A82=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B82,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B82)))</formula1>
+      <formula1>=IF(OR(B82="", A82=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B82,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B82)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G83">
-      <formula1>=IF(OR(B83="", A83=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B83,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B83)))</formula1>
+      <formula1>=IF(OR(B83="", A83=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B83,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B83)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G84">
-      <formula1>=IF(OR(B84="", A84=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B84,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B84)))</formula1>
+      <formula1>=IF(OR(B84="", A84=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B84,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B84)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G85">
-      <formula1>=IF(OR(B85="", A85=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B85,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B85)))</formula1>
+      <formula1>=IF(OR(B85="", A85=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B85,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B85)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G86">
-      <formula1>=IF(OR(B86="", A86=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B86,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B86)))</formula1>
+      <formula1>=IF(OR(B86="", A86=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B86,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B86)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G87">
-      <formula1>=IF(OR(B87="", A87=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B87,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B87)))</formula1>
+      <formula1>=IF(OR(B87="", A87=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B87,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B87)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G88">
-      <formula1>=IF(OR(B88="", A88=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B88,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B88)))</formula1>
+      <formula1>=IF(OR(B88="", A88=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B88,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B88)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G89">
-      <formula1>=IF(OR(B89="", A89=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B89,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B89)))</formula1>
+      <formula1>=IF(OR(B89="", A89=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B89,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B89)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G9">
-      <formula1>=IF(OR(B9="", A9=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B9,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B9)))</formula1>
+      <formula1>=IF(OR(B9="", A9=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B9,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B9)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G90">
-      <formula1>=IF(OR(B90="", A90=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B90,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B90)))</formula1>
+      <formula1>=IF(OR(B90="", A90=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B90,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B90)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G91">
-      <formula1>=IF(OR(B91="", A91=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B91,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B91)))</formula1>
+      <formula1>=IF(OR(B91="", A91=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B91,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B91)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G92">
-      <formula1>=IF(OR(B92="", A92=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B92,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B92)))</formula1>
+      <formula1>=IF(OR(B92="", A92=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B92,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B92)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G93">
-      <formula1>=IF(OR(B93="", A93=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B93,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B93)))</formula1>
+      <formula1>=IF(OR(B93="", A93=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B93,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B93)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G94">
-      <formula1>=IF(OR(B94="", A94=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B94,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B94)))</formula1>
+      <formula1>=IF(OR(B94="", A94=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B94,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B94)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G95">
-      <formula1>=IF(OR(B95="", A95=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B95,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B95)))</formula1>
+      <formula1>=IF(OR(B95="", A95=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B95,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B95)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G96">
-      <formula1>=IF(OR(B96="", A96=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B96,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B96)))</formula1>
+      <formula1>=IF(OR(B96="", A96=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B96,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B96)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G97">
-      <formula1>=IF(OR(B97="", A97=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B97,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B97)))</formula1>
+      <formula1>=IF(OR(B97="", A97=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B97,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B97)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G98">
-      <formula1>=IF(OR(B98="", A98=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B98,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B98)))</formula1>
+      <formula1>=IF(OR(B98="", A98=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B98,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B98)))</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" error="Por favor selecciona un RUT válido." sqref="G99">
-      <formula1>=IF(OR(B99="", A99=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B99,INDIRECT("Info!$L$2:$L$"&amp;483),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;483),B99)))</formula1>
+      <formula1>=IF(OR(B99="", A99=""), "", OFFSET(INDIRECT("Info!$I$2"),MATCH(B99,INDIRECT("Info!$L$2:$L$"&amp;484),0)-1,0,COUNTIF(INDIRECT("Info!$L$2:$L$"&amp;484),B99)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
